--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A2BEEA-1FF4-45CE-B1EB-BC4C4AF375BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6508CC-8A49-4598-9C86-8D58499BD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="10" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="204">
   <si>
     <t>Course</t>
   </si>
@@ -709,6 +709,18 @@
   </si>
   <si>
     <t>Priyankshu Giri</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>2:00 PM - 4:00 PM</t>
+  </si>
+  <si>
+    <t>1) Background Of</t>
+  </si>
+  <si>
+    <t>Economics</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1860,10 +1872,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2987,13 +2995,15 @@
   <dimension ref="B1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3052,7 +3062,9 @@
       <c r="C4" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="128"/>
+      <c r="D4" s="150">
+        <v>45293</v>
+      </c>
       <c r="E4" s="128"/>
       <c r="F4" s="128"/>
       <c r="G4" s="128"/>
@@ -3064,15 +3076,17 @@
       <c r="M4" s="147"/>
       <c r="N4" s="115"/>
       <c r="O4" s="116"/>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="185"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="62"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="161"/>
       <c r="C5" s="163"/>
-      <c r="D5" s="61"/>
+      <c r="D5" s="151" t="s">
+        <v>201</v>
+      </c>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
@@ -3084,10 +3098,10 @@
       <c r="M5" s="148"/>
       <c r="N5" s="59"/>
       <c r="O5" s="60"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="185"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="62"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
@@ -3096,7 +3110,9 @@
       <c r="C6" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="49" t="s">
+        <v>200</v>
+      </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -3108,10 +3124,10 @@
       <c r="M6" s="52"/>
       <c r="N6" s="53"/>
       <c r="O6" s="54"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="185"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="185"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="62"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
@@ -3130,10 +3146,10 @@
       <c r="M7" s="50"/>
       <c r="N7" s="42"/>
       <c r="O7" s="43"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="184"/>
-      <c r="T7" s="185"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="62"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
@@ -3152,10 +3168,10 @@
       <c r="M8" s="50"/>
       <c r="N8" s="42"/>
       <c r="O8" s="43"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="185"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="62"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
@@ -3228,7 +3244,9 @@
         <v>36</v>
       </c>
       <c r="C12" s="159"/>
-      <c r="D12" s="62"/>
+      <c r="D12" s="62" t="s">
+        <v>202</v>
+      </c>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
@@ -3248,7 +3266,9 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="135"/>
       <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="D13" s="62" t="s">
+        <v>203</v>
+      </c>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
@@ -5733,7 +5753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
   <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6508CC-8A49-4598-9C86-8D58499BD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A662FF-BFA0-4DE5-A37C-6874767B752B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="10" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
@@ -910,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1473,11 +1473,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1870,6 +1890,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2224,12 +2259,13 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
@@ -2282,7 +2318,7 @@
   <dimension ref="B1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2995,7 +3031,7 @@
   <dimension ref="B1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3038,7 +3074,7 @@
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="157"/>
       <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
+      <c r="D3" s="190"/>
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="158"/>
@@ -3059,10 +3095,10 @@
       <c r="B4" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="150">
+      <c r="D4" s="145">
         <v>45293</v>
       </c>
       <c r="E4" s="128"/>
@@ -3083,8 +3119,8 @@
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="151" t="s">
+      <c r="C5" s="185"/>
+      <c r="D5" s="146" t="s">
         <v>201</v>
       </c>
       <c r="E5" s="61"/>
@@ -3107,10 +3143,10 @@
       <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="42" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="39"/>
@@ -3133,9 +3169,9 @@
       <c r="B7" s="33">
         <v>2</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="42"/>
       <c r="G7" s="49"/>
       <c r="H7" s="62"/>
@@ -3155,9 +3191,9 @@
       <c r="B8" s="33">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="42"/>
       <c r="G8" s="49"/>
       <c r="H8" s="62"/>
@@ -3177,9 +3213,9 @@
       <c r="B9" s="33">
         <v>4</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="42"/>
       <c r="G9" s="49"/>
       <c r="H9" s="62"/>
@@ -3199,9 +3235,9 @@
       <c r="B10" s="33">
         <v>5</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="42"/>
       <c r="G10" s="49"/>
       <c r="H10" s="62"/>
@@ -3221,9 +3257,9 @@
       <c r="B11" s="129">
         <v>6</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="132"/>
       <c r="G11" s="63"/>
       <c r="H11" s="133"/>
@@ -3243,11 +3279,11 @@
       <c r="B12" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="62"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
@@ -3265,11 +3301,11 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="135"/>
-      <c r="C13" s="62"/>
+      <c r="C13" s="141"/>
       <c r="D13" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="62"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
@@ -3287,9 +3323,9 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="135"/>
-      <c r="C14" s="62"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
@@ -3307,9 +3343,9 @@
     </row>
     <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="139"/>
       <c r="F15" s="138"/>
       <c r="G15" s="138"/>
       <c r="H15" s="138"/>
@@ -4109,8 +4145,7 @@
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A662FF-BFA0-4DE5-A37C-6874767B752B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2E57B-9D32-4A68-89DF-B6EF3B0415C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="10" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="7" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -84,26 +84,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={4EE09740-4AB8-4767-BD8A-38F7D58F39B2}</author>
-  </authors>
-  <commentList>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{4EE09740-4AB8-4767-BD8A-38F7D58F39B2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1) Elasticity</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="206">
   <si>
     <t>Course</t>
   </si>
@@ -721,6 +703,12 @@
   </si>
   <si>
     <t>Economics</t>
+  </si>
+  <si>
+    <t>10:30 PM - 12:30 PM</t>
+  </si>
+  <si>
+    <t>1) Transmission of heat</t>
   </si>
 </sst>
 </file>
@@ -1802,6 +1790,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1892,20 +1883,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2246,14 +2234,6 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D12" dT="2023-11-04T08:33:38.77" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{4EE09740-4AB8-4767-BD8A-38F7D58F39B2}">
-    <text>1) Elasticity</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C90D3B1-C76E-4CE0-A4AA-1FA923F6E3CF}">
   <dimension ref="B1:C5"/>
@@ -2337,14 +2317,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="159"/>
       <c r="M2" s="97" t="s">
         <v>145</v>
       </c>
@@ -2362,18 +2342,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="164" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="166"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="169"/>
       <c r="M3" s="62"/>
       <c r="N3" s="96"/>
       <c r="O3" s="62"/>
@@ -2381,10 +2361,10 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="165" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -2410,8 +2390,8 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="166"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -2585,10 +2565,10 @@
       <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="94"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -3030,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C94FC2-4E02-4E43-9E5D-811D6F46FE15}">
   <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3045,19 +3025,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159"/>
       <c r="Q2" s="98" t="s">
         <v>143</v>
       </c>
@@ -3072,30 +3052,30 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="166"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="169"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="62"/>
       <c r="S3" s="96"/>
       <c r="T3" s="62"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="188" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="145">
@@ -3118,8 +3098,8 @@
       <c r="T4" s="62"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="185"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="189"/>
       <c r="D5" s="146" t="s">
         <v>201</v>
       </c>
@@ -3143,7 +3123,7 @@
       <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="154" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="42" t="s">
@@ -3257,7 +3237,7 @@
       <c r="B11" s="129">
         <v>6</v>
       </c>
-      <c r="C11" s="187"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="42"/>
       <c r="E11" s="131"/>
       <c r="F11" s="132"/>
@@ -3276,10 +3256,10 @@
       <c r="T11" s="62"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="188"/>
+      <c r="C12" s="190"/>
       <c r="D12" s="62" t="s">
         <v>202</v>
       </c>
@@ -3343,7 +3323,7 @@
     </row>
     <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="137"/>
-      <c r="C15" s="189"/>
+      <c r="C15" s="156"/>
       <c r="D15" s="62"/>
       <c r="E15" s="139"/>
       <c r="F15" s="138"/>
@@ -4403,14 +4383,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="159"/>
       <c r="M2" s="125" t="s">
         <v>143</v>
       </c>
@@ -4425,28 +4405,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="164" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="166"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="169"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="165" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -4469,8 +4449,8 @@
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="166"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -4637,10 +4617,10 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -4946,16 +4926,16 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="159"/>
       <c r="O2" s="125" t="s">
         <v>143</v>
       </c>
@@ -4970,30 +4950,30 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="164" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="166"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="169"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="62"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="165" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128"/>
@@ -5018,8 +4998,8 @@
       <c r="R4" s="62"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="166"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
@@ -5200,10 +5180,10 @@
       <c r="R11" s="62"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="168"/>
+      <c r="C12" s="171"/>
       <c r="D12" s="126"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -5281,18 +5261,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
@@ -5308,19 +5288,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="178"/>
       <c r="Q2" s="98" t="s">
         <v>143</v>
       </c>
@@ -5335,33 +5315,35 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="166"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="169"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="62"/>
       <c r="S3" s="96"/>
       <c r="T3" s="62"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="152"/>
+      <c r="D4" s="152">
+        <v>45297</v>
+      </c>
       <c r="E4" s="152"/>
       <c r="F4" s="152"/>
       <c r="G4" s="152"/>
@@ -5385,9 +5367,11 @@
       <c r="T4" s="124"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="170"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="61" t="s">
+        <v>204</v>
+      </c>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
@@ -5417,7 +5401,9 @@
       <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="39" t="s">
+        <v>200</v>
+      </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -5445,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="49"/>
@@ -5473,7 +5459,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="49"/>
@@ -5501,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="41"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="49"/>
@@ -5529,7 +5515,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="49"/>
@@ -5581,11 +5567,13 @@
       <c r="T11" s="124"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="62"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="62" t="s">
+        <v>205</v>
+      </c>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
@@ -5780,7 +5768,6 @@
     <mergeCell ref="B2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5813,19 +5800,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159"/>
       <c r="Q2" s="98" t="s">
         <v>143</v>
       </c>
@@ -5840,30 +5827,30 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="166"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="169"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="62"/>
       <c r="S3" s="96"/>
       <c r="T3" s="62"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="184" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128"/>
@@ -5890,8 +5877,8 @@
       <c r="T4" s="124"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="166"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
@@ -6088,10 +6075,10 @@
       <c r="T11" s="62"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2E57B-9D32-4A68-89DF-B6EF3B0415C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA3073-95D5-4820-BADE-9EF94C587EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="7" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="10" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="219">
   <si>
     <t>Course</t>
   </si>
@@ -709,6 +709,45 @@
   </si>
   <si>
     <t>1) Transmission of heat</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Nature &amp; Significance of Organization</t>
+  </si>
+  <si>
+    <t>Staff Motivation &amp; Leadership</t>
+  </si>
+  <si>
+    <t>Controlling &amp; Change Control</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Principles Of Management</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Basic Elements of Demand &amp; Supply</t>
+  </si>
+  <si>
+    <t>Theory of Consumer Behavior</t>
+  </si>
+  <si>
+    <t>Production Function</t>
+  </si>
+  <si>
+    <t>Market Structures</t>
+  </si>
+  <si>
+    <t>Factor Pricing</t>
   </si>
 </sst>
 </file>
@@ -898,7 +937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1461,31 +1500,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1790,9 +1809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1883,18 +1899,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2297,7 +2319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3BDFFA-3B28-4FBD-9FBD-B0268E77162A}">
   <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2317,14 +2339,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="159"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
       <c r="M2" s="97" t="s">
         <v>145</v>
       </c>
@@ -2342,18 +2364,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="167" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="169"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="166"/>
       <c r="M3" s="62"/>
       <c r="N3" s="96"/>
       <c r="O3" s="62"/>
@@ -2361,10 +2383,10 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -2390,8 +2412,8 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="164"/>
-      <c r="C5" s="166"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -2565,10 +2587,10 @@
       <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="162"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="94"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -3008,352 +3030,523 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C94FC2-4E02-4E43-9E5D-811D6F46FE15}">
-  <dimension ref="B1:T18"/>
+  <dimension ref="B2:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="177" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="159"/>
-      <c r="Q2" s="98" t="s">
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="189" t="s">
+        <v>212</v>
+      </c>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="Q3" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="97" t="s">
+      <c r="R3" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="S2" s="98" t="s">
+      <c r="S3" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="T2" s="97" t="s">
+      <c r="T3" s="97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="169"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="62"/>
-    </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="184" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="145">
         <v>45293</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="116"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="96"/>
+      <c r="E4" s="145">
+        <v>45299</v>
+      </c>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="Q4" s="96">
+        <v>1</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="S4" s="96">
+        <v>0</v>
+      </c>
       <c r="T4" s="62"/>
     </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="164"/>
-      <c r="C5" s="189"/>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
       <c r="D5" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="60"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="96"/>
+      <c r="E5" s="146" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="Q5" s="96">
+        <v>2</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="S5" s="96">
+        <v>0</v>
+      </c>
       <c r="T5" s="62"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="96">
         <v>1</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="62" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="54"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="96"/>
+      <c r="E6" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="96">
+        <v>3</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="S6" s="96">
+        <v>0</v>
+      </c>
       <c r="T6" s="62"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="33">
+      <c r="B7" s="96">
         <v>2</v>
       </c>
-      <c r="C7" s="141"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="42"/>
-      <c r="E7" s="41"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="49"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="62"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="50"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="42"/>
-      <c r="O7" s="43"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="96"/>
+      <c r="O7" s="42"/>
+      <c r="Q7" s="96">
+        <v>4</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="S7" s="96">
+        <v>0</v>
+      </c>
       <c r="T7" s="62"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="33">
+      <c r="B8" s="96">
         <v>3</v>
       </c>
-      <c r="C8" s="141"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="42"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="42"/>
-      <c r="G8" s="49"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="62"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="50"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="43"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="96"/>
+      <c r="O8" s="42"/>
+      <c r="Q8" s="96">
+        <v>5</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="S8" s="96">
+        <v>0</v>
+      </c>
       <c r="T8" s="62"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="33">
+      <c r="B9" s="96">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="42"/>
-      <c r="E9" s="41"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="42"/>
-      <c r="G9" s="49"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="62"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="50"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="42"/>
-      <c r="O9" s="43"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="96"/>
+      <c r="O9" s="42"/>
+      <c r="Q9" s="96">
+        <v>6</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="S9" s="96">
+        <v>0</v>
+      </c>
       <c r="T9" s="62"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="33">
+      <c r="B10" s="96">
         <v>5</v>
       </c>
-      <c r="C10" s="141"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="42"/>
-      <c r="E10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="42"/>
-      <c r="G10" s="49"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="62"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="50"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="43"/>
+      <c r="O10" s="42"/>
       <c r="Q10" s="96"/>
       <c r="R10" s="62"/>
       <c r="S10" s="96"/>
       <c r="T10" s="62"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="129">
+      <c r="B11" s="96">
         <v>6</v>
       </c>
-      <c r="C11" s="155"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="42"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="134"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
       <c r="Q11" s="96"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="96"/>
+      <c r="R11" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="S11" s="125">
+        <f>SUM(S4:S9)</f>
+        <v>0</v>
+      </c>
       <c r="T11" s="62"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="190"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="127"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="135"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
       <c r="N12" s="62"/>
-      <c r="O12" s="136"/>
+      <c r="O12" s="188"/>
       <c r="Q12" s="96"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="96"/>
+      <c r="R12" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="S12" s="125">
+        <v>6</v>
+      </c>
       <c r="T12" s="62"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="135"/>
-      <c r="C13" s="141"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="127"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="135"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
       <c r="N13" s="62"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="62"/>
       <c r="Q13" s="96"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="96"/>
+      <c r="R13" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="S13" s="125">
+        <f>ROUND((S11/S12)*100,2)</f>
+        <v>0</v>
+      </c>
       <c r="T13" s="62"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="135"/>
-      <c r="C14" s="141"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="127"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="135"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="62"/>
-      <c r="O14" s="34"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="62"/>
-    </row>
-    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="137"/>
-      <c r="C15" s="156"/>
+      <c r="O14" s="62"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="191"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="191"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="62"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="36"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="189" t="s">
+        <v>203</v>
+      </c>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="Q16" s="96"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="62"/>
+      <c r="Q16" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="R16" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="S16" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="T16" s="97" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="17:20" x14ac:dyDescent="0.3">
-      <c r="Q17" s="96"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="125"/>
+      <c r="Q17" s="96">
+        <v>1</v>
+      </c>
+      <c r="R17" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="S17" s="96">
+        <v>0</v>
+      </c>
       <c r="T17" s="62"/>
     </row>
     <row r="18" spans="17:20" x14ac:dyDescent="0.3">
-      <c r="Q18" s="96"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="125"/>
+      <c r="Q18" s="96">
+        <v>2</v>
+      </c>
+      <c r="R18" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="S18" s="96">
+        <v>0</v>
+      </c>
       <c r="T18" s="62"/>
+    </row>
+    <row r="19" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q19" s="96">
+        <v>3</v>
+      </c>
+      <c r="R19" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="S19" s="96">
+        <v>0</v>
+      </c>
+      <c r="T19" s="62"/>
+    </row>
+    <row r="20" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q20" s="96">
+        <v>4</v>
+      </c>
+      <c r="R20" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="S20" s="96">
+        <v>0</v>
+      </c>
+      <c r="T20" s="62"/>
+    </row>
+    <row r="21" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q21" s="96">
+        <v>5</v>
+      </c>
+      <c r="R21" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="S21" s="96">
+        <v>0</v>
+      </c>
+      <c r="T21" s="62"/>
+    </row>
+    <row r="22" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q22" s="96">
+        <v>6</v>
+      </c>
+      <c r="R22" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="S22" s="96">
+        <v>0</v>
+      </c>
+      <c r="T22" s="62"/>
+    </row>
+    <row r="23" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q23" s="96"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="62"/>
+    </row>
+    <row r="24" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q24" s="96"/>
+      <c r="R24" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="S24" s="125">
+        <f>SUM(S17:S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="62"/>
+    </row>
+    <row r="25" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q25" s="96"/>
+      <c r="R25" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="S25" s="125">
+        <v>6</v>
+      </c>
+      <c r="T25" s="62"/>
+    </row>
+    <row r="26" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q26" s="96"/>
+      <c r="R26" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="S26" s="125">
+        <f>ROUND((S24/S25)*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4383,14 +4576,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="159"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
       <c r="M2" s="125" t="s">
         <v>143</v>
       </c>
@@ -4405,28 +4598,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="167" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="169"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="166"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -4449,8 +4642,8 @@
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="164"/>
-      <c r="C5" s="166"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -4617,10 +4810,10 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="162"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -4926,16 +5119,16 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="154" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="159"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="156"/>
       <c r="O2" s="125" t="s">
         <v>143</v>
       </c>
@@ -4950,30 +5143,30 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="167" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="169"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="166"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="62"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128"/>
@@ -4998,8 +5191,8 @@
       <c r="R4" s="62"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="164"/>
-      <c r="C5" s="166"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
@@ -5180,10 +5373,10 @@
       <c r="R11" s="62"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="171"/>
+      <c r="C12" s="168"/>
       <c r="D12" s="126"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -5264,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5288,19 +5481,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="178"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="175"/>
       <c r="Q2" s="98" t="s">
         <v>143</v>
       </c>
@@ -5315,30 +5508,30 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="169"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="166"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="62"/>
       <c r="S3" s="96"/>
       <c r="T3" s="62"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="152">
@@ -5367,8 +5560,8 @@
       <c r="T4" s="124"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="173"/>
-      <c r="C5" s="166"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="61" t="s">
         <v>204</v>
       </c>
@@ -5567,10 +5760,10 @@
       <c r="T11" s="124"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="162"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="62" t="s">
         <v>205</v>
       </c>
@@ -5800,19 +5993,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="159"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="156"/>
       <c r="Q2" s="98" t="s">
         <v>143</v>
       </c>
@@ -5827,30 +6020,30 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="169"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="166"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="62"/>
       <c r="S3" s="96"/>
       <c r="T3" s="62"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="181" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128"/>
@@ -5877,8 +6070,8 @@
       <c r="T4" s="124"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="164"/>
-      <c r="C5" s="166"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
@@ -6075,10 +6268,10 @@
       <c r="T11" s="62"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="162"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E01D05-6D9D-4F48-9EFF-AAF049CD0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AD8749-C693-4066-84E9-412B08181902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="2" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="10" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -84,6 +84,24 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9021DEAC-DEF2-47BD-B58D-12E2FFC4F148}</author>
+  </authors>
+  <commentList>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{9021DEAC-DEF2-47BD-B58D-12E2FFC4F148}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    An introduction to Management - Evolution, Concept, Definition, Features, Objectives, Scope</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="187">
   <si>
@@ -661,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +765,12 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1606,102 +1630,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1717,6 +1645,102 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2056,6 +2080,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E12" dT="2024-01-09T07:14:49.58" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{9021DEAC-DEF2-47BD-B58D-12E2FFC4F148}">
+    <text>An introduction to Management - Evolution, Concept, Definition, Features, Objectives, Scope</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C90D3B1-C76E-4CE0-A4AA-1FA923F6E3CF}">
   <dimension ref="B1:C5"/>
@@ -2139,14 +2171,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
       <c r="M2" s="54" t="s">
         <v>113</v>
       </c>
@@ -2164,18 +2196,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="122" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="124"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="M3" s="34"/>
       <c r="N3" s="53"/>
       <c r="O3" s="34"/>
@@ -2183,10 +2215,10 @@
       <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="127" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -2212,8 +2244,8 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="119"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -2387,10 +2419,10 @@
       <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="51"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -2829,11 +2861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C94FC2-4E02-4E43-9E5D-811D6F46FE15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C94FC2-4E02-4E43-9E5D-811D6F46FE15}">
   <dimension ref="B2:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2848,19 +2880,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="111" t="s">
         <v>175</v>
@@ -2869,20 +2901,20 @@
       <c r="T2" s="34"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
       <c r="Q3" s="55" t="s">
         <v>111</v>
       </c>
@@ -2897,10 +2929,10 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="150" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="99">
@@ -2931,8 +2963,8 @@
       <c r="T4" s="34"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
       <c r="D5" s="100" t="s">
         <v>164</v>
       </c>
@@ -3128,10 +3160,10 @@
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="34" t="s">
         <v>165</v>
       </c>
@@ -3355,6 +3387,7 @@
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3382,40 +3415,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="144" t="s">
+      <c r="C2" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="144" t="s">
+      <c r="E2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="144" t="s">
+      <c r="F2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="144" t="s">
+      <c r="G2" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="144" t="s">
+      <c r="I2" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="144" t="s">
+      <c r="J2" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="144" t="s">
+      <c r="L2" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="144" t="s">
+      <c r="M2" s="112" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3442,12 +3475,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f>G3-H3</f>
+        <f t="shared" ref="I3:I8" si="0">G3-H3</f>
         <v>3334</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="145"/>
+      <c r="L3" s="113"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -3461,7 +3494,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1">
-        <f>G4-H4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1"/>
@@ -3480,7 +3513,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
-        <f>G5-H5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
@@ -3511,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>G6-H6</f>
+        <f t="shared" si="0"/>
         <v>3333</v>
       </c>
       <c r="J6" s="1"/>
@@ -3530,7 +3563,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
-        <f>G7-H7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
@@ -3549,7 +3582,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <f>G8-H8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
@@ -3580,12 +3613,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I11" si="0">G9-H9</f>
+        <f t="shared" ref="I9:I11" si="1">G9-H9</f>
         <v>3333</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="145"/>
+      <c r="L9" s="113"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -3599,7 +3632,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
@@ -3618,7 +3651,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="1"/>
@@ -3716,7 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33D141-6777-454F-A53F-584318966504}">
   <dimension ref="B1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3746,52 +3779,52 @@
   <sheetData>
     <row r="1" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="147" t="s">
+      <c r="C2" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="147" t="s">
+      <c r="I2" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="147" t="s">
+      <c r="J2" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="147" t="s">
+      <c r="K2" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="147" t="s">
+      <c r="L2" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="147" t="s">
+      <c r="M2" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="147" t="s">
+      <c r="N2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="147" t="s">
+      <c r="O2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="147" t="s">
+      <c r="P2" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="148" t="s">
+      <c r="Q2" s="116" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3820,7 +3853,7 @@
       <c r="K3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="149" t="s">
+      <c r="L3" s="117" t="s">
         <v>186</v>
       </c>
       <c r="M3" s="40" t="s">
@@ -3854,7 +3887,7 @@
       <c r="K4" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="149" t="s">
+      <c r="L4" s="117" t="s">
         <v>186</v>
       </c>
       <c r="M4" s="40" t="s">
@@ -3888,7 +3921,7 @@
       <c r="K5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="149" t="s">
+      <c r="L5" s="117" t="s">
         <v>186</v>
       </c>
       <c r="M5" s="40" t="s">
@@ -3916,7 +3949,7 @@
         <f>H6</f>
         <v>9000</v>
       </c>
-      <c r="J6" s="150">
+      <c r="J6" s="118">
         <v>45299</v>
       </c>
       <c r="K6" s="40"/>
@@ -4062,14 +4095,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
       <c r="M2" s="79" t="s">
         <v>111</v>
       </c>
@@ -4084,28 +4117,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="122" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="124"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="M3" s="53"/>
       <c r="N3" s="34"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="127" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -4128,8 +4161,8 @@
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="119"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -4296,10 +4329,10 @@
       <c r="P11" s="34"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -4605,16 +4638,16 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
       <c r="O2" s="79" t="s">
         <v>111</v>
       </c>
@@ -4629,30 +4662,30 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="122" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="131"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="127" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="82"/>
@@ -4677,8 +4710,8 @@
       <c r="R4" s="34"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="119"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -4859,10 +4892,10 @@
       <c r="R11" s="34"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="126"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="80"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -4967,19 +5000,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -4994,30 +5027,30 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="131"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="136" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="106">
@@ -5046,8 +5079,8 @@
       <c r="T4" s="78"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="128"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="33" t="s">
         <v>167</v>
       </c>
@@ -5246,10 +5279,10 @@
       <c r="T11" s="78"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="34" t="s">
         <v>168</v>
       </c>
@@ -5479,19 +5512,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -5506,30 +5539,30 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="131"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="146" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="82"/>
@@ -5556,8 +5589,8 @@
       <c r="T4" s="78"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="119"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -5754,10 +5787,10 @@
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AD8749-C693-4066-84E9-412B08181902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EBF6CE-4AA8-4CF8-82EC-816DEAE90199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="10" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -679,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,12 +766,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -853,7 +847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1371,11 +1365,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1732,14 +1869,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2151,7 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3BDFFA-3B28-4FBD-9FBD-B0268E77162A}">
   <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2864,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C94FC2-4E02-4E43-9E5D-811D6F46FE15}">
   <dimension ref="B2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2893,6 +3090,9 @@
       <c r="J2" s="142"/>
       <c r="K2" s="142"/>
       <c r="L2" s="142"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="111" t="s">
         <v>175</v>
@@ -2912,9 +3112,9 @@
       <c r="J3" s="142"/>
       <c r="K3" s="142"/>
       <c r="L3" s="142"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
       <c r="Q3" s="55" t="s">
         <v>111</v>
       </c>
@@ -2929,10 +3129,10 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="149" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="99">
@@ -2963,8 +3163,8 @@
       <c r="T4" s="34"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
       <c r="D5" s="100" t="s">
         <v>164</v>
       </c>
@@ -3379,12 +3579,13 @@
       <c r="T26" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4076,7 +4277,7 @@
   <dimension ref="B1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4102,7 +4303,11 @@
       <c r="D2" s="120"/>
       <c r="E2" s="120"/>
       <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="178"/>
       <c r="M2" s="79" t="s">
         <v>111</v>
       </c>
@@ -4166,7 +4371,7 @@
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="G5" s="165"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -4192,7 +4397,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -4312,8 +4517,8 @@
       <c r="D11" s="65"/>
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
@@ -4336,7 +4541,11 @@
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
       <c r="M12" s="77">
         <v>9</v>
       </c>
@@ -4354,7 +4563,11 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="172"/>
       <c r="M13" s="53">
         <v>10</v>
       </c>
@@ -4366,13 +4579,17 @@
       </c>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="175"/>
       <c r="M14" s="53">
         <v>11</v>
       </c>
@@ -4604,12 +4821,13 @@
       <c r="P33" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4620,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4647,7 +4865,11 @@
       <c r="F2" s="120"/>
       <c r="G2" s="120"/>
       <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="169"/>
       <c r="O2" s="79" t="s">
         <v>111</v>
       </c>
@@ -4693,7 +4915,7 @@
       <c r="F4" s="82"/>
       <c r="G4" s="82"/>
       <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
+      <c r="I4" s="156"/>
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
@@ -4717,7 +4939,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="I5" s="157"/>
       <c r="J5" s="30"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -4745,7 +4967,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -4875,7 +5097,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="65"/>
       <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="23"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -4901,7 +5123,11 @@
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="172"/>
       <c r="O12" s="53"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="53"/>
@@ -4915,7 +5141,11 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="172"/>
       <c r="O13" s="53"/>
       <c r="P13" s="36" t="s">
         <v>122</v>
@@ -4926,7 +5156,7 @@
       </c>
       <c r="R13" s="34"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -4934,7 +5164,11 @@
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="175"/>
       <c r="O14" s="53"/>
       <c r="P14" s="36" t="s">
         <v>116</v>
@@ -5488,7 +5722,7 @@
   <dimension ref="B1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5511,7 +5745,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="119" t="s">
         <v>118</v>
       </c>
@@ -5524,7 +5758,10 @@
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
       <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="164"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -5549,10 +5786,10 @@
       <c r="I3" s="123"/>
       <c r="J3" s="123"/>
       <c r="K3" s="123"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="155"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
@@ -5573,7 +5810,7 @@
       <c r="I4" s="82"/>
       <c r="J4" s="82"/>
       <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
+      <c r="L4" s="156"/>
       <c r="M4" s="101"/>
       <c r="N4" s="72"/>
       <c r="O4" s="73"/>
@@ -5599,7 +5836,7 @@
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="L5" s="157"/>
       <c r="M5" s="102"/>
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
@@ -5629,7 +5866,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="24"/>
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
@@ -5657,7 +5894,7 @@
       <c r="I7" s="81"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="L7" s="159"/>
       <c r="M7" s="22"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
@@ -5687,7 +5924,7 @@
       <c r="I8" s="81"/>
       <c r="J8" s="81"/>
       <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="L8" s="159"/>
       <c r="M8" s="22"/>
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
@@ -5715,7 +5952,7 @@
       <c r="I9" s="81"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="L9" s="159"/>
       <c r="M9" s="22"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
@@ -5743,7 +5980,7 @@
       <c r="I10" s="81"/>
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="L10" s="159"/>
       <c r="M10" s="22"/>
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
@@ -5771,7 +6008,7 @@
       <c r="I11" s="94"/>
       <c r="J11" s="94"/>
       <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
+      <c r="L11" s="160"/>
       <c r="M11" s="103"/>
       <c r="N11" s="86"/>
       <c r="O11" s="88"/>
@@ -5799,7 +6036,7 @@
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="L12" s="159"/>
       <c r="M12" s="89"/>
       <c r="N12" s="34"/>
       <c r="O12" s="90"/>
@@ -5825,7 +6062,7 @@
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
+      <c r="L13" s="159"/>
       <c r="M13" s="89"/>
       <c r="N13" s="34"/>
       <c r="O13" s="6"/>
@@ -5851,7 +6088,7 @@
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
+      <c r="L14" s="159"/>
       <c r="M14" s="89"/>
       <c r="N14" s="34"/>
       <c r="O14" s="6"/>
@@ -5877,7 +6114,7 @@
       <c r="I15" s="93"/>
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
+      <c r="L15" s="161"/>
       <c r="M15" s="91"/>
       <c r="N15" s="92"/>
       <c r="O15" s="8"/>
@@ -5916,12 +6153,13 @@
       <c r="T18" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:L3"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EBF6CE-4AA8-4CF8-82EC-816DEAE90199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3652760B-1596-4234-9462-04D8F099DB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="194">
   <si>
     <t>Course</t>
   </si>
@@ -670,6 +670,27 @@
   </si>
   <si>
     <t>40069897092</t>
+  </si>
+  <si>
+    <t>2:00 PM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>1) Organic Chemistry</t>
+  </si>
+  <si>
+    <t>10:30 AM - 12:30 PM</t>
+  </si>
+  <si>
+    <t>1) Thermodynamics</t>
+  </si>
+  <si>
+    <t>12:30 PM - 2:00 PM</t>
+  </si>
+  <si>
+    <t>1) Revision of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Straight Line</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1782,117 +1803,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1905,15 +1815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1924,11 +1825,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1936,6 +1872,90 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2368,14 +2388,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="172"/>
       <c r="M2" s="54" t="s">
         <v>113</v>
       </c>
@@ -2393,18 +2413,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="129" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
       <c r="M3" s="34"/>
       <c r="N3" s="53"/>
       <c r="O3" s="34"/>
@@ -2412,10 +2432,10 @@
       <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="142" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -2441,8 +2461,8 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="126"/>
-      <c r="C5" s="128"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -2616,10 +2636,10 @@
       <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="124"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="51"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -3062,7 +3082,7 @@
   <dimension ref="B2:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3077,22 +3097,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="152"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="177"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="111" t="s">
         <v>175</v>
@@ -3101,20 +3121,20 @@
       <c r="T2" s="34"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
       <c r="Q3" s="55" t="s">
         <v>111</v>
       </c>
@@ -3129,10 +3149,10 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="174" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="99">
@@ -3163,8 +3183,8 @@
       <c r="T4" s="34"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="100" t="s">
         <v>164</v>
       </c>
@@ -3360,10 +3380,10 @@
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="124"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="34" t="s">
         <v>165</v>
       </c>
@@ -4296,18 +4316,18 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="178"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="149"/>
       <c r="M2" s="79" t="s">
         <v>111</v>
       </c>
@@ -4322,28 +4342,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="129" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
       <c r="M3" s="53"/>
       <c r="N3" s="34"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="142" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -4366,12 +4386,12 @@
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="126"/>
-      <c r="C5" s="128"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="165"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -4397,7 +4417,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="166"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -4534,18 +4554,16 @@
       <c r="P11" s="34"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="124"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="95"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="172"/>
+      <c r="H12" s="130"/>
+      <c r="K12" s="131"/>
       <c r="M12" s="77">
         <v>9</v>
       </c>
@@ -4564,10 +4582,8 @@
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="95"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="172"/>
+      <c r="H13" s="130"/>
+      <c r="K13" s="131"/>
       <c r="M13" s="53">
         <v>10</v>
       </c>
@@ -4586,10 +4602,10 @@
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="95"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="175"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
       <c r="M14" s="53">
         <v>11</v>
       </c>
@@ -4838,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4856,20 +4872,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="169"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="129"/>
       <c r="O2" s="79" t="s">
         <v>111</v>
       </c>
@@ -4884,38 +4900,40 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="129" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="131"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="146"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="82">
+        <v>45300</v>
+      </c>
       <c r="E4" s="82"/>
       <c r="F4" s="82"/>
       <c r="G4" s="82"/>
       <c r="H4" s="82"/>
-      <c r="I4" s="156"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
@@ -4932,14 +4950,16 @@
       <c r="R4" s="34"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="126"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="33" t="s">
+        <v>187</v>
+      </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="157"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="30"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -4962,12 +4982,14 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="158"/>
+      <c r="I6" s="121"/>
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -5114,20 +5136,20 @@
       <c r="R11" s="34"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="80" t="s">
+        <v>188</v>
+      </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="95"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="172"/>
+      <c r="J12" s="130"/>
+      <c r="M12" s="131"/>
       <c r="O12" s="53"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="53"/>
@@ -5142,10 +5164,8 @@
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="95"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="172"/>
+      <c r="J13" s="130"/>
+      <c r="M13" s="131"/>
       <c r="O13" s="53"/>
       <c r="P13" s="36" t="s">
         <v>122</v>
@@ -5165,10 +5185,10 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="95"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
-      <c r="M14" s="175"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="134"/>
       <c r="O14" s="53"/>
       <c r="P14" s="36" t="s">
         <v>116</v>
@@ -5210,8 +5230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21:T23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5234,19 +5254,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="140"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="158"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -5261,36 +5281,38 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="146"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="154" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="106">
         <v>45297</v>
       </c>
-      <c r="E4" s="106"/>
+      <c r="E4" s="106">
+        <v>45300</v>
+      </c>
       <c r="F4" s="106"/>
       <c r="G4" s="106"/>
       <c r="H4" s="106"/>
@@ -5313,12 +5335,14 @@
       <c r="T4" s="78"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="135"/>
-      <c r="C5" s="128"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>189</v>
+      </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -5350,7 +5374,9 @@
       <c r="D6" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -5513,14 +5539,16 @@
       <c r="T11" s="78"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="124"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="34" t="s">
+        <v>190</v>
+      </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -5721,8 +5749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
   <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5746,22 +5774,22 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="164"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="171"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -5776,33 +5804,35 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="155"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="165"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="82">
+        <v>45300</v>
+      </c>
       <c r="E4" s="82"/>
       <c r="F4" s="82"/>
       <c r="G4" s="82"/>
@@ -5810,7 +5840,7 @@
       <c r="I4" s="82"/>
       <c r="J4" s="82"/>
       <c r="K4" s="82"/>
-      <c r="L4" s="156"/>
+      <c r="L4" s="119"/>
       <c r="M4" s="101"/>
       <c r="N4" s="72"/>
       <c r="O4" s="73"/>
@@ -5826,9 +5856,11 @@
       <c r="T4" s="78"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="126"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="33" t="s">
+        <v>191</v>
+      </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -5836,7 +5868,7 @@
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="157"/>
+      <c r="L5" s="120"/>
       <c r="M5" s="102"/>
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
@@ -5858,7 +5890,9 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -5866,7 +5900,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="158"/>
+      <c r="L6" s="121"/>
       <c r="M6" s="24"/>
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
@@ -5886,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="21"/>
@@ -5894,7 +5928,7 @@
       <c r="I7" s="81"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
-      <c r="L7" s="159"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="22"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
@@ -5916,7 +5950,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="21"/>
@@ -5924,7 +5958,7 @@
       <c r="I8" s="81"/>
       <c r="J8" s="81"/>
       <c r="K8" s="81"/>
-      <c r="L8" s="159"/>
+      <c r="L8" s="122"/>
       <c r="M8" s="22"/>
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
@@ -5944,7 +5978,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="21"/>
@@ -5952,7 +5986,7 @@
       <c r="I9" s="81"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
-      <c r="L9" s="159"/>
+      <c r="L9" s="122"/>
       <c r="M9" s="22"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
@@ -5972,7 +6006,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="21"/>
@@ -5980,7 +6014,7 @@
       <c r="I10" s="81"/>
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
-      <c r="L10" s="159"/>
+      <c r="L10" s="122"/>
       <c r="M10" s="22"/>
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
@@ -6000,7 +6034,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="86"/>
       <c r="F11" s="86"/>
       <c r="G11" s="35"/>
@@ -6008,7 +6042,7 @@
       <c r="I11" s="94"/>
       <c r="J11" s="94"/>
       <c r="K11" s="94"/>
-      <c r="L11" s="160"/>
+      <c r="L11" s="123"/>
       <c r="M11" s="103"/>
       <c r="N11" s="86"/>
       <c r="O11" s="88"/>
@@ -6024,11 +6058,13 @@
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="34" t="s">
+        <v>192</v>
+      </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -6036,7 +6072,7 @@
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
-      <c r="L12" s="159"/>
+      <c r="L12" s="122"/>
       <c r="M12" s="89"/>
       <c r="N12" s="34"/>
       <c r="O12" s="90"/>
@@ -6054,7 +6090,9 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="89"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="D13" s="34" t="s">
+        <v>193</v>
+      </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -6062,7 +6100,7 @@
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="81"/>
-      <c r="L13" s="159"/>
+      <c r="L13" s="122"/>
       <c r="M13" s="89"/>
       <c r="N13" s="34"/>
       <c r="O13" s="6"/>
@@ -6088,7 +6126,7 @@
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
-      <c r="L14" s="159"/>
+      <c r="L14" s="122"/>
       <c r="M14" s="89"/>
       <c r="N14" s="34"/>
       <c r="O14" s="6"/>
@@ -6114,7 +6152,7 @@
       <c r="I15" s="93"/>
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
-      <c r="L15" s="161"/>
+      <c r="L15" s="124"/>
       <c r="M15" s="91"/>
       <c r="N15" s="92"/>
       <c r="O15" s="8"/>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3652760B-1596-4234-9462-04D8F099DB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1E7F9-052E-4119-B2E3-DF55ACC43FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="577" activeTab="1" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -25,19 +25,10 @@
     <sheet name="B5" sheetId="10" r:id="rId10"/>
     <sheet name="B6" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,7 +42,15 @@
   <commentList>
     <comment ref="M12" authorId="0" shapeId="0" xr:uid="{CAC0B8C7-F59A-434E-826E-AE2871929596}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Paid Rs 5000 in cash. 
@@ -60,6 +59,7 @@
 In Nov-2023 we will charge Rs 10,000.
 Rest 10,000 will be charged on December.
  </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -74,10 +74,19 @@
   <commentList>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{04A41BDB-6338-4F4D-A6D7-1E904B9507AF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1) Redox</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -92,10 +101,19 @@
   <commentList>
     <comment ref="E12" authorId="0" shapeId="0" xr:uid="{9021DEAC-DEF2-47BD-B58D-12E2FFC4F148}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     An introduction to Management - Evolution, Concept, Definition, Features, Objectives, Scope</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -103,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="194">
   <si>
     <t>Course</t>
   </si>
@@ -2313,13 +2331,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" s="42" t="s">
         <v>52</v>
       </c>
@@ -2327,7 +2345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="42" t="s">
         <v>51</v>
       </c>
@@ -2335,7 +2353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="42" t="s">
         <v>50</v>
       </c>
@@ -2343,7 +2361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="42" t="s">
         <v>53</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="42" t="s">
         <v>54</v>
       </c>
@@ -2372,22 +2390,22 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.46484375" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.86328125" style="52" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="135" t="s">
         <v>117</v>
       </c>
@@ -2412,7 +2430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="137"/>
       <c r="C3" s="138"/>
       <c r="D3" s="138"/>
@@ -2431,7 +2449,7 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B4" s="140" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2478,7 @@
       </c>
       <c r="Q4" s="34"/>
     </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="141"/>
       <c r="C5" s="143"/>
       <c r="D5" s="37"/>
@@ -2483,7 +2501,7 @@
       </c>
       <c r="Q5" s="34"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B6" s="57">
         <v>1</v>
       </c>
@@ -2510,7 +2528,7 @@
       </c>
       <c r="Q6" s="34"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B7" s="62">
         <v>2</v>
       </c>
@@ -2535,7 +2553,7 @@
       </c>
       <c r="Q7" s="34"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B8" s="62">
         <v>3</v>
       </c>
@@ -2560,7 +2578,7 @@
       </c>
       <c r="Q8" s="34"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B9" s="62">
         <v>4</v>
       </c>
@@ -2585,7 +2603,7 @@
       </c>
       <c r="Q9" s="34"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B10" s="62">
         <v>5</v>
       </c>
@@ -2610,7 +2628,7 @@
       </c>
       <c r="Q10" s="34"/>
     </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="67">
         <v>6</v>
       </c>
@@ -2635,7 +2653,7 @@
       </c>
       <c r="Q11" s="34"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2674,7 @@
       </c>
       <c r="Q12" s="34"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="51"/>
@@ -2675,7 +2693,7 @@
       </c>
       <c r="Q13" s="34"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -2694,7 +2712,7 @@
       </c>
       <c r="Q14" s="34"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -2713,7 +2731,7 @@
       </c>
       <c r="Q15" s="34"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -2734,7 +2752,7 @@
       </c>
       <c r="Q16" s="34"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -2753,7 +2771,7 @@
       </c>
       <c r="Q17" s="34"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -2772,7 +2790,7 @@
       </c>
       <c r="Q18" s="34"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M19" s="34"/>
       <c r="N19" s="53">
         <v>16</v>
@@ -2785,7 +2803,7 @@
       </c>
       <c r="Q19" s="34"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M20" s="34"/>
       <c r="N20" s="53">
         <v>17</v>
@@ -2798,7 +2816,7 @@
       </c>
       <c r="Q20" s="34"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M21" s="34"/>
       <c r="N21" s="53">
         <v>18</v>
@@ -2811,7 +2829,7 @@
       </c>
       <c r="Q21" s="34"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M22" s="34"/>
       <c r="N22" s="53">
         <v>19</v>
@@ -2824,7 +2842,7 @@
       </c>
       <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M23" s="34"/>
       <c r="N23" s="53">
         <v>20</v>
@@ -2837,7 +2855,7 @@
       </c>
       <c r="Q23" s="34"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M24" s="34"/>
       <c r="N24" s="53">
         <v>21</v>
@@ -2850,7 +2868,7 @@
       </c>
       <c r="Q24" s="34"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M25" s="34"/>
       <c r="N25" s="53">
         <v>22</v>
@@ -2863,7 +2881,7 @@
       </c>
       <c r="Q25" s="34"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M26" s="34"/>
       <c r="N26" s="53">
         <v>23</v>
@@ -2876,7 +2894,7 @@
       </c>
       <c r="Q26" s="34"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M27" s="34"/>
       <c r="N27" s="53">
         <v>24</v>
@@ -2889,7 +2907,7 @@
       </c>
       <c r="Q27" s="34"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M28" s="45" t="s">
         <v>85</v>
       </c>
@@ -2906,7 +2924,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M29" s="34"/>
       <c r="N29" s="53">
         <v>26</v>
@@ -2919,7 +2937,7 @@
       </c>
       <c r="Q29" s="34"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M30" s="34"/>
       <c r="N30" s="53">
         <v>27</v>
@@ -2932,7 +2950,7 @@
       </c>
       <c r="Q30" s="34"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M31" s="34"/>
       <c r="N31" s="53">
         <v>28</v>
@@ -2945,7 +2963,7 @@
       </c>
       <c r="Q31" s="34"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M32" s="34"/>
       <c r="N32" s="53">
         <v>29</v>
@@ -2958,7 +2976,7 @@
       </c>
       <c r="Q32" s="34"/>
     </row>
-    <row r="33" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M33" s="34"/>
       <c r="N33" s="53">
         <v>30</v>
@@ -2971,7 +2989,7 @@
       </c>
       <c r="Q33" s="34"/>
     </row>
-    <row r="34" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M34" s="34"/>
       <c r="N34" s="53">
         <v>31</v>
@@ -2984,7 +3002,7 @@
       </c>
       <c r="Q34" s="34"/>
     </row>
-    <row r="35" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M35" s="34"/>
       <c r="N35" s="53">
         <v>32</v>
@@ -2997,7 +3015,7 @@
       </c>
       <c r="Q35" s="34"/>
     </row>
-    <row r="36" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M36" s="34"/>
       <c r="N36" s="53">
         <v>33</v>
@@ -3010,7 +3028,7 @@
       </c>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M37" s="34"/>
       <c r="N37" s="53">
         <v>34</v>
@@ -3023,14 +3041,14 @@
       </c>
       <c r="Q37" s="34"/>
     </row>
-    <row r="38" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:17" x14ac:dyDescent="0.45">
       <c r="M38" s="34"/>
       <c r="N38" s="53"/>
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M39" s="34"/>
       <c r="N39" s="53"/>
       <c r="O39" s="45" t="s">
@@ -3042,7 +3060,7 @@
       </c>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M40" s="34"/>
       <c r="N40" s="53"/>
       <c r="O40" s="45" t="s">
@@ -3053,7 +3071,7 @@
       </c>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="M41" s="34"/>
       <c r="N41" s="53"/>
       <c r="O41" s="45" t="s">
@@ -3085,18 +3103,18 @@
       <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="32" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B2" s="160" t="s">
         <v>161</v>
       </c>
@@ -3120,7 +3138,7 @@
       <c r="S2" s="34"/>
       <c r="T2" s="34"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B3" s="160"/>
       <c r="C3" s="160"/>
       <c r="D3" s="160"/>
@@ -3148,7 +3166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B4" s="174" t="s">
         <v>30</v>
       </c>
@@ -3182,7 +3200,7 @@
       </c>
       <c r="T4" s="34"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B5" s="174"/>
       <c r="C5" s="174"/>
       <c r="D5" s="100" t="s">
@@ -3212,7 +3230,7 @@
       </c>
       <c r="T5" s="34"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="53">
         <v>1</v>
       </c>
@@ -3246,7 +3264,7 @@
       </c>
       <c r="T6" s="34"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" s="53">
         <v>2</v>
       </c>
@@ -3274,7 +3292,7 @@
       </c>
       <c r="T7" s="34"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B8" s="53">
         <v>3</v>
       </c>
@@ -3302,7 +3320,7 @@
       </c>
       <c r="T8" s="34"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" s="53">
         <v>4</v>
       </c>
@@ -3330,7 +3348,7 @@
       </c>
       <c r="T9" s="34"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" s="53">
         <v>5</v>
       </c>
@@ -3352,7 +3370,7 @@
       <c r="S10" s="53"/>
       <c r="T10" s="34"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11" s="53">
         <v>6</v>
       </c>
@@ -3379,7 +3397,7 @@
       </c>
       <c r="T11" s="34"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
@@ -3407,7 +3425,7 @@
       </c>
       <c r="T12" s="34"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
@@ -3434,7 +3452,7 @@
       </c>
       <c r="T13" s="34"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -3452,7 +3470,7 @@
       <c r="Q14" s="52"/>
       <c r="S14" s="52"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -3474,7 +3492,7 @@
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
       <c r="Q16" s="55" t="s">
         <v>111</v>
       </c>
@@ -3488,7 +3506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q17" s="53">
         <v>1</v>
       </c>
@@ -3500,7 +3518,7 @@
       </c>
       <c r="T17" s="34"/>
     </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q18" s="53">
         <v>2</v>
       </c>
@@ -3512,7 +3530,7 @@
       </c>
       <c r="T18" s="34"/>
     </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q19" s="53">
         <v>3</v>
       </c>
@@ -3524,7 +3542,7 @@
       </c>
       <c r="T19" s="34"/>
     </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q20" s="53">
         <v>4</v>
       </c>
@@ -3536,7 +3554,7 @@
       </c>
       <c r="T20" s="34"/>
     </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q21" s="53">
         <v>5</v>
       </c>
@@ -3548,7 +3566,7 @@
       </c>
       <c r="T21" s="34"/>
     </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q22" s="53">
         <v>6</v>
       </c>
@@ -3560,13 +3578,13 @@
       </c>
       <c r="T22" s="34"/>
     </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q23" s="53"/>
       <c r="R23" s="34"/>
       <c r="S23" s="53"/>
       <c r="T23" s="34"/>
     </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q24" s="53"/>
       <c r="R24" s="36" t="s">
         <v>122</v>
@@ -3577,7 +3595,7 @@
       </c>
       <c r="T24" s="34"/>
     </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q25" s="53"/>
       <c r="R25" s="36" t="s">
         <v>116</v>
@@ -3587,7 +3605,7 @@
       </c>
       <c r="T25" s="34"/>
     </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q26" s="53"/>
       <c r="R26" s="36" t="s">
         <v>131</v>
@@ -3616,26 +3634,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF67B1-7A31-46BB-8007-D9F915FBEBAF}">
   <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" s="112" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3701,10 +3719,14 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L3" s="113">
+        <v>45302</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3723,7 +3745,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3742,7 +3764,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3770,10 +3792,14 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L6" s="113">
+        <v>45302</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3792,7 +3818,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3811,7 +3837,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3839,10 +3865,14 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="113">
+        <v>45302</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3861,7 +3891,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3880,7 +3910,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>182</v>
       </c>
@@ -3915,7 +3945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3929,7 +3959,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3943,7 +3973,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F15" s="74" t="s">
         <v>26</v>
       </c>
@@ -3977,29 +4007,29 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="2"/>
+    <col min="11" max="11" width="10.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="114" t="s">
         <v>2</v>
       </c>
@@ -4049,7 +4079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
@@ -4085,7 +4115,7 @@
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="40"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -4119,7 +4149,7 @@
       <c r="P4" s="40"/>
       <c r="Q4" s="40"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -4153,7 +4183,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="40"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4181,7 +4211,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G7" s="41" t="s">
         <v>26</v>
       </c>
@@ -4211,7 +4241,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4225,19 +4255,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>32</v>
       </c>
@@ -4269,22 +4299,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E7" s="19"/>
     </row>
   </sheetData>
@@ -4300,22 +4330,22 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.77734375" style="52" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.796875" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.53125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="135" t="s">
         <v>120</v>
       </c>
@@ -4341,7 +4371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="137"/>
       <c r="C3" s="138"/>
       <c r="D3" s="138"/>
@@ -4359,7 +4389,7 @@
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" s="140" t="s">
         <v>30</v>
       </c>
@@ -4385,7 +4415,7 @@
       </c>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="141"/>
       <c r="C5" s="143"/>
       <c r="D5" s="37"/>
@@ -4407,7 +4437,7 @@
       </c>
       <c r="P5" s="34"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -4433,7 +4463,7 @@
       </c>
       <c r="P6" s="34"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -4457,7 +4487,7 @@
       </c>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -4481,7 +4511,7 @@
       </c>
       <c r="P8" s="34"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -4505,7 +4535,7 @@
       </c>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -4529,7 +4559,7 @@
       </c>
       <c r="P10" s="34"/>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="53">
         <v>6</v>
       </c>
@@ -4553,7 +4583,7 @@
       </c>
       <c r="P11" s="34"/>
     </row>
-    <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="139" t="s">
         <v>47</v>
       </c>
@@ -4575,7 +4605,7 @@
       </c>
       <c r="P12" s="34"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -4595,7 +4625,7 @@
       </c>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -4617,7 +4647,7 @@
       </c>
       <c r="P14" s="34"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="M15" s="53">
         <v>12</v>
       </c>
@@ -4629,7 +4659,7 @@
       </c>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="M16" s="77">
         <v>13</v>
       </c>
@@ -4641,7 +4671,7 @@
       </c>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M17" s="53">
         <v>14</v>
       </c>
@@ -4653,7 +4683,7 @@
       </c>
       <c r="P17" s="34"/>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M18" s="53">
         <v>15</v>
       </c>
@@ -4665,7 +4695,7 @@
       </c>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M19" s="53">
         <v>16</v>
       </c>
@@ -4677,7 +4707,7 @@
       </c>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M20" s="53">
         <v>17</v>
       </c>
@@ -4689,7 +4719,7 @@
       </c>
       <c r="P20" s="34"/>
     </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M21" s="53">
         <v>18</v>
       </c>
@@ -4701,7 +4731,7 @@
       </c>
       <c r="P21" s="34"/>
     </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M22" s="53">
         <v>19</v>
       </c>
@@ -4713,7 +4743,7 @@
       </c>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M23" s="53">
         <v>20</v>
       </c>
@@ -4725,7 +4755,7 @@
       </c>
       <c r="P23" s="34"/>
     </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M24" s="53">
         <v>21</v>
       </c>
@@ -4737,7 +4767,7 @@
       </c>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M25" s="53">
         <v>22</v>
       </c>
@@ -4749,7 +4779,7 @@
       </c>
       <c r="P25" s="34"/>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M26" s="53">
         <v>23</v>
       </c>
@@ -4761,7 +4791,7 @@
       </c>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M27" s="53">
         <v>24</v>
       </c>
@@ -4773,7 +4803,7 @@
       </c>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M28" s="53">
         <v>25</v>
       </c>
@@ -4785,7 +4815,7 @@
       </c>
       <c r="P28" s="34"/>
     </row>
-    <row r="29" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M29" s="53">
         <v>26</v>
       </c>
@@ -4797,13 +4827,13 @@
       </c>
       <c r="P29" s="34"/>
     </row>
-    <row r="30" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M30" s="53"/>
       <c r="N30" s="34"/>
       <c r="O30" s="53"/>
       <c r="P30" s="34"/>
     </row>
-    <row r="31" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M31" s="53"/>
       <c r="N31" s="36" t="s">
         <v>122</v>
@@ -4814,7 +4844,7 @@
       </c>
       <c r="P31" s="34"/>
     </row>
-    <row r="32" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M32" s="53"/>
       <c r="N32" s="36" t="s">
         <v>116</v>
@@ -4825,7 +4855,7 @@
       </c>
       <c r="P32" s="34"/>
     </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M33" s="53"/>
       <c r="N33" s="36" t="s">
         <v>132</v>
@@ -4858,20 +4888,20 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.1328125" customWidth="1"/>
+    <col min="9" max="9" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.46484375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="135" t="s">
         <v>158</v>
       </c>
@@ -4899,7 +4929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="137"/>
       <c r="C3" s="138"/>
       <c r="D3" s="138"/>
@@ -4919,7 +4949,7 @@
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" s="140" t="s">
         <v>30</v>
       </c>
@@ -4949,7 +4979,7 @@
       </c>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="141"/>
       <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
@@ -4975,7 +5005,7 @@
       </c>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -5005,7 +5035,7 @@
       </c>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -5031,7 +5061,7 @@
       </c>
       <c r="R7" s="34"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -5057,7 +5087,7 @@
       </c>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -5083,7 +5113,7 @@
       </c>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -5109,7 +5139,7 @@
       </c>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="7">
         <v>6</v>
       </c>
@@ -5135,7 +5165,7 @@
       </c>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="150" t="s">
         <v>47</v>
       </c>
@@ -5155,7 +5185,7 @@
       <c r="Q12" s="53"/>
       <c r="R12" s="34"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -5176,7 +5206,7 @@
       </c>
       <c r="R13" s="34"/>
     </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -5199,7 +5229,7 @@
       </c>
       <c r="R14" s="34"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="O15" s="53"/>
       <c r="P15" s="36" t="s">
         <v>131</v>
@@ -5210,7 +5240,7 @@
       </c>
       <c r="R15" s="34"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="O16" s="52"/>
       <c r="Q16" s="52"/>
     </row>
@@ -5234,26 +5264,26 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.1328125" customWidth="1"/>
+    <col min="12" max="12" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="155" t="s">
         <v>119</v>
       </c>
@@ -5280,7 +5310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="159"/>
       <c r="C3" s="160"/>
       <c r="D3" s="160"/>
@@ -5300,7 +5330,7 @@
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B4" s="152" t="s">
         <v>30</v>
       </c>
@@ -5334,7 +5364,7 @@
       </c>
       <c r="T4" s="78"/>
     </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="153"/>
       <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
@@ -5364,7 +5394,7 @@
       </c>
       <c r="T5" s="78"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="107">
         <v>1</v>
       </c>
@@ -5398,7 +5428,7 @@
       </c>
       <c r="T6" s="78"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" s="53">
         <v>2</v>
       </c>
@@ -5426,7 +5456,7 @@
       </c>
       <c r="T7" s="78"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B8" s="53">
         <v>3</v>
       </c>
@@ -5454,7 +5484,7 @@
       </c>
       <c r="T8" s="34"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" s="53">
         <v>4</v>
       </c>
@@ -5482,7 +5512,7 @@
       </c>
       <c r="T9" s="78"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" s="53">
         <v>5</v>
       </c>
@@ -5510,7 +5540,7 @@
       </c>
       <c r="T10" s="78"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11" s="53">
         <v>6</v>
       </c>
@@ -5538,7 +5568,7 @@
       </c>
       <c r="T11" s="78"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
@@ -5570,7 +5600,7 @@
       </c>
       <c r="T12" s="34"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -5596,7 +5626,7 @@
       </c>
       <c r="T13" s="34"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -5622,7 +5652,7 @@
       </c>
       <c r="T14" s="34"/>
     </row>
-    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -5648,7 +5678,7 @@
       </c>
       <c r="T15" s="34"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
       <c r="Q16" s="53">
         <v>13</v>
       </c>
@@ -5660,7 +5690,7 @@
       </c>
       <c r="T16" s="34"/>
     </row>
-    <row r="17" spans="15:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="15:20" x14ac:dyDescent="0.45">
       <c r="Q17" s="53">
         <v>14</v>
       </c>
@@ -5672,7 +5702,7 @@
       </c>
       <c r="T17" s="34"/>
     </row>
-    <row r="18" spans="15:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="15:20" x14ac:dyDescent="0.45">
       <c r="Q18" s="53">
         <v>15</v>
       </c>
@@ -5684,7 +5714,7 @@
       </c>
       <c r="T18" s="34"/>
     </row>
-    <row r="19" spans="15:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="15:20" x14ac:dyDescent="0.45">
       <c r="Q19" s="77">
         <v>16</v>
       </c>
@@ -5696,7 +5726,7 @@
       </c>
       <c r="T19" s="78"/>
     </row>
-    <row r="21" spans="15:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="15:20" x14ac:dyDescent="0.45">
       <c r="Q21" s="53"/>
       <c r="R21" s="36" t="s">
         <v>122</v>
@@ -5707,7 +5737,7 @@
       </c>
       <c r="T21" s="34"/>
     </row>
-    <row r="22" spans="15:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="15:20" x14ac:dyDescent="0.45">
       <c r="Q22" s="53"/>
       <c r="R22" s="36" t="s">
         <v>116</v>
@@ -5717,7 +5747,7 @@
       </c>
       <c r="T22" s="34"/>
     </row>
-    <row r="23" spans="15:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="15:20" x14ac:dyDescent="0.45">
       <c r="Q23" s="53"/>
       <c r="R23" s="36" t="s">
         <v>131</v>
@@ -5728,7 +5758,7 @@
       </c>
       <c r="T23" s="34"/>
     </row>
-    <row r="24" spans="15:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="15:20" x14ac:dyDescent="0.45">
       <c r="O24" t="s">
         <v>38</v>
       </c>
@@ -5749,31 +5779,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
   <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.46484375" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" customWidth="1"/>
+    <col min="7" max="7" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.1328125" customWidth="1"/>
+    <col min="11" max="12" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="135" t="s">
         <v>118</v>
       </c>
@@ -5803,7 +5833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="137"/>
       <c r="C3" s="138"/>
       <c r="D3" s="138"/>
@@ -5823,7 +5853,7 @@
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B4" s="166" t="s">
         <v>30</v>
       </c>
@@ -5855,7 +5885,7 @@
       </c>
       <c r="T4" s="78"/>
     </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="141"/>
       <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
@@ -5883,7 +5913,7 @@
       </c>
       <c r="T5" s="78"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -5915,7 +5945,7 @@
       </c>
       <c r="T6" s="78"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -5945,7 +5975,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -5973,7 +6003,7 @@
       </c>
       <c r="T8" s="78"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -6001,7 +6031,7 @@
       </c>
       <c r="T9" s="34"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -6029,7 +6059,7 @@
       </c>
       <c r="T10" s="34"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11" s="83">
         <v>6</v>
       </c>
@@ -6057,7 +6087,7 @@
       </c>
       <c r="T11" s="34"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" s="168" t="s">
         <v>29</v>
       </c>
@@ -6087,7 +6117,7 @@
       </c>
       <c r="T12" s="34"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="89"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
@@ -6115,7 +6145,7 @@
       </c>
       <c r="T13" s="34"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="89"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -6141,7 +6171,7 @@
       </c>
       <c r="T14" s="34"/>
     </row>
-    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="91"/>
       <c r="C15" s="92"/>
       <c r="D15" s="92"/>
@@ -6157,7 +6187,7 @@
       <c r="N15" s="92"/>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
       <c r="Q16" s="53"/>
       <c r="R16" s="36" t="s">
         <v>122</v>
@@ -6168,7 +6198,7 @@
       </c>
       <c r="T16" s="34"/>
     </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q17" s="53"/>
       <c r="R17" s="36" t="s">
         <v>116</v>
@@ -6179,7 +6209,7 @@
       </c>
       <c r="T17" s="34"/>
     </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q18" s="53"/>
       <c r="R18" s="36" t="s">
         <v>131</v>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1E7F9-052E-4119-B2E3-DF55ACC43FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550575C5-E1C7-425B-AD14-9CA10A6250FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="577" activeTab="1" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="10" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -24,11 +24,21 @@
     <sheet name="B4" sheetId="9" r:id="rId9"/>
     <sheet name="B5" sheetId="10" r:id="rId10"/>
     <sheet name="B6" sheetId="11" r:id="rId11"/>
+    <sheet name="B7" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,29 +47,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={CAC0B8C7-F59A-434E-826E-AE2871929596}</author>
+    <author>tc={9982AFAF-E6E7-45C0-A44A-0C0167B0574C}</author>
   </authors>
   <commentList>
-    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{CAC0B8C7-F59A-434E-826E-AE2871929596}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{04A41BDB-6338-4F4D-A6D7-1E904B9507AF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Paid Rs 5000 in cash. 
-Total Course Fee is Rs 20,000.
-Duration 2 months (Nov-2023 &amp; Dec-2023)
-In Nov-2023 we will charge Rs 10,000.
-Rest 10,000 will be charged on December.
- </t>
-        </r>
+    1) Redox</t>
       </text>
     </comment>
   </commentList>
@@ -69,51 +65,15 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9982AFAF-E6E7-45C0-A44A-0C0167B0574C}</author>
+    <author>tc={E5C95DD1-C6DB-4079-AFA4-BCF3BDF94C7F}</author>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{04A41BDB-6338-4F4D-A6D7-1E904B9507AF}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{E5C95DD1-C6DB-4079-AFA4-BCF3BDF94C7F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1) Redox</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={9021DEAC-DEF2-47BD-B58D-12E2FFC4F148}</author>
-  </authors>
-  <commentList>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{9021DEAC-DEF2-47BD-B58D-12E2FFC4F148}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     An introduction to Management - Evolution, Concept, Definition, Features, Objectives, Scope</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -121,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="197">
   <si>
     <t>Course</t>
   </si>
@@ -611,104 +571,114 @@
     <t>Straight Line finished</t>
   </si>
   <si>
-    <t>Faculty: Anupam Sen     ||     Batch: B6: Booster Economics &amp; Principle of Management
+    <t>Priyankshu Giri</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>2:00 PM - 4:00 PM</t>
+  </si>
+  <si>
+    <t>1) Background Of</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>10:30 PM - 12:30 PM</t>
+  </si>
+  <si>
+    <t>1) Transmission of heat</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Nature &amp; Significance of Organization</t>
+  </si>
+  <si>
+    <t>Staff Motivation &amp; Leadership</t>
+  </si>
+  <si>
+    <t>Controlling &amp; Change Control</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Principles Of Management</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Basic Elements of Demand &amp; Supply</t>
+  </si>
+  <si>
+    <t>Theory of Consumer Behavior</t>
+  </si>
+  <si>
+    <t>Production Function</t>
+  </si>
+  <si>
+    <t>Market Structures</t>
+  </si>
+  <si>
+    <t>Factor Pricing</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>Anupam Sen</t>
+  </si>
+  <si>
+    <t>Priyangshu Giri</t>
+  </si>
+  <si>
+    <t>40069897092</t>
+  </si>
+  <si>
+    <t>2:00 PM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>1) Organic Chemistry</t>
+  </si>
+  <si>
+    <t>10:30 AM - 12:30 PM</t>
+  </si>
+  <si>
+    <t>1) Thermodynamics</t>
+  </si>
+  <si>
+    <t>12:30 PM - 2:00 PM</t>
+  </si>
+  <si>
+    <t>1) Revision of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Straight Line</t>
+  </si>
+  <si>
+    <t>Faculty: Anupam Sen     ||     Batch: B6: Economics 
 Timing: Monday 1-3pm     ||     Start date: 02/Jan/2024</t>
   </si>
   <si>
-    <t>Priyankshu Giri</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>2:00 PM - 4:00 PM</t>
-  </si>
-  <si>
-    <t>1) Background Of</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>10:30 PM - 12:30 PM</t>
-  </si>
-  <si>
-    <t>1) Transmission of heat</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Nature &amp; Significance of Organization</t>
-  </si>
-  <si>
-    <t>Staff Motivation &amp; Leadership</t>
-  </si>
-  <si>
-    <t>Controlling &amp; Change Control</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Principles Of Management</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>Basic Elements of Demand &amp; Supply</t>
-  </si>
-  <si>
-    <t>Theory of Consumer Behavior</t>
-  </si>
-  <si>
-    <t>Production Function</t>
-  </si>
-  <si>
-    <t>Market Structures</t>
-  </si>
-  <si>
-    <t>Factor Pricing</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>Economics &amp; Principles of Management</t>
-  </si>
-  <si>
-    <t>Anupam Sen</t>
-  </si>
-  <si>
-    <t>Priyangshu Giri</t>
-  </si>
-  <si>
-    <t>40069897092</t>
-  </si>
-  <si>
-    <t>2:00 PM - 03:00 PM</t>
-  </si>
-  <si>
-    <t>1) Organic Chemistry</t>
-  </si>
-  <si>
-    <t>10:30 AM - 12:30 PM</t>
-  </si>
-  <si>
-    <t>1) Thermodynamics</t>
-  </si>
-  <si>
-    <t>12:30 PM - 2:00 PM</t>
-  </si>
-  <si>
-    <t>1) Revision of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Straight Line</t>
+    <t>Faculty: Anupam Sen     ||     Batch: B6: Principle of Management
+Timing: Monday 1-3pm     ||     Start date: 02/Jan/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economics </t>
+  </si>
+  <si>
+    <t>Principles of Management</t>
+  </si>
+  <si>
+    <t>B7</t>
   </si>
 </sst>
 </file>
@@ -718,7 +688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +774,12 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1551,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1726,9 +1702,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1976,6 +1949,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,28 +2279,15 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M12" dT="2023-11-14T08:33:25.79" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{CAC0B8C7-F59A-434E-826E-AE2871929596}">
-    <text xml:space="preserve">Paid Rs 5000 in cash. 
-Total Course Fee is Rs 20,000.
-Duration 2 months (Nov-2023 &amp; Dec-2023)
-In Nov-2023 we will charge Rs 10,000.
-Rest 10,000 will be charged on December.
- </text>
+  <threadedComment ref="D12" dT="2023-11-02T12:47:03.22" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{9982AFAF-E6E7-45C0-A44A-0C0167B0574C}">
+    <text>1) Redox</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D12" dT="2023-11-02T12:47:03.22" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{9982AFAF-E6E7-45C0-A44A-0C0167B0574C}">
-    <text>1) Redox</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E12" dT="2024-01-09T07:14:49.58" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{9021DEAC-DEF2-47BD-B58D-12E2FFC4F148}">
+  <threadedComment ref="D12" dT="2024-01-09T07:14:49.58" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{E5C95DD1-C6DB-4079-AFA4-BCF3BDF94C7F}">
     <text>An introduction to Management - Evolution, Concept, Definition, Features, Objectives, Scope</text>
   </threadedComment>
 </ThreadedComments>
@@ -2331,13 +2301,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="42" t="s">
         <v>52</v>
       </c>
@@ -2345,7 +2315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
         <v>51</v>
       </c>
@@ -2353,7 +2323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">
         <v>50</v>
       </c>
@@ -2361,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
         <v>53</v>
       </c>
@@ -2369,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
         <v>54</v>
       </c>
@@ -2390,30 +2360,30 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.46484375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.86328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" style="52" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="135" t="s">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="172"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="169"/>
       <c r="M2" s="54" t="s">
         <v>113</v>
       </c>
@@ -2430,30 +2400,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="144" t="s">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="146"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="M3" s="34"/>
       <c r="N3" s="53"/>
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
     </row>
-    <row r="4" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B4" s="140" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="139" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -2478,9 +2448,9 @@
       </c>
       <c r="Q4" s="34"/>
     </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="141"/>
-      <c r="C5" s="143"/>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="138"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -2501,7 +2471,7 @@
       </c>
       <c r="Q5" s="34"/>
     </row>
-    <row r="6" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="57">
         <v>1</v>
       </c>
@@ -2528,7 +2498,7 @@
       </c>
       <c r="Q6" s="34"/>
     </row>
-    <row r="7" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="62">
         <v>2</v>
       </c>
@@ -2553,7 +2523,7 @@
       </c>
       <c r="Q7" s="34"/>
     </row>
-    <row r="8" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="62">
         <v>3</v>
       </c>
@@ -2578,7 +2548,7 @@
       </c>
       <c r="Q8" s="34"/>
     </row>
-    <row r="9" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="62">
         <v>4</v>
       </c>
@@ -2603,7 +2573,7 @@
       </c>
       <c r="Q9" s="34"/>
     </row>
-    <row r="10" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="62">
         <v>5</v>
       </c>
@@ -2628,7 +2598,7 @@
       </c>
       <c r="Q10" s="34"/>
     </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="67">
         <v>6</v>
       </c>
@@ -2653,11 +2623,11 @@
       </c>
       <c r="Q11" s="34"/>
     </row>
-    <row r="12" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B12" s="139" t="s">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="51"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -2674,7 +2644,7 @@
       </c>
       <c r="Q12" s="34"/>
     </row>
-    <row r="13" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="51"/>
@@ -2693,7 +2663,7 @@
       </c>
       <c r="Q13" s="34"/>
     </row>
-    <row r="14" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -2712,7 +2682,7 @@
       </c>
       <c r="Q14" s="34"/>
     </row>
-    <row r="15" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -2731,7 +2701,7 @@
       </c>
       <c r="Q15" s="34"/>
     </row>
-    <row r="16" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -2752,7 +2722,7 @@
       </c>
       <c r="Q16" s="34"/>
     </row>
-    <row r="17" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -2771,7 +2741,7 @@
       </c>
       <c r="Q17" s="34"/>
     </row>
-    <row r="18" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -2790,7 +2760,7 @@
       </c>
       <c r="Q18" s="34"/>
     </row>
-    <row r="19" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M19" s="34"/>
       <c r="N19" s="53">
         <v>16</v>
@@ -2803,7 +2773,7 @@
       </c>
       <c r="Q19" s="34"/>
     </row>
-    <row r="20" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M20" s="34"/>
       <c r="N20" s="53">
         <v>17</v>
@@ -2816,7 +2786,7 @@
       </c>
       <c r="Q20" s="34"/>
     </row>
-    <row r="21" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M21" s="34"/>
       <c r="N21" s="53">
         <v>18</v>
@@ -2829,7 +2799,7 @@
       </c>
       <c r="Q21" s="34"/>
     </row>
-    <row r="22" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M22" s="34"/>
       <c r="N22" s="53">
         <v>19</v>
@@ -2842,7 +2812,7 @@
       </c>
       <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M23" s="34"/>
       <c r="N23" s="53">
         <v>20</v>
@@ -2855,7 +2825,7 @@
       </c>
       <c r="Q23" s="34"/>
     </row>
-    <row r="24" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M24" s="34"/>
       <c r="N24" s="53">
         <v>21</v>
@@ -2868,7 +2838,7 @@
       </c>
       <c r="Q24" s="34"/>
     </row>
-    <row r="25" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M25" s="34"/>
       <c r="N25" s="53">
         <v>22</v>
@@ -2881,7 +2851,7 @@
       </c>
       <c r="Q25" s="34"/>
     </row>
-    <row r="26" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M26" s="34"/>
       <c r="N26" s="53">
         <v>23</v>
@@ -2894,7 +2864,7 @@
       </c>
       <c r="Q26" s="34"/>
     </row>
-    <row r="27" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M27" s="34"/>
       <c r="N27" s="53">
         <v>24</v>
@@ -2907,7 +2877,7 @@
       </c>
       <c r="Q27" s="34"/>
     </row>
-    <row r="28" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M28" s="45" t="s">
         <v>85</v>
       </c>
@@ -2924,7 +2894,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M29" s="34"/>
       <c r="N29" s="53">
         <v>26</v>
@@ -2937,7 +2907,7 @@
       </c>
       <c r="Q29" s="34"/>
     </row>
-    <row r="30" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M30" s="34"/>
       <c r="N30" s="53">
         <v>27</v>
@@ -2950,7 +2920,7 @@
       </c>
       <c r="Q30" s="34"/>
     </row>
-    <row r="31" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M31" s="34"/>
       <c r="N31" s="53">
         <v>28</v>
@@ -2963,7 +2933,7 @@
       </c>
       <c r="Q31" s="34"/>
     </row>
-    <row r="32" spans="2:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M32" s="34"/>
       <c r="N32" s="53">
         <v>29</v>
@@ -2976,7 +2946,7 @@
       </c>
       <c r="Q32" s="34"/>
     </row>
-    <row r="33" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="33" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M33" s="34"/>
       <c r="N33" s="53">
         <v>30</v>
@@ -2989,7 +2959,7 @@
       </c>
       <c r="Q33" s="34"/>
     </row>
-    <row r="34" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="34" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M34" s="34"/>
       <c r="N34" s="53">
         <v>31</v>
@@ -3002,7 +2972,7 @@
       </c>
       <c r="Q34" s="34"/>
     </row>
-    <row r="35" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="35" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M35" s="34"/>
       <c r="N35" s="53">
         <v>32</v>
@@ -3015,7 +2985,7 @@
       </c>
       <c r="Q35" s="34"/>
     </row>
-    <row r="36" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="36" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M36" s="34"/>
       <c r="N36" s="53">
         <v>33</v>
@@ -3028,7 +2998,7 @@
       </c>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="37" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M37" s="34"/>
       <c r="N37" s="53">
         <v>34</v>
@@ -3041,14 +3011,14 @@
       </c>
       <c r="Q37" s="34"/>
     </row>
-    <row r="38" spans="13:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M38" s="34"/>
       <c r="N38" s="53"/>
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="39" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M39" s="34"/>
       <c r="N39" s="53"/>
       <c r="O39" s="45" t="s">
@@ -3060,7 +3030,7 @@
       </c>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="40" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M40" s="34"/>
       <c r="N40" s="53"/>
       <c r="O40" s="45" t="s">
@@ -3071,7 +3041,7 @@
       </c>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="13:17" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="41" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M41" s="34"/>
       <c r="N41" s="53"/>
       <c r="O41" s="45" t="s">
@@ -3096,153 +3066,136 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C94FC2-4E02-4E43-9E5D-811D6F46FE15}">
-  <dimension ref="B2:T26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C94FC2-4E02-4E43-9E5D-811D6F46FE15}">
+  <dimension ref="B2:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B2" s="160" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="177"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="174"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
-      <c r="R2" s="111" t="s">
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="N3" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="96">
+        <v>45293</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="N4" s="53">
+        <v>1</v>
+      </c>
+      <c r="O4" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="Q3" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="S3" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B4" s="174" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="174" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="99">
-        <v>45293</v>
-      </c>
-      <c r="E4" s="99">
-        <v>45299</v>
-      </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="Q4" s="53">
-        <v>1</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="S4" s="53">
-        <v>0</v>
-      </c>
-      <c r="T4" s="34"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="Q5" s="53">
+      <c r="P4" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="34"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="N5" s="53">
         <v>2</v>
       </c>
-      <c r="R5" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="S5" s="53">
-        <v>0</v>
-      </c>
-      <c r="T5" s="34"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="O5" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>163</v>
-      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -3250,21 +3203,18 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="Q6" s="53">
+      <c r="N6" s="53">
         <v>3</v>
       </c>
-      <c r="R6" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S6" s="53">
-        <v>0</v>
-      </c>
-      <c r="T6" s="34"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="O6" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="P6" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="34"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="53">
         <v>2</v>
       </c>
@@ -3275,24 +3225,21 @@
       <c r="G7" s="14"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="Q7" s="53">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="53">
         <v>4</v>
       </c>
-      <c r="R7" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="S7" s="53">
-        <v>0</v>
-      </c>
-      <c r="T7" s="34"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="O7" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="53">
         <v>3</v>
       </c>
@@ -3303,24 +3250,21 @@
       <c r="G8" s="14"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="Q8" s="53">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="N8" s="53">
         <v>5</v>
       </c>
-      <c r="R8" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="S8" s="53">
-        <v>0</v>
-      </c>
-      <c r="T8" s="34"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="O8" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="34"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="53">
         <v>4</v>
       </c>
@@ -3331,24 +3275,21 @@
       <c r="G9" s="14"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="Q9" s="53">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="N9" s="53">
         <v>6</v>
       </c>
-      <c r="R9" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="S9" s="53">
-        <v>0</v>
-      </c>
-      <c r="T9" s="34"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="O9" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="P9" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="34"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="53">
         <v>5</v>
       </c>
@@ -3359,18 +3300,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="34"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="34"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="53">
         <v>6</v>
       </c>
@@ -3381,29 +3319,26 @@
       <c r="G11" s="14"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="36" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="S11" s="79">
-        <f>SUM(S4:S9)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="34"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="139" t="s">
+      <c r="P11" s="76">
+        <f>SUM(P4:P9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="34"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -3412,24 +3347,21 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="110"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="36" t="s">
+      <c r="L12" s="107"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="S12" s="79">
+      <c r="P12" s="76">
         <v>6</v>
       </c>
-      <c r="T12" s="34"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -3439,20 +3371,17 @@
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="36" t="s">
+      <c r="N13" s="53"/>
+      <c r="O13" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="S13" s="79">
-        <f>ROUND((S11/S12)*100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="34"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="P13" s="76">
+        <f>ROUND((P11/P12)*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="34"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -3464,13 +3393,10 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="Q14" s="52"/>
-      <c r="S14" s="52"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="N14" s="52"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -3482,148 +3408,440 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q16" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="R16" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="S16" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="T16" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q17" s="53">
-        <v>1</v>
-      </c>
-      <c r="R17" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="S17" s="53">
-        <v>0</v>
-      </c>
-      <c r="T17" s="34"/>
-    </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q18" s="53">
-        <v>2</v>
-      </c>
-      <c r="R18" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="S18" s="53">
-        <v>0</v>
-      </c>
-      <c r="T18" s="34"/>
-    </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q19" s="53">
-        <v>3</v>
-      </c>
-      <c r="R19" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="S19" s="53">
-        <v>0</v>
-      </c>
-      <c r="T19" s="34"/>
-    </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q20" s="53">
-        <v>4</v>
-      </c>
-      <c r="R20" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="S20" s="53">
-        <v>0</v>
-      </c>
-      <c r="T20" s="34"/>
-    </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q21" s="53">
-        <v>5</v>
-      </c>
-      <c r="R21" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="S21" s="53">
-        <v>0</v>
-      </c>
-      <c r="T21" s="34"/>
-    </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q22" s="53">
-        <v>6</v>
-      </c>
-      <c r="R22" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="S22" s="53">
-        <v>0</v>
-      </c>
-      <c r="T22" s="34"/>
-    </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q23" s="53"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="34"/>
-    </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q24" s="53"/>
-      <c r="R24" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="S24" s="79">
-        <f>SUM(S17:S22)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="34"/>
-    </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q25" s="53"/>
-      <c r="R25" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="S25" s="79">
-        <v>6</v>
-      </c>
-      <c r="T25" s="34"/>
-    </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q26" s="53"/>
-      <c r="R26" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="S26" s="79">
-        <f>ROUND((S24/S25)*100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="34"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="175"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N16" s="177"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="176"/>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N17" s="178"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="178"/>
+      <c r="Q17" s="175"/>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N18" s="178"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="178"/>
+      <c r="Q18" s="175"/>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N19" s="178"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="178"/>
+      <c r="Q19" s="175"/>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N20" s="178"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="178"/>
+      <c r="Q20" s="175"/>
+    </row>
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N21" s="178"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="178"/>
+      <c r="Q21" s="175"/>
+    </row>
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N22" s="178"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="175"/>
+    </row>
+    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N23" s="178"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="175"/>
+    </row>
+    <row r="24" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N24" s="178"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="175"/>
+    </row>
+    <row r="25" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N25" s="178"/>
+      <c r="O25" s="176"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="175"/>
+    </row>
+    <row r="26" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N26" s="178"/>
+      <c r="O26" s="176"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849B863B-15B9-415C-AEAC-F7280787DF3E}">
+  <dimension ref="B2:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="157" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="174"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="108" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="N3" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="96">
+        <v>45299</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="N4" s="53">
+        <v>1</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="34"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="N5" s="53">
+        <v>2</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="53">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="N6" s="53">
+        <v>3</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="P6" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="34"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="53">
+        <v>4</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="53">
+        <v>3</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="N8" s="53">
+        <v>5</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="P8" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="34"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="53">
+        <v>4</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="N9" s="53">
+        <v>6</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="34"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="53">
+        <v>5</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="34"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="53">
+        <v>6</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="76">
+        <f>SUM(P4:P9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="34"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="136"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="107"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="76">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="76">
+        <f>ROUND((P11/P12)*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="34"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="N14" s="52"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="175"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3631,67 +3849,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF67B1-7A31-46BB-8007-D9F915FBEBAF}">
-  <dimension ref="B2:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF67B1-7A31-46BB-8007-D9F915FBEBAF}">
+  <dimension ref="B2:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B2" s="112" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="112" t="s">
+      <c r="C2" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="I2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="112" t="s">
+      <c r="K2" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="112" t="s">
+      <c r="M2" s="109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3711,120 +3929,124 @@
         <v>3334</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>3334</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I8" si="0">G3-H3</f>
-        <v>3334</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="113">
+      <c r="L3" s="110">
         <v>45302</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3333</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3333</v>
+      </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3333</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>3333</v>
-      </c>
+      <c r="L5" s="110">
+        <v>45302</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="113">
-        <v>45302</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3333</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3333</v>
+      </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f>G7-H7</f>
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="L7" s="110">
+        <v>45302</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3837,53 +4059,51 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G9" s="1">
-        <v>3333</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I11" si="1">G9-H9</f>
-        <v>3333</v>
+        <f>G9-H9</f>
+        <v>0</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="113">
-        <v>45302</v>
+      <c r="L9" s="110">
+        <v>45299</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I10" si="1">G10-H10</f>
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
@@ -3891,108 +4111,74 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1000</v>
+      </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
+        <f>G11-H11</f>
         <v>0</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12-H12</f>
-        <v>0</v>
-      </c>
+      <c r="L11" s="110">
+        <v>45299</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="76">
-        <v>45299</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F15" s="74" t="s">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="75">
-        <f>SUM(G3:G14)</f>
+      <c r="G13" s="180">
+        <f>SUM(G3:G12)</f>
         <v>12000</v>
       </c>
-      <c r="H15" s="75">
-        <f>SUM(H3:H14)</f>
-        <v>2000</v>
-      </c>
-      <c r="I15" s="75">
-        <f>SUM(I3:I14)</f>
-        <v>10000</v>
+      <c r="H13" s="180">
+        <f>SUM(H3:H12)</f>
+        <v>12000</v>
+      </c>
+      <c r="I13" s="180">
+        <f>SUM(I3:I12)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4007,79 +4193,79 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1328125" style="2"/>
+    <col min="11" max="11" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="114" t="s">
+    <row r="1" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="115" t="s">
+      <c r="C2" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="L2" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="115" t="s">
+      <c r="M2" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="115" t="s">
+      <c r="N2" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="O2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="115" t="s">
+      <c r="P2" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="116" t="s">
+      <c r="Q2" s="113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
@@ -4104,8 +4290,8 @@
       <c r="K3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="117" t="s">
-        <v>186</v>
+      <c r="L3" s="114" t="s">
+        <v>184</v>
       </c>
       <c r="M3" s="40" t="s">
         <v>40</v>
@@ -4115,7 +4301,7 @@
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -4138,8 +4324,8 @@
       <c r="K4" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="117" t="s">
-        <v>186</v>
+      <c r="L4" s="114" t="s">
+        <v>184</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>40</v>
@@ -4149,7 +4335,7 @@
       <c r="P4" s="40"/>
       <c r="Q4" s="40"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -4172,8 +4358,8 @@
       <c r="K5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="117" t="s">
-        <v>186</v>
+      <c r="L5" s="114" t="s">
+        <v>184</v>
       </c>
       <c r="M5" s="40" t="s">
         <v>40</v>
@@ -4183,7 +4369,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="40"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4200,7 +4386,7 @@
         <f>H6</f>
         <v>9000</v>
       </c>
-      <c r="J6" s="118">
+      <c r="J6" s="115">
         <v>45299</v>
       </c>
       <c r="K6" s="40"/>
@@ -4211,7 +4397,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" s="41" t="s">
         <v>26</v>
       </c>
@@ -4241,7 +4427,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4255,19 +4441,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>32</v>
       </c>
@@ -4299,22 +4485,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E7" s="19"/>
     </row>
   </sheetData>
@@ -4330,70 +4516,70 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.86328125" customWidth="1"/>
-    <col min="4" max="4" width="14.53125" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.796875" style="52" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.53125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="135" t="s">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="149"/>
-      <c r="M2" s="79" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
+      <c r="M2" s="76" t="s">
         <v>111</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="79" t="s">
+      <c r="O2" s="76" t="s">
         <v>121</v>
       </c>
       <c r="P2" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="144" t="s">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="146"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="M3" s="53"/>
       <c r="N3" s="34"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="140" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="139" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -4415,13 +4601,13 @@
       </c>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="141"/>
-      <c r="C5" s="143"/>
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="138"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="125"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -4437,7 +4623,7 @@
       </c>
       <c r="P5" s="34"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -4447,7 +4633,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="126"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -4463,7 +4649,7 @@
       </c>
       <c r="P6" s="34"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -4476,18 +4662,18 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
-      <c r="M7" s="77">
+      <c r="M7" s="74">
         <v>4</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="77">
+      <c r="O7" s="74">
         <v>1</v>
       </c>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -4511,7 +4697,7 @@
       </c>
       <c r="P8" s="34"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -4535,7 +4721,7 @@
       </c>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -4559,7 +4745,7 @@
       </c>
       <c r="P10" s="34"/>
     </row>
-    <row r="11" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="53">
         <v>6</v>
       </c>
@@ -4583,37 +4769,37 @@
       </c>
       <c r="P11" s="34"/>
     </row>
-    <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="139" t="s">
+    <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="130"/>
-      <c r="K12" s="131"/>
-      <c r="M12" s="77">
+      <c r="G12" s="92"/>
+      <c r="H12" s="127"/>
+      <c r="K12" s="128"/>
+      <c r="M12" s="74">
         <v>9</v>
       </c>
-      <c r="N12" s="78" t="s">
+      <c r="N12" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="74">
         <v>1</v>
       </c>
       <c r="P12" s="34"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="130"/>
-      <c r="K13" s="131"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="127"/>
+      <c r="K13" s="128"/>
       <c r="M13" s="53">
         <v>10</v>
       </c>
@@ -4625,17 +4811,17 @@
       </c>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="134"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
       <c r="M14" s="53">
         <v>11</v>
       </c>
@@ -4647,7 +4833,7 @@
       </c>
       <c r="P14" s="34"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M15" s="53">
         <v>12</v>
       </c>
@@ -4659,19 +4845,19 @@
       </c>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="M16" s="77">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M16" s="74">
         <v>13</v>
       </c>
-      <c r="N16" s="78" t="s">
+      <c r="N16" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="77">
+      <c r="O16" s="74">
         <v>1</v>
       </c>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M17" s="53">
         <v>14</v>
       </c>
@@ -4683,7 +4869,7 @@
       </c>
       <c r="P17" s="34"/>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M18" s="53">
         <v>15</v>
       </c>
@@ -4695,7 +4881,7 @@
       </c>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M19" s="53">
         <v>16</v>
       </c>
@@ -4707,7 +4893,7 @@
       </c>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M20" s="53">
         <v>17</v>
       </c>
@@ -4719,7 +4905,7 @@
       </c>
       <c r="P20" s="34"/>
     </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M21" s="53">
         <v>18</v>
       </c>
@@ -4731,7 +4917,7 @@
       </c>
       <c r="P21" s="34"/>
     </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M22" s="53">
         <v>19</v>
       </c>
@@ -4743,7 +4929,7 @@
       </c>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M23" s="53">
         <v>20</v>
       </c>
@@ -4755,7 +4941,7 @@
       </c>
       <c r="P23" s="34"/>
     </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M24" s="53">
         <v>21</v>
       </c>
@@ -4767,7 +4953,7 @@
       </c>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M25" s="53">
         <v>22</v>
       </c>
@@ -4779,7 +4965,7 @@
       </c>
       <c r="P25" s="34"/>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M26" s="53">
         <v>23</v>
       </c>
@@ -4791,7 +4977,7 @@
       </c>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M27" s="53">
         <v>24</v>
       </c>
@@ -4803,7 +4989,7 @@
       </c>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M28" s="53">
         <v>25</v>
       </c>
@@ -4815,7 +5001,7 @@
       </c>
       <c r="P28" s="34"/>
     </row>
-    <row r="29" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M29" s="53">
         <v>26</v>
       </c>
@@ -4827,40 +5013,40 @@
       </c>
       <c r="P29" s="34"/>
     </row>
-    <row r="30" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M30" s="53"/>
       <c r="N30" s="34"/>
       <c r="O30" s="53"/>
       <c r="P30" s="34"/>
     </row>
-    <row r="31" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M31" s="53"/>
       <c r="N31" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="O31" s="79">
+      <c r="O31" s="76">
         <f>SUM(O4:O29)</f>
         <v>3</v>
       </c>
       <c r="P31" s="34"/>
     </row>
-    <row r="32" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M32" s="53"/>
       <c r="N32" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="O32" s="79">
+      <c r="O32" s="76">
         <f>COUNT(O4:O29)</f>
         <v>26</v>
       </c>
       <c r="P32" s="34"/>
     </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M33" s="53"/>
       <c r="N33" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="O33" s="79">
+      <c r="O33" s="76">
         <f>ROUND((O31/O32)*100,2)</f>
         <v>11.54</v>
       </c>
@@ -4888,82 +5074,82 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.1328125" customWidth="1"/>
-    <col min="9" max="9" width="21.46484375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="135" t="s">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="129"/>
-      <c r="O2" s="79" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="126"/>
+      <c r="O2" s="76" t="s">
         <v>111</v>
       </c>
       <c r="P2" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="76" t="s">
         <v>121</v>
       </c>
       <c r="R2" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="144" t="s">
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="146"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="143"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B4" s="140" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="79">
         <v>45300</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="119"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="116"/>
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
@@ -4979,33 +5165,33 @@
       </c>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="141"/>
-      <c r="C5" s="143"/>
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="138"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="120"/>
+      <c r="I5" s="117"/>
       <c r="J5" s="30"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
       <c r="M5" s="32"/>
-      <c r="O5" s="77">
+      <c r="O5" s="74">
         <v>2</v>
       </c>
-      <c r="P5" s="78" t="s">
+      <c r="P5" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="Q5" s="77">
+      <c r="Q5" s="74">
         <v>1</v>
       </c>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -5013,13 +5199,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="121"/>
+      <c r="I6" s="118"/>
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -5035,7 +5221,7 @@
       </c>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -5061,7 +5247,7 @@
       </c>
       <c r="R7" s="34"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -5076,18 +5262,18 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
-      <c r="O8" s="77">
+      <c r="O8" s="74">
         <v>5</v>
       </c>
-      <c r="P8" s="78" t="s">
+      <c r="P8" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="77">
+      <c r="Q8" s="74">
         <v>1</v>
       </c>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -5113,7 +5299,7 @@
       </c>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -5139,7 +5325,7 @@
       </c>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>6</v>
       </c>
@@ -5165,27 +5351,27 @@
       </c>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="150" t="s">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="80" t="s">
-        <v>188</v>
+      <c r="C12" s="148"/>
+      <c r="D12" s="77" t="s">
+        <v>186</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="130"/>
-      <c r="M12" s="131"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="127"/>
+      <c r="M12" s="128"/>
       <c r="O12" s="53"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="53"/>
       <c r="R12" s="34"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -5193,20 +5379,20 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="130"/>
-      <c r="M13" s="131"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="127"/>
+      <c r="M13" s="128"/>
       <c r="O13" s="53"/>
       <c r="P13" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" s="79">
+      <c r="Q13" s="76">
         <f>SUM(Q4:Q11)</f>
         <v>2</v>
       </c>
       <c r="R13" s="34"/>
     </row>
-    <row r="14" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -5214,33 +5400,33 @@
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="134"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="131"/>
       <c r="O14" s="53"/>
       <c r="P14" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="Q14" s="79">
+      <c r="Q14" s="76">
         <f>COUNT(Q4:Q11)</f>
         <v>8</v>
       </c>
       <c r="R14" s="34"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O15" s="53"/>
       <c r="P15" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="Q15" s="79">
+      <c r="Q15" s="76">
         <f>ROUND((Q13/Q14)*100,2)</f>
         <v>25</v>
       </c>
       <c r="R15" s="34"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O16" s="52"/>
       <c r="Q16" s="52"/>
     </row>
@@ -5264,39 +5450,39 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.1328125" customWidth="1"/>
-    <col min="12" max="12" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="155" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="152" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="158"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="155"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -5310,102 +5496,102 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="146"/>
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B4" s="152" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="103">
         <v>45297</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="103">
         <v>45300</v>
       </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="96"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="72"/>
       <c r="O4" s="73"/>
-      <c r="Q4" s="77">
+      <c r="Q4" s="74">
         <v>1</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="S4" s="77">
+      <c r="S4" s="74">
         <v>1</v>
       </c>
-      <c r="T4" s="78"/>
-    </row>
-    <row r="5" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="153"/>
-      <c r="C5" s="143"/>
+      <c r="T4" s="75"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="150"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="94"/>
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
-      <c r="Q5" s="77">
+      <c r="Q5" s="74">
         <v>2</v>
       </c>
-      <c r="R5" s="78" t="s">
+      <c r="R5" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="77">
+      <c r="S5" s="74">
         <v>1</v>
       </c>
-      <c r="T5" s="78"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B6" s="107">
+      <c r="T5" s="75"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="104">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -5414,21 +5600,21 @@
       <c r="J6" s="21"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="98"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
-      <c r="Q6" s="77">
+      <c r="Q6" s="74">
         <v>3</v>
       </c>
-      <c r="R6" s="78" t="s">
+      <c r="R6" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="S6" s="77">
+      <c r="S6" s="74">
         <v>1</v>
       </c>
-      <c r="T6" s="78"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T6" s="75"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="53">
         <v>2</v>
       </c>
@@ -5445,18 +5631,18 @@
       <c r="M7" s="13"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
-      <c r="Q7" s="77">
+      <c r="Q7" s="74">
         <v>4</v>
       </c>
-      <c r="R7" s="78" t="s">
+      <c r="R7" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="S7" s="77">
+      <c r="S7" s="74">
         <v>1</v>
       </c>
-      <c r="T7" s="78"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T7" s="75"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="53">
         <v>3</v>
       </c>
@@ -5484,7 +5670,7 @@
       </c>
       <c r="T8" s="34"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="53">
         <v>4</v>
       </c>
@@ -5501,18 +5687,18 @@
       <c r="M9" s="13"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
-      <c r="Q9" s="77">
+      <c r="Q9" s="74">
         <v>6</v>
       </c>
-      <c r="R9" s="78" t="s">
+      <c r="R9" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="S9" s="77">
+      <c r="S9" s="74">
         <v>1</v>
       </c>
-      <c r="T9" s="78"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T9" s="75"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="53">
         <v>5</v>
       </c>
@@ -5529,18 +5715,18 @@
       <c r="M10" s="13"/>
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
-      <c r="Q10" s="77">
+      <c r="Q10" s="74">
         <v>7</v>
       </c>
-      <c r="R10" s="78" t="s">
+      <c r="R10" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="S10" s="77">
+      <c r="S10" s="74">
         <v>1</v>
       </c>
-      <c r="T10" s="78"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T10" s="75"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="53">
         <v>6</v>
       </c>
@@ -5554,41 +5740,41 @@
       <c r="J11" s="21"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="88"/>
-      <c r="Q11" s="77">
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="85"/>
+      <c r="Q11" s="74">
         <v>8</v>
       </c>
-      <c r="R11" s="78" t="s">
+      <c r="R11" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="77">
+      <c r="S11" s="74">
         <v>1</v>
       </c>
-      <c r="T11" s="78"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="139" t="s">
+      <c r="T11" s="75"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="95"/>
+      <c r="J12" s="92"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="81"/>
+      <c r="M12" s="78"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="90"/>
+      <c r="O12" s="87"/>
       <c r="Q12" s="53">
         <v>9</v>
       </c>
@@ -5600,7 +5786,7 @@
       </c>
       <c r="T12" s="34"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -5609,10 +5795,10 @@
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="95"/>
+      <c r="J13" s="92"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="81"/>
+      <c r="M13" s="78"/>
       <c r="N13" s="34"/>
       <c r="O13" s="6"/>
       <c r="Q13" s="53">
@@ -5626,7 +5812,7 @@
       </c>
       <c r="T13" s="34"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -5634,11 +5820,11 @@
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="81"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="34"/>
       <c r="O14" s="6"/>
       <c r="Q14" s="53">
@@ -5652,7 +5838,7 @@
       </c>
       <c r="T14" s="34"/>
     </row>
-    <row r="15" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -5660,12 +5846,12 @@
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="92"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="89"/>
       <c r="O15" s="8"/>
       <c r="Q15" s="53">
         <v>12</v>
@@ -5678,7 +5864,7 @@
       </c>
       <c r="T15" s="34"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q16" s="53">
         <v>13</v>
       </c>
@@ -5690,7 +5876,7 @@
       </c>
       <c r="T16" s="34"/>
     </row>
-    <row r="17" spans="15:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="15:20" x14ac:dyDescent="0.3">
       <c r="Q17" s="53">
         <v>14</v>
       </c>
@@ -5702,7 +5888,7 @@
       </c>
       <c r="T17" s="34"/>
     </row>
-    <row r="18" spans="15:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="15:20" x14ac:dyDescent="0.3">
       <c r="Q18" s="53">
         <v>15</v>
       </c>
@@ -5714,51 +5900,51 @@
       </c>
       <c r="T18" s="34"/>
     </row>
-    <row r="19" spans="15:20" x14ac:dyDescent="0.45">
-      <c r="Q19" s="77">
+    <row r="19" spans="15:20" x14ac:dyDescent="0.3">
+      <c r="Q19" s="74">
         <v>16</v>
       </c>
-      <c r="R19" s="78" t="s">
+      <c r="R19" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="S19" s="77">
+      <c r="S19" s="74">
         <v>1</v>
       </c>
-      <c r="T19" s="78"/>
-    </row>
-    <row r="21" spans="15:20" x14ac:dyDescent="0.45">
+      <c r="T19" s="75"/>
+    </row>
+    <row r="21" spans="15:20" x14ac:dyDescent="0.3">
       <c r="Q21" s="53"/>
       <c r="R21" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="S21" s="79">
+      <c r="S21" s="76">
         <f>SUM(S4:S19)</f>
         <v>8</v>
       </c>
       <c r="T21" s="34"/>
     </row>
-    <row r="22" spans="15:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="15:20" x14ac:dyDescent="0.3">
       <c r="Q22" s="53"/>
       <c r="R22" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="S22" s="79">
+      <c r="S22" s="76">
         <v>16</v>
       </c>
       <c r="T22" s="34"/>
     </row>
-    <row r="23" spans="15:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="15:20" x14ac:dyDescent="0.3">
       <c r="Q23" s="53"/>
       <c r="R23" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="S23" s="79">
+      <c r="S23" s="76">
         <f>ROUND((S21/S22)*100,2)</f>
         <v>50</v>
       </c>
       <c r="T23" s="34"/>
     </row>
-    <row r="24" spans="15:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="15:20" x14ac:dyDescent="0.3">
       <c r="O24" t="s">
         <v>38</v>
       </c>
@@ -5783,43 +5969,43 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.46484375" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" customWidth="1"/>
-    <col min="7" max="7" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.1328125" customWidth="1"/>
-    <col min="11" max="12" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="135" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="171"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="168"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -5833,63 +6019,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="165"/>
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B4" s="166" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="79">
         <v>45300</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="101"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="98"/>
       <c r="N4" s="72"/>
       <c r="O4" s="73"/>
-      <c r="Q4" s="77">
+      <c r="Q4" s="74">
         <v>1</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="S4" s="77">
+      <c r="S4" s="74">
         <v>1</v>
       </c>
-      <c r="T4" s="78"/>
-    </row>
-    <row r="5" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="141"/>
-      <c r="C5" s="143"/>
+      <c r="T4" s="75"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="138"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -5898,22 +6084,22 @@
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="102"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
-      <c r="Q5" s="77">
+      <c r="Q5" s="74">
         <v>2</v>
       </c>
-      <c r="R5" s="78" t="s">
+      <c r="R5" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="S5" s="77">
+      <c r="S5" s="74">
         <v>1</v>
       </c>
-      <c r="T5" s="78"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T5" s="75"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -5921,7 +6107,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -5930,22 +6116,22 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="121"/>
+      <c r="L6" s="118"/>
       <c r="M6" s="24"/>
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
-      <c r="Q6" s="77">
+      <c r="Q6" s="74">
         <v>3</v>
       </c>
-      <c r="R6" s="78" t="s">
+      <c r="R6" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="S6" s="77">
+      <c r="S6" s="74">
         <v>1</v>
       </c>
-      <c r="T6" s="78"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T6" s="75"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -5955,10 +6141,10 @@
       <c r="F7" s="14"/>
       <c r="G7" s="21"/>
       <c r="H7" s="34"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="122"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="119"/>
       <c r="M7" s="22"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
@@ -5975,7 +6161,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -5985,25 +6171,25 @@
       <c r="F8" s="14"/>
       <c r="G8" s="21"/>
       <c r="H8" s="34"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="122"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="119"/>
       <c r="M8" s="22"/>
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
-      <c r="Q8" s="77">
+      <c r="Q8" s="74">
         <v>5</v>
       </c>
-      <c r="R8" s="78" t="s">
+      <c r="R8" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="S8" s="77">
+      <c r="S8" s="74">
         <v>1</v>
       </c>
-      <c r="T8" s="78"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T8" s="75"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -6013,10 +6199,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="21"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="122"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="119"/>
       <c r="M9" s="22"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
@@ -6031,7 +6217,7 @@
       </c>
       <c r="T9" s="34"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -6041,10 +6227,10 @@
       <c r="F10" s="14"/>
       <c r="G10" s="21"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="122"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="119"/>
       <c r="M10" s="22"/>
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
@@ -6059,23 +6245,23 @@
       </c>
       <c r="T10" s="34"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B11" s="83">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="80">
         <v>6</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="88"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="85"/>
       <c r="Q11" s="53">
         <v>8</v>
       </c>
@@ -6087,25 +6273,25 @@
       </c>
       <c r="T11" s="34"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="168" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="89"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="86"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="90"/>
+      <c r="O12" s="87"/>
       <c r="Q12" s="53">
         <v>9</v>
       </c>
@@ -6117,21 +6303,21 @@
       </c>
       <c r="T12" s="34"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B13" s="89"/>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="86"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="89"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="86"/>
       <c r="N13" s="34"/>
       <c r="O13" s="6"/>
       <c r="Q13" s="53">
@@ -6145,19 +6331,19 @@
       </c>
       <c r="T13" s="34"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B14" s="89"/>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="86"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="89"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="34"/>
       <c r="O14" s="6"/>
       <c r="Q14" s="53">
@@ -6171,50 +6357,50 @@
       </c>
       <c r="T14" s="34"/>
     </row>
-    <row r="15" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="92"/>
+    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="89"/>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q16" s="53"/>
       <c r="R16" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="S16" s="79">
+      <c r="S16" s="76">
         <f>SUM(S4:S14)</f>
         <v>4</v>
       </c>
       <c r="T16" s="34"/>
     </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q17" s="53"/>
       <c r="R17" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="S17" s="79">
+      <c r="S17" s="76">
         <f>COUNT(S4:S14)</f>
         <v>11</v>
       </c>
       <c r="T17" s="34"/>
     </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q18" s="53"/>
       <c r="R18" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="S18" s="79">
+      <c r="S18" s="76">
         <f>ROUND((S16/S17)*100,2)</f>
         <v>36.36</v>
       </c>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550575C5-E1C7-425B-AD14-9CA10A6250FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="10" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="B6" sheetId="11" r:id="rId11"/>
     <sheet name="B7" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,17 +44,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={9982AFAF-E6E7-45C0-A44A-0C0167B0574C}</author>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{04A41BDB-6338-4F4D-A6D7-1E904B9507AF}">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1) Redox</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -63,17 +71,26 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={E5C95DD1-C6DB-4079-AFA4-BCF3BDF94C7F}</author>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{E5C95DD1-C6DB-4079-AFA4-BCF3BDF94C7F}">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     An introduction to Management - Evolution, Concept, Definition, Features, Objectives, Scope</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -81,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="201">
   <si>
     <t>Course</t>
   </si>
@@ -679,16 +696,28 @@
   </si>
   <si>
     <t>B7</t>
+  </si>
+  <si>
+    <t>1) Mettalurgy</t>
+  </si>
+  <si>
+    <t>1) MCQ Practice</t>
+  </si>
+  <si>
+    <t>1) Probability &amp;</t>
+  </si>
+  <si>
+    <t>Revision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,12 +803,6 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1820,135 +1843,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,6 +1853,135 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2294,7 +2317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C90D3B1-C76E-4CE0-A4AA-1FA923F6E3CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2353,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3BDFFA-3B28-4FBD-9FBD-B0268E77162A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2376,14 +2399,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="169"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="175"/>
       <c r="M2" s="54" t="s">
         <v>113</v>
       </c>
@@ -2401,18 +2424,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="141" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="M3" s="34"/>
       <c r="N3" s="53"/>
       <c r="O3" s="34"/>
@@ -2420,10 +2443,10 @@
       <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="145" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -2449,8 +2472,8 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="138"/>
-      <c r="C5" s="140"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -2624,10 +2647,10 @@
       <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="136"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="51"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -3066,10 +3089,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C94FC2-4E02-4E43-9E5D-811D6F46FE15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -3086,19 +3109,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="174"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="180"/>
       <c r="N2" s="34"/>
       <c r="O2" s="108" t="s">
         <v>165</v>
@@ -3107,17 +3130,17 @@
       <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
       <c r="N3" s="55" t="s">
         <v>111</v>
       </c>
@@ -3132,10 +3155,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="177" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="96">
@@ -3161,8 +3184,8 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="97" t="s">
         <v>163</v>
       </c>
@@ -3333,10 +3356,10 @@
       <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="136"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="34" t="s">
         <v>164</v>
       </c>
@@ -3408,76 +3431,76 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="177"/>
-      <c r="O16" s="176"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="176"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="133"/>
     </row>
     <row r="17" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N17" s="178"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="178"/>
-      <c r="Q17" s="175"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="132"/>
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="178"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="178"/>
-      <c r="Q18" s="175"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="132"/>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N19" s="178"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="178"/>
-      <c r="Q19" s="175"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="132"/>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N20" s="178"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="175"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="132"/>
     </row>
     <row r="21" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N21" s="178"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="178"/>
-      <c r="Q21" s="175"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="132"/>
     </row>
     <row r="22" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N22" s="178"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="175"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="132"/>
     </row>
     <row r="23" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N23" s="178"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="175"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="132"/>
     </row>
     <row r="24" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N24" s="178"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="177"/>
-      <c r="Q24" s="175"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="132"/>
     </row>
     <row r="25" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N25" s="178"/>
-      <c r="O25" s="176"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="175"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="132"/>
     </row>
     <row r="26" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N26" s="178"/>
-      <c r="O26" s="176"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="175"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3493,7 +3516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849B863B-15B9-415C-AEAC-F7280787DF3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3511,19 +3534,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="174"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="180"/>
       <c r="N2" s="34"/>
       <c r="O2" s="108" t="s">
         <v>174</v>
@@ -3532,17 +3555,17 @@
       <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
       <c r="N3" s="55" t="s">
         <v>111</v>
       </c>
@@ -3557,10 +3580,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="177" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="96">
@@ -3586,8 +3609,8 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="97" t="s">
         <v>163</v>
       </c>
@@ -3758,10 +3781,10 @@
       <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="136"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -3829,19 +3852,19 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3849,7 +3872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF67B1-7A31-46BB-8007-D9F915FBEBAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4161,18 +4184,18 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="180">
+      <c r="G13" s="137">
         <f>SUM(G3:G12)</f>
         <v>12000</v>
       </c>
-      <c r="H13" s="180">
+      <c r="H13" s="137">
         <f>SUM(H3:H12)</f>
         <v>12000</v>
       </c>
-      <c r="I13" s="180">
+      <c r="I13" s="137">
         <f>SUM(I3:I12)</f>
         <v>0</v>
       </c>
@@ -4183,7 +4206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33D141-6777-454F-A53F-584318966504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4420,7 +4443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1681C941-35C2-49C0-B4BB-FB590551761B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4434,7 +4457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6DCCC-E30E-4525-A65D-DF43CA79E3C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4509,7 +4532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45B9C15-B318-4180-B0D5-96F2E895A4B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4532,18 +4555,18 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="152"/>
       <c r="M2" s="76" t="s">
         <v>111</v>
       </c>
@@ -4558,28 +4581,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="141" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="M3" s="53"/>
       <c r="N3" s="34"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="145" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -4602,8 +4625,8 @@
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="138"/>
-      <c r="C5" s="140"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -4770,10 +4793,10 @@
       <c r="P11" s="34"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="136"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -5067,11 +5090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5088,16 +5111,16 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="124"/>
       <c r="K2" s="125"/>
       <c r="L2" s="125"/>
@@ -5116,36 +5139,38 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="141" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="143"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="149"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="145" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="79">
         <v>45300</v>
       </c>
-      <c r="E4" s="79"/>
+      <c r="E4" s="79">
+        <v>45307</v>
+      </c>
       <c r="F4" s="79"/>
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
@@ -5166,12 +5191,14 @@
       <c r="R4" s="34"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="138"/>
-      <c r="C5" s="140"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>185</v>
+      </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -5201,7 +5228,9 @@
       <c r="D6" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -5227,7 +5256,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -5236,14 +5265,14 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
-      <c r="O7" s="53">
+      <c r="O7" s="74">
         <v>4</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="Q7" s="53">
-        <v>0</v>
+      <c r="Q7" s="74">
+        <v>1</v>
       </c>
       <c r="R7" s="34"/>
     </row>
@@ -5253,7 +5282,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -5279,7 +5308,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="14"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -5288,14 +5317,14 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
-      <c r="O9" s="53">
+      <c r="O9" s="74">
         <v>6</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="P9" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" s="53">
-        <v>0</v>
+      <c r="Q9" s="74">
+        <v>1</v>
       </c>
       <c r="R9" s="34"/>
     </row>
@@ -5305,7 +5334,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="14"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -5331,7 +5360,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="65"/>
       <c r="H11" s="65"/>
@@ -5352,14 +5381,16 @@
       <c r="R11" s="34"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="148"/>
+      <c r="C12" s="154"/>
       <c r="D12" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="34" t="s">
+        <v>197</v>
+      </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -5388,7 +5419,7 @@
       </c>
       <c r="Q13" s="76">
         <f>SUM(Q4:Q11)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R13" s="34"/>
     </row>
@@ -5422,7 +5453,7 @@
       </c>
       <c r="Q15" s="76">
         <f>ROUND((Q13/Q14)*100,2)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="R15" s="34"/>
     </row>
@@ -5443,11 +5474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5470,19 +5501,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="155"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="161"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -5497,30 +5528,30 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="149"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="157" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="103">
@@ -5529,7 +5560,9 @@
       <c r="E4" s="103">
         <v>45300</v>
       </c>
-      <c r="F4" s="103"/>
+      <c r="F4" s="103">
+        <v>45307</v>
+      </c>
       <c r="G4" s="103"/>
       <c r="H4" s="103"/>
       <c r="I4" s="96"/>
@@ -5551,15 +5584,17 @@
       <c r="T4" s="75"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="150"/>
-      <c r="C5" s="140"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="33" t="s">
         <v>166</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>187</v>
+      </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="97"/>
@@ -5593,7 +5628,9 @@
       <c r="E6" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="14"/>
@@ -5755,17 +5792,19 @@
       <c r="T11" s="75"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="136"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="34" t="s">
         <v>167</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>198</v>
+      </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -5962,11 +6001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5990,22 +6029,22 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="168"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="174"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -6020,36 +6059,38 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="168"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="170" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="79">
         <v>45300</v>
       </c>
-      <c r="E4" s="79"/>
+      <c r="E4" s="79">
+        <v>45307</v>
+      </c>
       <c r="F4" s="79"/>
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
@@ -6072,12 +6113,14 @@
       <c r="T4" s="75"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="138"/>
-      <c r="C5" s="140"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>189</v>
+      </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -6109,7 +6152,9 @@
       <c r="D6" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -6137,7 +6182,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="14"/>
       <c r="G7" s="21"/>
       <c r="H7" s="34"/>
@@ -6167,7 +6212,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="14"/>
       <c r="G8" s="21"/>
       <c r="H8" s="34"/>
@@ -6195,7 +6240,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="34"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="14"/>
       <c r="G9" s="21"/>
       <c r="H9" s="34"/>
@@ -6223,7 +6268,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="14"/>
       <c r="G10" s="21"/>
       <c r="H10" s="34"/>
@@ -6251,7 +6296,7 @@
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="84"/>
-      <c r="E11" s="83"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="83"/>
       <c r="G11" s="35"/>
       <c r="H11" s="84"/>
@@ -6274,14 +6319,16 @@
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="136"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="34" t="s">
+        <v>199</v>
+      </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -6309,7 +6356,9 @@
       <c r="D13" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="34" t="s">
+        <v>135</v>
+      </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -6335,7 +6384,9 @@
       <c r="B14" s="86"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="34" t="s">
+        <v>200</v>
+      </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9945673-5F9D-4AF8-BD7C-3D24F18B7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <sheet name="B6" sheetId="11" r:id="rId11"/>
     <sheet name="B7" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,26 +45,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9982AFAF-E6E7-45C0-A44A-0C0167B0574C}</author>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1) Redox</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -71,26 +63,17 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E5C95DD1-C6DB-4079-AFA4-BCF3BDF94C7F}</author>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     An introduction to Management - Evolution, Concept, Definition, Features, Objectives, Scope</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -98,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="204">
   <si>
     <t>Course</t>
   </si>
@@ -708,12 +691,21 @@
   </si>
   <si>
     <t>Revision</t>
+  </si>
+  <si>
+    <t>1) Mettalurgy - Doubt</t>
+  </si>
+  <si>
+    <t>Clearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Probability </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -1550,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1843,12 +1835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2317,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2376,7 +2363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2399,14 +2386,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="175"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="172"/>
       <c r="M2" s="54" t="s">
         <v>113</v>
       </c>
@@ -2424,18 +2411,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="147" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
       <c r="M3" s="34"/>
       <c r="N3" s="53"/>
       <c r="O3" s="34"/>
@@ -2443,10 +2430,10 @@
       <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="142" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -2472,8 +2459,8 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="144"/>
-      <c r="C5" s="146"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -2647,10 +2634,10 @@
       <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="51"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -3089,7 +3076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3109,19 +3096,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="180"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="177"/>
       <c r="N2" s="34"/>
       <c r="O2" s="108" t="s">
         <v>165</v>
@@ -3130,17 +3117,17 @@
       <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
       <c r="N3" s="55" t="s">
         <v>111</v>
       </c>
@@ -3155,10 +3142,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="174" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="96">
@@ -3184,8 +3171,8 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="97" t="s">
         <v>163</v>
       </c>
@@ -3356,10 +3343,10 @@
       <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="34" t="s">
         <v>164</v>
       </c>
@@ -3431,76 +3418,56 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="134"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="133"/>
-    </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N17" s="135"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="132"/>
-    </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="135"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="132"/>
-    </row>
-    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N19" s="135"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="132"/>
-    </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N20" s="135"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="132"/>
-    </row>
-    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N21" s="135"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="132"/>
-    </row>
-    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N22" s="135"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="132"/>
-    </row>
-    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N23" s="135"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="132"/>
-    </row>
-    <row r="24" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N24" s="135"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="132"/>
-    </row>
-    <row r="25" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N25" s="135"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="134"/>
-      <c r="Q25" s="132"/>
-    </row>
-    <row r="26" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N26" s="135"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="42"/>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N17" s="52"/>
+      <c r="P17" s="52"/>
+    </row>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N18" s="52"/>
+      <c r="P18" s="52"/>
+    </row>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N19" s="52"/>
+      <c r="P19" s="52"/>
+    </row>
+    <row r="20" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N20" s="52"/>
+      <c r="P20" s="52"/>
+    </row>
+    <row r="21" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N21" s="52"/>
+      <c r="P21" s="52"/>
+    </row>
+    <row r="22" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N22" s="52"/>
+      <c r="P22" s="52"/>
+    </row>
+    <row r="23" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N23" s="52"/>
+      <c r="P23" s="52"/>
+    </row>
+    <row r="24" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N24" s="52"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="132"/>
+    </row>
+    <row r="25" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N25" s="52"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="132"/>
+    </row>
+    <row r="26" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N26" s="52"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3516,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3534,19 +3501,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="160" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="180"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="177"/>
       <c r="N2" s="34"/>
       <c r="O2" s="108" t="s">
         <v>174</v>
@@ -3555,17 +3522,17 @@
       <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
       <c r="N3" s="55" t="s">
         <v>111</v>
       </c>
@@ -3580,10 +3547,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="174" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="96">
@@ -3609,8 +3576,8 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="97" t="s">
         <v>163</v>
       </c>
@@ -3781,10 +3748,10 @@
       <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -3852,10 +3819,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
+      <c r="O15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3872,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4184,18 +4148,18 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="136" t="s">
+      <c r="F13" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="137">
+      <c r="G13" s="134">
         <f>SUM(G3:G12)</f>
         <v>12000</v>
       </c>
-      <c r="H13" s="137">
+      <c r="H13" s="134">
         <f>SUM(H3:H12)</f>
         <v>12000</v>
       </c>
-      <c r="I13" s="137">
+      <c r="I13" s="134">
         <f>SUM(I3:I12)</f>
         <v>0</v>
       </c>
@@ -4206,7 +4170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4443,7 +4407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4457,7 +4421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4532,7 +4496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4555,18 +4519,18 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="152"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="149"/>
       <c r="M2" s="76" t="s">
         <v>111</v>
       </c>
@@ -4581,28 +4545,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="147" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
       <c r="M3" s="53"/>
       <c r="N3" s="34"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="142" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9"/>
@@ -4625,8 +4589,8 @@
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="144"/>
-      <c r="C5" s="146"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -4793,10 +4757,10 @@
       <c r="P11" s="34"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -5090,11 +5054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5111,16 +5075,16 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
       <c r="J2" s="124"/>
       <c r="K2" s="125"/>
       <c r="L2" s="125"/>
@@ -5139,30 +5103,30 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="147" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="149"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="146"/>
       <c r="O3" s="53"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="142" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="79">
@@ -5171,7 +5135,9 @@
       <c r="E4" s="79">
         <v>45307</v>
       </c>
-      <c r="F4" s="79"/>
+      <c r="F4" s="79">
+        <v>45309</v>
+      </c>
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
       <c r="I4" s="116"/>
@@ -5191,15 +5157,17 @@
       <c r="R4" s="34"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="144"/>
-      <c r="C5" s="146"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
         <v>185</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>185</v>
+      </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="117"/>
@@ -5231,7 +5199,9 @@
       <c r="E6" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="118"/>
@@ -5257,7 +5227,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -5283,7 +5253,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -5309,7 +5279,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -5335,7 +5305,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -5361,7 +5331,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="65"/>
       <c r="H11" s="65"/>
       <c r="I11" s="66"/>
@@ -5381,17 +5351,19 @@
       <c r="R11" s="34"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="77" t="s">
         <v>186</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>201</v>
+      </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="92"/>
@@ -5407,7 +5379,9 @@
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="F13" s="34" t="s">
+        <v>202</v>
+      </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="92"/>
@@ -5474,11 +5448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5488,7 +5462,8 @@
     <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
@@ -5501,19 +5476,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="158"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -5528,30 +5503,30 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="149"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="146"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="154" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="103">
@@ -5563,7 +5538,9 @@
       <c r="F4" s="103">
         <v>45307</v>
       </c>
-      <c r="G4" s="103"/>
+      <c r="G4" s="103">
+        <v>45309</v>
+      </c>
       <c r="H4" s="103"/>
       <c r="I4" s="96"/>
       <c r="J4" s="101"/>
@@ -5584,8 +5561,8 @@
       <c r="T4" s="75"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="156"/>
-      <c r="C5" s="146"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
         <v>166</v>
       </c>
@@ -5595,7 +5572,9 @@
       <c r="F5" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>187</v>
+      </c>
       <c r="H5" s="33"/>
       <c r="I5" s="97"/>
       <c r="J5" s="102"/>
@@ -5631,7 +5610,9 @@
       <c r="F6" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="14"/>
       <c r="J6" s="21"/>
@@ -5659,7 +5640,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="21"/>
@@ -5687,7 +5668,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21"/>
@@ -5715,7 +5696,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="21"/>
@@ -5743,7 +5724,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="21"/>
@@ -5792,10 +5773,10 @@
       <c r="T11" s="75"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="34" t="s">
         <v>167</v>
       </c>
@@ -5805,7 +5786,9 @@
       <c r="F12" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="34" t="s">
+        <v>167</v>
+      </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="92"/>
@@ -5814,16 +5797,16 @@
       <c r="M12" s="78"/>
       <c r="N12" s="34"/>
       <c r="O12" s="87"/>
-      <c r="Q12" s="53">
+      <c r="Q12" s="74">
         <v>9</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="R12" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="S12" s="53">
-        <v>0</v>
-      </c>
-      <c r="T12" s="34"/>
+      <c r="S12" s="74">
+        <v>1</v>
+      </c>
+      <c r="T12" s="75"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="34"/>
@@ -5958,7 +5941,7 @@
       </c>
       <c r="S21" s="76">
         <f>SUM(S4:S19)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T21" s="34"/>
     </row>
@@ -5979,7 +5962,7 @@
       </c>
       <c r="S23" s="76">
         <f>ROUND((S21/S22)*100,2)</f>
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="T23" s="34"/>
     </row>
@@ -6001,11 +5984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6029,22 +6012,22 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="174"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="171"/>
       <c r="Q2" s="55" t="s">
         <v>111</v>
       </c>
@@ -6059,30 +6042,30 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="168"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="165"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="34"/>
       <c r="S3" s="53"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="167" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="79">
@@ -6091,7 +6074,9 @@
       <c r="E4" s="79">
         <v>45307</v>
       </c>
-      <c r="F4" s="79"/>
+      <c r="F4" s="79">
+        <v>45309</v>
+      </c>
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
       <c r="I4" s="79"/>
@@ -6113,15 +6098,17 @@
       <c r="T4" s="75"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="144"/>
-      <c r="C5" s="146"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>189</v>
+      </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
@@ -6155,7 +6142,9 @@
       <c r="E6" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -6183,7 +6172,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="21"/>
       <c r="H7" s="34"/>
       <c r="I7" s="78"/>
@@ -6213,7 +6202,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="21"/>
       <c r="H8" s="34"/>
       <c r="I8" s="78"/>
@@ -6241,7 +6230,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="21"/>
       <c r="H9" s="34"/>
       <c r="I9" s="78"/>
@@ -6269,7 +6258,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="21"/>
       <c r="H10" s="34"/>
       <c r="I10" s="78"/>
@@ -6297,7 +6286,7 @@
       <c r="C11" s="81"/>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
-      <c r="F11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="35"/>
       <c r="H11" s="84"/>
       <c r="I11" s="91"/>
@@ -6319,17 +6308,19 @@
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="34" t="s">
         <v>190</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>203</v>
+      </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="78"/>
@@ -6397,16 +6388,16 @@
       <c r="M14" s="86"/>
       <c r="N14" s="34"/>
       <c r="O14" s="6"/>
-      <c r="Q14" s="53">
+      <c r="Q14" s="74">
         <v>11</v>
       </c>
-      <c r="R14" s="34" t="s">
+      <c r="R14" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="S14" s="53">
-        <v>0</v>
-      </c>
-      <c r="T14" s="34"/>
+      <c r="S14" s="74">
+        <v>1</v>
+      </c>
+      <c r="T14" s="75"/>
     </row>
     <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="88"/>
@@ -6431,7 +6422,7 @@
       </c>
       <c r="S16" s="76">
         <f>SUM(S4:S14)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" s="34"/>
     </row>
@@ -6453,7 +6444,7 @@
       </c>
       <c r="S18" s="76">
         <f>ROUND((S16/S17)*100,2)</f>
-        <v>36.36</v>
+        <v>45.45</v>
       </c>
       <c r="T18" s="34"/>
     </row>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9945673-5F9D-4AF8-BD7C-3D24F18B7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147EDA6-D975-41C6-8F80-1D2F1E2E44EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="208">
   <si>
     <t>Course</t>
   </si>
@@ -568,9 +568,6 @@
     <t>Oscillation</t>
   </si>
   <si>
-    <t>Straight Line finished</t>
-  </si>
-  <si>
     <t>Priyankshu Giri</t>
   </si>
   <si>
@@ -700,6 +697,21 @@
   </si>
   <si>
     <t xml:space="preserve">1) Probability </t>
+  </si>
+  <si>
+    <t>Slno</t>
+  </si>
+  <si>
+    <t>1) Mettalurgy &amp; Equilibrium</t>
+  </si>
+  <si>
+    <t>Doubt Clearing</t>
+  </si>
+  <si>
+    <t>1) Expansion of solids</t>
+  </si>
+  <si>
+    <t>1) Co-ordinate Geometry</t>
   </si>
 </sst>
 </file>
@@ -3097,7 +3109,7 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="160" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="160"/>
       <c r="D2" s="160"/>
@@ -3111,7 +3123,7 @@
       <c r="L2" s="177"/>
       <c r="N2" s="34"/>
       <c r="O2" s="108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
@@ -3163,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P4" s="53">
         <v>0</v>
@@ -3174,7 +3186,7 @@
       <c r="B5" s="174"/>
       <c r="C5" s="174"/>
       <c r="D5" s="97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="97"/>
       <c r="F5" s="97"/>
@@ -3188,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P5" s="53">
         <v>0</v>
@@ -3200,10 +3212,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -3217,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P6" s="53">
         <v>0</v>
@@ -3242,7 +3254,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P7" s="53">
         <v>0</v>
@@ -3267,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P8" s="53">
         <v>0</v>
@@ -3292,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P9" s="53">
         <v>0</v>
@@ -3348,7 +3360,7 @@
       </c>
       <c r="C12" s="139"/>
       <c r="D12" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -3371,7 +3383,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -3502,7 +3514,7 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="160" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="160"/>
       <c r="D2" s="160"/>
@@ -3516,7 +3528,7 @@
       <c r="L2" s="177"/>
       <c r="N2" s="34"/>
       <c r="O2" s="108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
@@ -3568,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P4" s="53">
         <v>0</v>
@@ -3579,7 +3591,7 @@
       <c r="B5" s="174"/>
       <c r="C5" s="174"/>
       <c r="D5" s="97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="97"/>
       <c r="F5" s="97"/>
@@ -3593,7 +3605,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P5" s="53">
         <v>0</v>
@@ -3605,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -3622,7 +3634,7 @@
         <v>3</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P6" s="53">
         <v>0</v>
@@ -3647,7 +3659,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P7" s="53">
         <v>0</v>
@@ -3672,7 +3684,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P8" s="53">
         <v>0</v>
@@ -3697,7 +3709,7 @@
         <v>6</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P9" s="53">
         <v>0</v>
@@ -4048,19 +4060,19 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G9" s="1">
         <v>1000</v>
@@ -4100,19 +4112,19 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1">
         <v>1000</v>
@@ -4278,7 +4290,7 @@
         <v>44</v>
       </c>
       <c r="L3" s="114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M3" s="40" t="s">
         <v>40</v>
@@ -4312,7 +4324,7 @@
         <v>44</v>
       </c>
       <c r="L4" s="114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>40</v>
@@ -4346,7 +4358,7 @@
         <v>44</v>
       </c>
       <c r="L5" s="114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M5" s="40" t="s">
         <v>40</v>
@@ -5057,16 +5069,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="45.44140625" bestFit="1" customWidth="1"/>
@@ -5124,7 +5138,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="140" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="C4" s="142" t="s">
         <v>27</v>
@@ -5138,7 +5152,9 @@
       <c r="F4" s="79">
         <v>45309</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="79">
+        <v>45311</v>
+      </c>
       <c r="H4" s="79"/>
       <c r="I4" s="116"/>
       <c r="J4" s="27"/>
@@ -5160,15 +5176,17 @@
       <c r="B5" s="141"/>
       <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="33"/>
+        <v>184</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>184</v>
+      </c>
       <c r="H5" s="33"/>
       <c r="I5" s="117"/>
       <c r="J5" s="30"/>
@@ -5194,15 +5212,17 @@
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="118"/>
       <c r="J6" s="24"/>
@@ -5356,15 +5376,17 @@
       </c>
       <c r="C12" s="151"/>
       <c r="D12" s="77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="34"/>
+        <v>200</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>204</v>
+      </c>
       <c r="H12" s="34"/>
       <c r="I12" s="92"/>
       <c r="J12" s="127"/>
@@ -5380,9 +5402,11 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" s="34"/>
+        <v>201</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>205</v>
+      </c>
       <c r="H13" s="34"/>
       <c r="I13" s="92"/>
       <c r="J13" s="127"/>
@@ -5451,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5460,8 +5484,7 @@
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
@@ -5541,7 +5564,9 @@
       <c r="G4" s="103">
         <v>45309</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="103">
+        <v>45311</v>
+      </c>
       <c r="I4" s="96"/>
       <c r="J4" s="101"/>
       <c r="K4" s="96"/>
@@ -5564,18 +5589,20 @@
       <c r="B5" s="153"/>
       <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="33"/>
+        <v>186</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>186</v>
+      </c>
       <c r="I5" s="97"/>
       <c r="J5" s="102"/>
       <c r="K5" s="97"/>
@@ -5602,18 +5629,20 @@
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="I6" s="14"/>
       <c r="J6" s="21"/>
       <c r="K6" s="14"/>
@@ -5778,18 +5807,20 @@
       </c>
       <c r="C12" s="139"/>
       <c r="D12" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="34"/>
+        <v>166</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>206</v>
+      </c>
       <c r="I12" s="34"/>
       <c r="J12" s="92"/>
       <c r="K12" s="34"/>
@@ -5815,7 +5846,9 @@
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="H13" s="34" t="s">
+        <v>205</v>
+      </c>
       <c r="I13" s="34"/>
       <c r="J13" s="92"/>
       <c r="K13" s="34"/>
@@ -5987,8 +6020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5998,7 +6031,7 @@
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.109375" customWidth="1"/>
     <col min="11" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
@@ -6077,7 +6110,9 @@
       <c r="F4" s="79">
         <v>45309</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="79">
+        <v>45311</v>
+      </c>
       <c r="H4" s="79"/>
       <c r="I4" s="79"/>
       <c r="J4" s="79"/>
@@ -6101,15 +6136,17 @@
       <c r="B5" s="141"/>
       <c r="C5" s="143"/>
       <c r="D5" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="33"/>
+        <v>188</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>188</v>
+      </c>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -6137,15 +6174,17 @@
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -6182,18 +6221,16 @@
       <c r="M7" s="22"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
-      <c r="Q7" s="53">
+      <c r="Q7" s="75">
         <v>4</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="53">
-        <v>0</v>
-      </c>
-      <c r="T7" s="34" t="s">
-        <v>160</v>
-      </c>
+      <c r="S7" s="74">
+        <v>1</v>
+      </c>
+      <c r="T7" s="75"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
@@ -6313,15 +6350,17 @@
       </c>
       <c r="C12" s="139"/>
       <c r="D12" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="34"/>
+        <v>202</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>207</v>
+      </c>
       <c r="H12" s="34"/>
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
@@ -6345,7 +6384,7 @@
       <c r="B13" s="86"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>135</v>
@@ -6376,7 +6415,7 @@
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -6422,7 +6461,7 @@
       </c>
       <c r="S16" s="76">
         <f>SUM(S4:S14)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T16" s="34"/>
     </row>
@@ -6444,7 +6483,7 @@
       </c>
       <c r="S18" s="76">
         <f>ROUND((S16/S17)*100,2)</f>
-        <v>45.45</v>
+        <v>54.55</v>
       </c>
       <c r="T18" s="34"/>
     </row>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147EDA6-D975-41C6-8F80-1D2F1E2E44EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3267EDAE-9965-4FDE-924E-C39828B65E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="212">
   <si>
     <t>Course</t>
   </si>
@@ -712,6 +712,18 @@
   </si>
   <si>
     <t>1) Co-ordinate Geometry</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>1) Maths MCQ Revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Revision for </t>
+  </si>
+  <si>
+    <t>Upcoming test</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1566,9 +1578,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1589,9 +1598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1981,6 +1987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2330,7 +2337,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>52</v>
       </c>
       <c r="C1">
@@ -2338,7 +2345,7 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>51</v>
       </c>
       <c r="C2">
@@ -2346,7 +2353,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C3">
@@ -2354,7 +2361,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C4">
@@ -2362,7 +2369,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>54</v>
       </c>
       <c r="C5">
@@ -2390,7 +2397,7 @@
     <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" style="50" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="47.44140625" bestFit="1" customWidth="1"/>
@@ -2398,682 +2405,682 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="172"/>
-      <c r="M2" s="54" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="170"/>
+      <c r="M2" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="144" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="146"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="144"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="M4" s="43" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="M4" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="51">
         <v>1</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="32">
         <v>1</v>
       </c>
-      <c r="Q4" s="34"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="141"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="53">
+      <c r="B5" s="139"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="51">
         <v>2</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="32">
         <v>1</v>
       </c>
-      <c r="Q5" s="34"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>1</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="53">
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="51">
         <v>3</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="32">
         <v>1</v>
       </c>
-      <c r="Q6" s="34"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="62">
+      <c r="B7" s="60">
         <v>2</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="53">
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="51">
         <v>4</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="O7" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="32">
         <v>1</v>
       </c>
-      <c r="Q7" s="34"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="62">
+      <c r="B8" s="60">
         <v>3</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="53">
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="51">
         <v>5</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="34"/>
+      <c r="P8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="62">
+      <c r="B9" s="60">
         <v>4</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="53">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="51">
         <v>6</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="34"/>
+      <c r="P9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="62">
+      <c r="B10" s="60">
         <v>5</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="53">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="51">
         <v>7</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="34"/>
+      <c r="P10" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="67">
+      <c r="B11" s="65">
         <v>6</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="53">
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="51">
         <v>8</v>
       </c>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="34"/>
+      <c r="P11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="53">
+      <c r="C12" s="137"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="51">
         <v>9</v>
       </c>
-      <c r="O12" s="50" t="s">
+      <c r="O12" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="P12" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="34"/>
+      <c r="P12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="53">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="51">
         <v>10</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="32">
         <v>1</v>
       </c>
-      <c r="Q13" s="34"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="53">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="51">
         <v>11</v>
       </c>
-      <c r="O14" s="46" t="s">
+      <c r="O14" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="P14" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="34"/>
+      <c r="P14" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="53">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="51">
         <v>12</v>
       </c>
-      <c r="O15" s="46" t="s">
+      <c r="O15" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="P15" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="34"/>
+      <c r="P15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="32"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="M16" s="44" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="M16" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="53">
+      <c r="N16" s="51">
         <v>13</v>
       </c>
-      <c r="O16" s="47" t="s">
+      <c r="O16" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="34"/>
+      <c r="P16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="32"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="53">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="51">
         <v>14</v>
       </c>
-      <c r="O17" s="47" t="s">
+      <c r="O17" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="34"/>
+      <c r="P17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="32"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="53">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="51">
         <v>15</v>
       </c>
-      <c r="O18" s="47" t="s">
+      <c r="O18" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="34"/>
+      <c r="P18" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="32"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M19" s="34"/>
-      <c r="N19" s="53">
+      <c r="M19" s="32"/>
+      <c r="N19" s="51">
         <v>16</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="O19" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="32">
         <v>1</v>
       </c>
-      <c r="Q19" s="34"/>
+      <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M20" s="34"/>
-      <c r="N20" s="53">
+      <c r="M20" s="32"/>
+      <c r="N20" s="51">
         <v>17</v>
       </c>
-      <c r="O20" s="47" t="s">
+      <c r="O20" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="P20" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="34"/>
+      <c r="P20" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="32"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M21" s="34"/>
-      <c r="N21" s="53">
+      <c r="M21" s="32"/>
+      <c r="N21" s="51">
         <v>18</v>
       </c>
-      <c r="O21" s="47" t="s">
+      <c r="O21" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="P21" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="34"/>
+      <c r="P21" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="32"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M22" s="34"/>
-      <c r="N22" s="53">
+      <c r="M22" s="32"/>
+      <c r="N22" s="51">
         <v>19</v>
       </c>
-      <c r="O22" s="47" t="s">
+      <c r="O22" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="P22" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="34"/>
+      <c r="P22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M23" s="34"/>
-      <c r="N23" s="53">
+      <c r="M23" s="32"/>
+      <c r="N23" s="51">
         <v>20</v>
       </c>
-      <c r="O23" s="47" t="s">
+      <c r="O23" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="P23" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="34"/>
+      <c r="P23" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="32"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M24" s="34"/>
-      <c r="N24" s="53">
+      <c r="M24" s="32"/>
+      <c r="N24" s="51">
         <v>21</v>
       </c>
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="34"/>
+      <c r="P24" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M25" s="34"/>
-      <c r="N25" s="53">
+      <c r="M25" s="32"/>
+      <c r="N25" s="51">
         <v>22</v>
       </c>
-      <c r="O25" s="47" t="s">
+      <c r="O25" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="34"/>
+      <c r="P25" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="32"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M26" s="34"/>
-      <c r="N26" s="53">
+      <c r="M26" s="32"/>
+      <c r="N26" s="51">
         <v>23</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="34"/>
+      <c r="P26" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="32"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M27" s="34"/>
-      <c r="N27" s="53">
+      <c r="M27" s="32"/>
+      <c r="N27" s="51">
         <v>24</v>
       </c>
-      <c r="O27" s="47" t="s">
+      <c r="O27" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="P27" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="34"/>
+      <c r="P27" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="32"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M28" s="45" t="s">
+      <c r="M28" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="N28" s="53">
+      <c r="N28" s="51">
         <v>25</v>
       </c>
-      <c r="O28" s="48" t="s">
+      <c r="O28" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="P28" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="34" t="s">
+      <c r="P28" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M29" s="34"/>
-      <c r="N29" s="53">
+      <c r="M29" s="32"/>
+      <c r="N29" s="51">
         <v>26</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29" s="32">
         <v>1</v>
       </c>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="32"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M30" s="34"/>
-      <c r="N30" s="53">
+      <c r="M30" s="32"/>
+      <c r="N30" s="51">
         <v>27</v>
       </c>
-      <c r="O30" s="48" t="s">
+      <c r="O30" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="34"/>
+      <c r="P30" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="32"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M31" s="34"/>
-      <c r="N31" s="53">
+      <c r="M31" s="32"/>
+      <c r="N31" s="51">
         <v>28</v>
       </c>
-      <c r="O31" s="48" t="s">
+      <c r="O31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="P31" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="34"/>
+      <c r="P31" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="32"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M32" s="34"/>
-      <c r="N32" s="53">
+      <c r="M32" s="32"/>
+      <c r="N32" s="51">
         <v>29</v>
       </c>
-      <c r="O32" s="48" t="s">
+      <c r="O32" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="34"/>
+      <c r="P32" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="32"/>
     </row>
     <row r="33" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M33" s="34"/>
-      <c r="N33" s="53">
+      <c r="M33" s="32"/>
+      <c r="N33" s="51">
         <v>30</v>
       </c>
-      <c r="O33" s="48" t="s">
+      <c r="O33" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="P33" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="34"/>
+      <c r="P33" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="32"/>
     </row>
     <row r="34" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M34" s="34"/>
-      <c r="N34" s="53">
+      <c r="M34" s="32"/>
+      <c r="N34" s="51">
         <v>31</v>
       </c>
-      <c r="O34" s="48" t="s">
+      <c r="O34" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="P34" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="34"/>
+      <c r="P34" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="32"/>
     </row>
     <row r="35" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M35" s="34"/>
-      <c r="N35" s="53">
+      <c r="M35" s="32"/>
+      <c r="N35" s="51">
         <v>32</v>
       </c>
-      <c r="O35" s="48" t="s">
+      <c r="O35" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="P35" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="34"/>
+      <c r="P35" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="32"/>
     </row>
     <row r="36" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M36" s="34"/>
-      <c r="N36" s="53">
+      <c r="M36" s="32"/>
+      <c r="N36" s="51">
         <v>33</v>
       </c>
-      <c r="O36" s="48" t="s">
+      <c r="O36" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="P36" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="34"/>
+      <c r="P36" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="32"/>
     </row>
     <row r="37" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M37" s="34"/>
-      <c r="N37" s="53">
+      <c r="M37" s="32"/>
+      <c r="N37" s="51">
         <v>34</v>
       </c>
-      <c r="O37" s="48" t="s">
+      <c r="O37" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="P37" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="34"/>
+      <c r="P37" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="32"/>
     </row>
     <row r="38" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M38" s="34"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
     </row>
     <row r="39" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M39" s="34"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="45" t="s">
+      <c r="M39" s="32"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="P39" s="36">
+      <c r="P39" s="34">
         <f>SUM(P4:P37)</f>
         <v>7</v>
       </c>
-      <c r="Q39" s="34"/>
+      <c r="Q39" s="32"/>
     </row>
     <row r="40" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M40" s="34"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="45" t="s">
+      <c r="M40" s="32"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="P40" s="36">
+      <c r="P40" s="34">
         <v>34</v>
       </c>
-      <c r="Q40" s="34"/>
+      <c r="Q40" s="32"/>
     </row>
     <row r="41" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M41" s="34"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="45" t="s">
+      <c r="M41" s="32"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="P41" s="36">
+      <c r="P41" s="34">
         <f>ROUND((P39/P40)*100,2)</f>
         <v>20.59</v>
       </c>
-      <c r="Q41" s="34"/>
+      <c r="Q41" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3108,378 +3115,378 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="158" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="177"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="108" t="s">
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="175"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="N3" s="55" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="N3" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="96">
+      <c r="D4" s="94">
         <v>45293</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="N4" s="53">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="N4" s="51">
         <v>1</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="34"/>
+      <c r="P4" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="97" t="s">
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="N5" s="53">
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="N5" s="51">
         <v>2</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="P5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="34"/>
+      <c r="P5" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="N6" s="53">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="N6" s="51">
         <v>3</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="P6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="34"/>
+      <c r="P6" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="53">
+      <c r="B7" s="51">
         <v>2</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="53">
+      <c r="C7" s="32"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="N7" s="51">
         <v>4</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="P7" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34"/>
+      <c r="P7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="53">
+      <c r="C8" s="32"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="N8" s="51">
         <v>5</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="P8" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="34"/>
+      <c r="P8" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>4</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="N9" s="53">
+      <c r="C9" s="32"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="N9" s="51">
         <v>6</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="P9" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="34"/>
+      <c r="P9" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>5</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="34"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="53">
+      <c r="B11" s="51">
         <v>6</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="36" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="74">
         <f>SUM(P4:P9)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="107"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="36" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="105"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="74">
         <v>6</v>
       </c>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="36" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="74">
         <f>ROUND((P11/P12)*100,2)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="34"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="N14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="N14" s="50"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="O15" s="42"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="O15" s="40"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="132"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="42"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N17" s="52"/>
-      <c r="P17" s="52"/>
+      <c r="N17" s="50"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N18" s="52"/>
-      <c r="P18" s="52"/>
+      <c r="N18" s="50"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N19" s="52"/>
-      <c r="P19" s="52"/>
+      <c r="N19" s="50"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N20" s="52"/>
-      <c r="P20" s="52"/>
+      <c r="N20" s="50"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N21" s="52"/>
-      <c r="P21" s="52"/>
+      <c r="N21" s="50"/>
+      <c r="P21" s="50"/>
     </row>
     <row r="22" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N22" s="52"/>
-      <c r="P22" s="52"/>
+      <c r="N22" s="50"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N23" s="52"/>
-      <c r="P23" s="52"/>
+      <c r="N23" s="50"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N24" s="52"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="132"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="130"/>
     </row>
     <row r="25" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N25" s="52"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="132"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="130"/>
     </row>
     <row r="26" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N26" s="52"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="132"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3513,325 +3520,325 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="158" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="177"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="108" t="s">
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="175"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="N3" s="55" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="N3" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="96">
+      <c r="D4" s="94">
         <v>45299</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="N4" s="53">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="N4" s="51">
         <v>1</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="34"/>
+      <c r="P4" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="97" t="s">
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="N5" s="53">
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="N5" s="51">
         <v>2</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="34"/>
+      <c r="P5" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="N6" s="53">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="N6" s="51">
         <v>3</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="34"/>
+      <c r="P6" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="53">
+      <c r="B7" s="51">
         <v>2</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="53">
+      <c r="C7" s="32"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="N7" s="51">
         <v>4</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34"/>
+      <c r="P7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="53">
+      <c r="C8" s="32"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="N8" s="51">
         <v>5</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="34"/>
+      <c r="P8" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>4</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="N9" s="53">
+      <c r="C9" s="32"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="N9" s="51">
         <v>6</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="34"/>
+      <c r="P9" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>5</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="34"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="53">
+      <c r="B11" s="51">
         <v>6</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="36" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="74">
         <f>SUM(P4:P9)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="107"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="36" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="105"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="74">
         <v>6</v>
       </c>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="36" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="74">
         <f>ROUND((P11/P12)*100,2)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="34"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="N14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="N14" s="50"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="O15" s="42"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="O15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3871,40 +3878,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="109" t="s">
+      <c r="C2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="109" t="s">
+      <c r="L2" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="107" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3936,7 +3943,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="110">
+      <c r="L3" s="108">
         <v>45302</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -3985,7 +3992,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="110">
+      <c r="L5" s="108">
         <v>45302</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -4034,7 +4041,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="110">
+      <c r="L7" s="108">
         <v>45302</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -4086,7 +4093,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="110">
+      <c r="L9" s="108">
         <v>45299</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -4138,7 +4145,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="110">
+      <c r="L11" s="108">
         <v>45299</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -4160,18 +4167,18 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="133" t="s">
+      <c r="F13" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="132">
         <f>SUM(G3:G12)</f>
         <v>12000</v>
       </c>
-      <c r="H13" s="134">
+      <c r="H13" s="132">
         <f>SUM(H3:H12)</f>
         <v>12000</v>
       </c>
-      <c r="I13" s="134">
+      <c r="I13" s="132">
         <f>SUM(I3:I12)</f>
         <v>0</v>
       </c>
@@ -4215,128 +4222,128 @@
   <sheetData>
     <row r="1" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="112" t="s">
+      <c r="C2" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="I2" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="112" t="s">
+      <c r="K2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="112" t="s">
+      <c r="M2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="112" t="s">
+      <c r="N2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="112" t="s">
+      <c r="O2" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="112" t="s">
+      <c r="P2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="113" t="s">
+      <c r="Q2" s="111" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="38">
         <v>1</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="38">
         <v>2500</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="38">
         <v>500</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="114" t="s">
+      <c r="L3" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>1</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="38">
         <v>2500</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <v>500</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4354,13 +4361,13 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="38" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="1"/>
@@ -4369,49 +4376,49 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="38">
         <f>SUM(F3:G5)</f>
         <v>9000</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <f>H6</f>
         <v>9000</v>
       </c>
-      <c r="J6" s="115">
+      <c r="J6" s="113">
         <v>45299</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="37">
         <f>SUM(H4:H6)</f>
         <v>9000</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="37">
         <f>SUM(I4:I6)</f>
         <v>9000</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4452,55 +4459,55 @@
     <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E2" s="19"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E3" s="19"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E4" s="19"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E5" s="19"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E6" s="19"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7" s="19"/>
+      <c r="E7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4524,103 +4531,103 @@
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.77734375" style="52" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" style="50" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="149"/>
-      <c r="M2" s="76" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
+      <c r="M2" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="144" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="146"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="34"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="144"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="M4" s="53">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="M4" s="51">
         <v>1</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="53">
-        <v>0</v>
-      </c>
-      <c r="P4" s="34"/>
+      <c r="O4" s="51">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="141"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="M5" s="53">
+      <c r="B5" s="139"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="M5" s="51">
         <v>2</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="53">
-        <v>0</v>
-      </c>
-      <c r="P5" s="34"/>
+      <c r="O5" s="51">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
@@ -4629,427 +4636,427 @@
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="M6" s="53">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="M6" s="51">
         <v>3</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="53">
-        <v>0</v>
-      </c>
-      <c r="P6" s="34"/>
+      <c r="O6" s="51">
+        <v>0</v>
+      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="M7" s="74">
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="M7" s="72">
         <v>4</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="74">
+      <c r="O7" s="72">
         <v>1</v>
       </c>
-      <c r="P7" s="34"/>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="M8" s="53">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="M8" s="51">
         <v>5</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="53">
-        <v>0</v>
-      </c>
-      <c r="P8" s="34"/>
+      <c r="O8" s="51">
+        <v>0</v>
+      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="53">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="51">
         <v>6</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="53">
-        <v>0</v>
-      </c>
-      <c r="P9" s="34"/>
+      <c r="O9" s="51">
+        <v>0</v>
+      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="M10" s="53">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="51">
         <v>7</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="53">
-        <v>0</v>
-      </c>
-      <c r="P10" s="34"/>
+      <c r="O10" s="51">
+        <v>0</v>
+      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="53">
+      <c r="B11" s="51">
         <v>6</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="M11" s="53">
+      <c r="C11" s="34"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="M11" s="51">
         <v>8</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="53">
-        <v>0</v>
-      </c>
-      <c r="P11" s="34"/>
+      <c r="O11" s="51">
+        <v>0</v>
+      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="127"/>
-      <c r="K12" s="128"/>
-      <c r="M12" s="74">
+      <c r="C12" s="137"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="125"/>
+      <c r="K12" s="126"/>
+      <c r="M12" s="72">
         <v>9</v>
       </c>
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="74">
+      <c r="O12" s="72">
         <v>1</v>
       </c>
-      <c r="P12" s="34"/>
+      <c r="P12" s="32"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="127"/>
-      <c r="K13" s="128"/>
-      <c r="M13" s="53">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="125"/>
+      <c r="K13" s="126"/>
+      <c r="M13" s="51">
         <v>10</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="53">
-        <v>0</v>
-      </c>
-      <c r="P13" s="34"/>
+      <c r="O13" s="51">
+        <v>0</v>
+      </c>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
-      <c r="M14" s="53">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="M14" s="51">
         <v>11</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="53">
-        <v>0</v>
-      </c>
-      <c r="P14" s="34"/>
+      <c r="O14" s="51">
+        <v>0</v>
+      </c>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M15" s="53">
+      <c r="M15" s="51">
         <v>12</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="53">
-        <v>0</v>
-      </c>
-      <c r="P15" s="34"/>
+      <c r="O15" s="51">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M16" s="74">
+      <c r="M16" s="72">
         <v>13</v>
       </c>
-      <c r="N16" s="75" t="s">
+      <c r="N16" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="74">
+      <c r="O16" s="72">
         <v>1</v>
       </c>
-      <c r="P16" s="34"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M17" s="53">
+      <c r="M17" s="51">
         <v>14</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="53">
-        <v>0</v>
-      </c>
-      <c r="P17" s="34"/>
+      <c r="O17" s="51">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M18" s="53">
+      <c r="M18" s="51">
         <v>15</v>
       </c>
-      <c r="N18" s="34" t="s">
+      <c r="N18" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="53">
-        <v>0</v>
-      </c>
-      <c r="P18" s="34"/>
+      <c r="O18" s="51">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M19" s="53">
+      <c r="M19" s="51">
         <v>16</v>
       </c>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="53">
-        <v>0</v>
-      </c>
-      <c r="P19" s="34"/>
+      <c r="O19" s="51">
+        <v>0</v>
+      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M20" s="53">
+      <c r="M20" s="51">
         <v>17</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="N20" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="53">
-        <v>0</v>
-      </c>
-      <c r="P20" s="34"/>
+      <c r="O20" s="51">
+        <v>0</v>
+      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M21" s="53">
+      <c r="M21" s="51">
         <v>18</v>
       </c>
-      <c r="N21" s="34" t="s">
+      <c r="N21" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="O21" s="53">
-        <v>0</v>
-      </c>
-      <c r="P21" s="34"/>
+      <c r="O21" s="51">
+        <v>0</v>
+      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M22" s="53">
+      <c r="M22" s="51">
         <v>19</v>
       </c>
-      <c r="N22" s="34" t="s">
+      <c r="N22" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="53">
-        <v>0</v>
-      </c>
-      <c r="P22" s="34"/>
+      <c r="O22" s="51">
+        <v>0</v>
+      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M23" s="53">
+      <c r="M23" s="51">
         <v>20</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="O23" s="53">
-        <v>0</v>
-      </c>
-      <c r="P23" s="34"/>
+      <c r="O23" s="51">
+        <v>0</v>
+      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M24" s="53">
+      <c r="M24" s="51">
         <v>21</v>
       </c>
-      <c r="N24" s="34" t="s">
+      <c r="N24" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="O24" s="53">
-        <v>0</v>
-      </c>
-      <c r="P24" s="34"/>
+      <c r="O24" s="51">
+        <v>0</v>
+      </c>
+      <c r="P24" s="32"/>
     </row>
     <row r="25" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M25" s="53">
+      <c r="M25" s="51">
         <v>22</v>
       </c>
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="O25" s="53">
-        <v>0</v>
-      </c>
-      <c r="P25" s="34"/>
+      <c r="O25" s="51">
+        <v>0</v>
+      </c>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M26" s="53">
+      <c r="M26" s="51">
         <v>23</v>
       </c>
-      <c r="N26" s="34" t="s">
+      <c r="N26" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="O26" s="53">
-        <v>0</v>
-      </c>
-      <c r="P26" s="34"/>
+      <c r="O26" s="51">
+        <v>0</v>
+      </c>
+      <c r="P26" s="32"/>
     </row>
     <row r="27" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M27" s="53">
+      <c r="M27" s="51">
         <v>24</v>
       </c>
-      <c r="N27" s="34" t="s">
+      <c r="N27" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="O27" s="53">
-        <v>0</v>
-      </c>
-      <c r="P27" s="34"/>
+      <c r="O27" s="51">
+        <v>0</v>
+      </c>
+      <c r="P27" s="32"/>
     </row>
     <row r="28" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M28" s="53">
+      <c r="M28" s="51">
         <v>25</v>
       </c>
-      <c r="N28" s="34" t="s">
+      <c r="N28" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="O28" s="53">
-        <v>0</v>
-      </c>
-      <c r="P28" s="34"/>
+      <c r="O28" s="51">
+        <v>0</v>
+      </c>
+      <c r="P28" s="32"/>
     </row>
     <row r="29" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M29" s="53">
+      <c r="M29" s="51">
         <v>26</v>
       </c>
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="O29" s="53">
-        <v>0</v>
-      </c>
-      <c r="P29" s="34"/>
+      <c r="O29" s="51">
+        <v>0</v>
+      </c>
+      <c r="P29" s="32"/>
     </row>
     <row r="30" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M30" s="53"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="34"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M31" s="53"/>
-      <c r="N31" s="36" t="s">
+      <c r="M31" s="51"/>
+      <c r="N31" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="O31" s="76">
+      <c r="O31" s="74">
         <f>SUM(O4:O29)</f>
         <v>3</v>
       </c>
-      <c r="P31" s="34"/>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M32" s="53"/>
-      <c r="N32" s="36" t="s">
+      <c r="M32" s="51"/>
+      <c r="N32" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O32" s="76">
+      <c r="O32" s="74">
         <f>COUNT(O4:O29)</f>
         <v>26</v>
       </c>
-      <c r="P32" s="34"/>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M33" s="53"/>
-      <c r="N33" s="36" t="s">
+      <c r="M33" s="51"/>
+      <c r="N33" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="O33" s="76">
+      <c r="O33" s="74">
         <f>ROUND((O31/O32)*100,2)</f>
         <v>11.54</v>
       </c>
-      <c r="P33" s="34"/>
+      <c r="P33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5069,8 +5076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5082,127 +5089,132 @@
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.109375" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="126"/>
-      <c r="O2" s="76" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="124"/>
+      <c r="O2" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="144" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="146"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="34"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="144"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>45300</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="77">
         <v>45307</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="77">
         <v>45309</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="77">
         <v>45311</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="O4" s="53">
+      <c r="H4" s="77">
+        <v>45314</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="O4" s="51">
         <v>1</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="53">
-        <v>0</v>
-      </c>
-      <c r="R4" s="34"/>
+      <c r="Q4" s="51">
+        <v>0</v>
+      </c>
+      <c r="R4" s="32"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="141"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="O5" s="74">
+      <c r="H5" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="115"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="O5" s="72">
         <v>2</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="Q5" s="74">
+      <c r="Q5" s="72">
         <v>1</v>
       </c>
-      <c r="R5" s="34"/>
+      <c r="R5" s="32"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
@@ -5211,253 +5223,259 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="O6" s="53">
+      <c r="H6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="116"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="O6" s="51">
         <v>3</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="Q6" s="53">
-        <v>0</v>
-      </c>
-      <c r="R6" s="34"/>
+      <c r="Q6" s="51">
+        <v>0</v>
+      </c>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="O7" s="74">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="O7" s="72">
         <v>4</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="Q7" s="74">
+      <c r="Q7" s="72">
         <v>1</v>
       </c>
-      <c r="R7" s="34"/>
+      <c r="R7" s="32"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="O8" s="74">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="O8" s="72">
         <v>5</v>
       </c>
-      <c r="P8" s="75" t="s">
+      <c r="P8" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="72">
         <v>1</v>
       </c>
-      <c r="R8" s="34"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="O9" s="74">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="O9" s="72">
         <v>6</v>
       </c>
-      <c r="P9" s="75" t="s">
+      <c r="P9" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" s="74">
+      <c r="Q9" s="72">
         <v>1</v>
       </c>
-      <c r="R9" s="34"/>
+      <c r="R9" s="32"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="O10" s="53">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="O10" s="51">
         <v>7</v>
       </c>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="Q10" s="53">
-        <v>0</v>
-      </c>
-      <c r="R10" s="34"/>
+      <c r="Q10" s="51">
+        <v>0</v>
+      </c>
+      <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="7">
+      <c r="B11" s="78">
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-      <c r="O11" s="53">
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="O11" s="51">
         <v>8</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="Q11" s="53">
-        <v>0</v>
-      </c>
-      <c r="R11" s="34"/>
+      <c r="Q11" s="51">
+        <v>0</v>
+      </c>
+      <c r="R11" s="32"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="77" t="s">
+      <c r="C12" s="149"/>
+      <c r="D12" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="176" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="127"/>
-      <c r="M12" s="128"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="34"/>
+      <c r="H12" s="176" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="125"/>
+      <c r="M12" s="126"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="127"/>
-      <c r="M13" s="128"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="36" t="s">
+      <c r="H13" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="125"/>
+      <c r="M13" s="126"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="74">
         <f>SUM(Q4:Q11)</f>
         <v>4</v>
       </c>
-      <c r="R13" s="34"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="131"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="36" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="129"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="74">
         <f>COUNT(Q4:Q11)</f>
         <v>8</v>
       </c>
-      <c r="R14" s="34"/>
+      <c r="R14" s="32"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="O15" s="53"/>
-      <c r="P15" s="36" t="s">
+      <c r="O15" s="51"/>
+      <c r="P15" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="74">
         <f>ROUND((Q13/Q14)*100,2)</f>
         <v>50</v>
       </c>
-      <c r="R15" s="34"/>
+      <c r="R15" s="32"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="O16" s="52"/>
-      <c r="Q16" s="52"/>
+      <c r="O16" s="50"/>
+      <c r="Q16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5475,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5499,505 +5517,515 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="158"/>
-      <c r="Q2" s="55" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="156"/>
+      <c r="Q2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="146"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="34"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="144"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="103">
+      <c r="D4" s="101">
         <v>45297</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="101">
         <v>45300</v>
       </c>
-      <c r="F4" s="103">
+      <c r="F4" s="101">
         <v>45307</v>
       </c>
-      <c r="G4" s="103">
+      <c r="G4" s="101">
         <v>45309</v>
       </c>
-      <c r="H4" s="103">
+      <c r="H4" s="101">
         <v>45311</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
-      <c r="Q4" s="74">
+      <c r="I4" s="101">
+        <v>45314</v>
+      </c>
+      <c r="J4" s="99"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71"/>
+      <c r="Q4" s="72">
         <v>1</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="S4" s="74">
+      <c r="S4" s="72">
         <v>1</v>
       </c>
-      <c r="T4" s="75"/>
+      <c r="T4" s="73"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="153"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="Q5" s="74">
+      <c r="I5" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="100"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
+      <c r="Q5" s="72">
         <v>2</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="R5" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="74">
+      <c r="S5" s="72">
         <v>1</v>
       </c>
-      <c r="T5" s="75"/>
+      <c r="T5" s="73"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="104">
+      <c r="B6" s="102">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="Q6" s="74">
+      <c r="I6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="Q6" s="72">
         <v>3</v>
       </c>
-      <c r="R6" s="75" t="s">
+      <c r="R6" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="S6" s="74">
+      <c r="S6" s="72">
         <v>1</v>
       </c>
-      <c r="T6" s="75"/>
+      <c r="T6" s="73"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="53">
+      <c r="B7" s="51">
         <v>2</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="Q7" s="74">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="Q7" s="72">
         <v>4</v>
       </c>
-      <c r="R7" s="75" t="s">
+      <c r="R7" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="S7" s="74">
+      <c r="S7" s="72">
         <v>1</v>
       </c>
-      <c r="T7" s="75"/>
+      <c r="T7" s="73"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="Q8" s="53">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="Q8" s="51">
         <v>5</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="S8" s="53">
-        <v>0</v>
-      </c>
-      <c r="T8" s="34"/>
+      <c r="S8" s="51">
+        <v>0</v>
+      </c>
+      <c r="T8" s="32"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>4</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="Q9" s="74">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="Q9" s="72">
         <v>6</v>
       </c>
-      <c r="R9" s="75" t="s">
+      <c r="R9" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="S9" s="74">
+      <c r="S9" s="72">
         <v>1</v>
       </c>
-      <c r="T9" s="75"/>
+      <c r="T9" s="73"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>5</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="Q10" s="74">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="Q10" s="72">
         <v>7</v>
       </c>
-      <c r="R10" s="75" t="s">
+      <c r="R10" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="S10" s="74">
+      <c r="S10" s="72">
         <v>1</v>
       </c>
-      <c r="T10" s="75"/>
+      <c r="T10" s="73"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="53">
+      <c r="B11" s="51">
         <v>6</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="85"/>
-      <c r="Q11" s="74">
+      <c r="C11" s="32"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="83"/>
+      <c r="Q11" s="72">
         <v>8</v>
       </c>
-      <c r="R11" s="75" t="s">
+      <c r="R11" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="74">
+      <c r="S11" s="72">
         <v>1</v>
       </c>
-      <c r="T11" s="75"/>
+      <c r="T11" s="73"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="87"/>
-      <c r="Q12" s="74">
+      <c r="I12" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="90"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="85"/>
+      <c r="Q12" s="72">
         <v>9</v>
       </c>
-      <c r="R12" s="75" t="s">
+      <c r="R12" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="S12" s="74">
+      <c r="S12" s="72">
         <v>1</v>
       </c>
-      <c r="T12" s="75"/>
+      <c r="T12" s="73"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="34"/>
+      <c r="I13" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="90"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="6"/>
-      <c r="Q13" s="53">
+      <c r="Q13" s="51">
         <v>10</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="S13" s="53">
-        <v>0</v>
-      </c>
-      <c r="T13" s="34"/>
+      <c r="S13" s="51">
+        <v>0</v>
+      </c>
+      <c r="T13" s="32"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="32"/>
       <c r="O14" s="6"/>
-      <c r="Q14" s="53">
+      <c r="Q14" s="72">
         <v>11</v>
       </c>
-      <c r="R14" s="34" t="s">
+      <c r="R14" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="S14" s="53">
-        <v>0</v>
-      </c>
-      <c r="T14" s="34"/>
+      <c r="S14" s="72">
+        <v>1</v>
+      </c>
+      <c r="T14" s="73"/>
     </row>
     <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="8"/>
-      <c r="Q15" s="53">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="51">
         <v>12</v>
       </c>
-      <c r="R15" s="34" t="s">
+      <c r="R15" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="S15" s="53">
-        <v>0</v>
-      </c>
-      <c r="T15" s="34"/>
+      <c r="S15" s="51">
+        <v>0</v>
+      </c>
+      <c r="T15" s="32"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="Q16" s="53">
+      <c r="Q16" s="51">
         <v>13</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="R16" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="S16" s="53">
-        <v>0</v>
-      </c>
-      <c r="T16" s="34"/>
+      <c r="S16" s="51">
+        <v>0</v>
+      </c>
+      <c r="T16" s="32"/>
     </row>
     <row r="17" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q17" s="53">
+      <c r="Q17" s="51">
         <v>14</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="R17" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="S17" s="53">
-        <v>0</v>
-      </c>
-      <c r="T17" s="34"/>
+      <c r="S17" s="51">
+        <v>0</v>
+      </c>
+      <c r="T17" s="32"/>
     </row>
     <row r="18" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q18" s="53">
+      <c r="Q18" s="51">
         <v>15</v>
       </c>
-      <c r="R18" s="34" t="s">
+      <c r="R18" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="S18" s="53">
-        <v>0</v>
-      </c>
-      <c r="T18" s="34"/>
+      <c r="S18" s="51">
+        <v>0</v>
+      </c>
+      <c r="T18" s="32"/>
     </row>
     <row r="19" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q19" s="74">
+      <c r="Q19" s="72">
         <v>16</v>
       </c>
-      <c r="R19" s="75" t="s">
+      <c r="R19" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="S19" s="74">
+      <c r="S19" s="72">
         <v>1</v>
       </c>
-      <c r="T19" s="75"/>
+      <c r="T19" s="73"/>
     </row>
     <row r="21" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q21" s="53"/>
-      <c r="R21" s="36" t="s">
+      <c r="Q21" s="51"/>
+      <c r="R21" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="S21" s="76">
+      <c r="S21" s="74">
         <f>SUM(S4:S19)</f>
-        <v>9</v>
-      </c>
-      <c r="T21" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="T21" s="32"/>
     </row>
     <row r="22" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q22" s="53"/>
-      <c r="R22" s="36" t="s">
+      <c r="Q22" s="51"/>
+      <c r="R22" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S22" s="76">
+      <c r="S22" s="74">
         <v>16</v>
       </c>
-      <c r="T22" s="34"/>
+      <c r="T22" s="32"/>
     </row>
     <row r="23" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q23" s="53"/>
-      <c r="R23" s="36" t="s">
+      <c r="Q23" s="51"/>
+      <c r="R23" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="S23" s="76">
+      <c r="S23" s="74">
         <f>ROUND((S21/S22)*100,2)</f>
-        <v>56.25</v>
-      </c>
-      <c r="T23" s="34"/>
+        <v>62.5</v>
+      </c>
+      <c r="T23" s="32"/>
     </row>
     <row r="24" spans="15:20" x14ac:dyDescent="0.3">
       <c r="O24" t="s">
@@ -6020,8 +6048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6032,7 +6060,7 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.109375" customWidth="1"/>
     <col min="11" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
@@ -6045,126 +6073,130 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="171"/>
-      <c r="Q2" s="55" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="169"/>
+      <c r="Q2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="165"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="34"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="163"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>45300</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="77">
         <v>45307</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="77">
         <v>45309</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="77">
         <v>45311</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
-      <c r="Q4" s="74">
+      <c r="H4" s="77">
+        <v>45314</v>
+      </c>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71"/>
+      <c r="Q4" s="72">
         <v>1</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="S4" s="74">
+      <c r="S4" s="72">
         <v>1</v>
       </c>
-      <c r="T4" s="75"/>
+      <c r="T4" s="73"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="141"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="Q5" s="74">
+      <c r="H5" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
+      <c r="Q5" s="72">
         <v>2</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="R5" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="S5" s="74">
+      <c r="S5" s="72">
         <v>1</v>
       </c>
-      <c r="T5" s="75"/>
+      <c r="T5" s="73"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
@@ -6173,319 +6205,323 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="Q6" s="74">
+      <c r="H6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="Q6" s="72">
         <v>3</v>
       </c>
-      <c r="R6" s="75" t="s">
+      <c r="R6" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="S6" s="74">
+      <c r="S6" s="72">
         <v>1</v>
       </c>
-      <c r="T6" s="75"/>
+      <c r="T6" s="73"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="Q7" s="75">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="Q7" s="73">
         <v>4</v>
       </c>
-      <c r="R7" s="75" t="s">
+      <c r="R7" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="74">
+      <c r="S7" s="72">
         <v>1</v>
       </c>
-      <c r="T7" s="75"/>
+      <c r="T7" s="73"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="Q8" s="74">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="Q8" s="72">
         <v>5</v>
       </c>
-      <c r="R8" s="75" t="s">
+      <c r="R8" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="S8" s="74">
+      <c r="S8" s="72">
         <v>1</v>
       </c>
-      <c r="T8" s="75"/>
+      <c r="T8" s="73"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="Q9" s="53">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="Q9" s="51">
         <v>6</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="S9" s="53">
-        <v>0</v>
-      </c>
-      <c r="T9" s="34"/>
+      <c r="S9" s="51">
+        <v>0</v>
+      </c>
+      <c r="T9" s="32"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="Q10" s="53">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="Q10" s="51">
         <v>7</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="S10" s="53">
-        <v>0</v>
-      </c>
-      <c r="T10" s="34"/>
+      <c r="S10" s="51">
+        <v>0</v>
+      </c>
+      <c r="T10" s="32"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="80">
+      <c r="B11" s="78">
         <v>6</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="85"/>
-      <c r="Q11" s="53">
+      <c r="C11" s="79"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="83"/>
+      <c r="Q11" s="51">
         <v>8</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="R11" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="S11" s="53">
-        <v>0</v>
-      </c>
-      <c r="T11" s="34"/>
+      <c r="S11" s="51">
+        <v>0</v>
+      </c>
+      <c r="T11" s="32"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="87"/>
-      <c r="Q12" s="53">
+      <c r="H12" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="85"/>
+      <c r="Q12" s="51">
         <v>9</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="R12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="S12" s="53">
-        <v>0</v>
-      </c>
-      <c r="T12" s="34"/>
+      <c r="S12" s="51">
+        <v>0</v>
+      </c>
+      <c r="T12" s="32"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="34"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="6"/>
-      <c r="Q13" s="53">
+      <c r="Q13" s="51">
         <v>10</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="S13" s="53">
-        <v>0</v>
-      </c>
-      <c r="T13" s="34"/>
+      <c r="S13" s="51">
+        <v>0</v>
+      </c>
+      <c r="T13" s="32"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="86"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
+      <c r="B14" s="84"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="34"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="32"/>
       <c r="O14" s="6"/>
-      <c r="Q14" s="74">
+      <c r="Q14" s="72">
         <v>11</v>
       </c>
-      <c r="R14" s="75" t="s">
+      <c r="R14" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="S14" s="74">
+      <c r="S14" s="72">
         <v>1</v>
       </c>
-      <c r="T14" s="75"/>
+      <c r="T14" s="73"/>
     </row>
     <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="8"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="Q16" s="53"/>
-      <c r="R16" s="36" t="s">
+      <c r="Q16" s="51"/>
+      <c r="R16" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="S16" s="76">
+      <c r="S16" s="74">
         <f>SUM(S4:S14)</f>
         <v>6</v>
       </c>
-      <c r="T16" s="34"/>
+      <c r="T16" s="32"/>
     </row>
     <row r="17" spans="17:20" x14ac:dyDescent="0.3">
-      <c r="Q17" s="53"/>
-      <c r="R17" s="36" t="s">
+      <c r="Q17" s="51"/>
+      <c r="R17" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S17" s="76">
+      <c r="S17" s="74">
         <f>COUNT(S4:S14)</f>
         <v>11</v>
       </c>
-      <c r="T17" s="34"/>
+      <c r="T17" s="32"/>
     </row>
     <row r="18" spans="17:20" x14ac:dyDescent="0.3">
-      <c r="Q18" s="53"/>
-      <c r="R18" s="36" t="s">
+      <c r="Q18" s="51"/>
+      <c r="R18" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="S18" s="76">
+      <c r="S18" s="74">
         <f>ROUND((S16/S17)*100,2)</f>
         <v>54.55</v>
       </c>
-      <c r="T18" s="34"/>
+      <c r="T18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3267EDAE-9965-4FDE-924E-C39828B65E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD979A-E5C7-4182-B597-55972622397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="224">
   <si>
     <t>Course</t>
   </si>
@@ -724,6 +724,42 @@
   </si>
   <si>
     <t>Upcoming test</t>
+  </si>
+  <si>
+    <t>Classes for chemistry not</t>
+  </si>
+  <si>
+    <t>happened as Sahista gave</t>
+  </si>
+  <si>
+    <t>exams on Maths.</t>
+  </si>
+  <si>
+    <t>Classes for Physics not</t>
+  </si>
+  <si>
+    <t>Monthly Maths Test</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Obtained</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Chapters on Test</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>1) Probability</t>
+  </si>
+  <si>
+    <t>2) Complex Number</t>
   </si>
 </sst>
 </file>
@@ -901,7 +937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1444,15 +1480,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1470,15 +1497,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1566,7 +1584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1792,12 +1810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,19 +1839,7 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1848,8 +1848,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
@@ -1858,6 +1858,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1894,15 +1895,15 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1927,9 +1928,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1939,9 +1937,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1960,13 +1955,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1987,7 +1982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2405,14 +2399,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="170"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="161"/>
       <c r="M2" s="52" t="s">
         <v>113</v>
       </c>
@@ -2430,18 +2424,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="142" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="144"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
       <c r="M3" s="32"/>
       <c r="N3" s="51"/>
       <c r="O3" s="32"/>
@@ -2449,10 +2443,10 @@
       <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="133" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="8"/>
@@ -2478,8 +2472,8 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="139"/>
-      <c r="C5" s="141"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -2653,10 +2647,10 @@
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="49"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -3115,38 +3109,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="150" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="166"/>
       <c r="N2" s="32"/>
-      <c r="O2" s="106" t="s">
+      <c r="O2" s="104" t="s">
         <v>164</v>
       </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
       <c r="N3" s="53" t="s">
         <v>111</v>
       </c>
@@ -3161,10 +3155,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="163" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="94">
@@ -3175,9 +3169,9 @@
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
       <c r="I4" s="94"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
       <c r="N4" s="51">
         <v>1</v>
       </c>
@@ -3190,8 +3184,8 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="95" t="s">
         <v>162</v>
       </c>
@@ -3200,9 +3194,9 @@
       <c r="G5" s="95"/>
       <c r="H5" s="95"/>
       <c r="I5" s="95"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
       <c r="N5" s="51">
         <v>2</v>
       </c>
@@ -3362,10 +3356,10 @@
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="32" t="s">
         <v>163</v>
       </c>
@@ -3376,7 +3370,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="105"/>
+      <c r="L12" s="103"/>
       <c r="N12" s="51"/>
       <c r="O12" s="34" t="s">
         <v>116</v>
@@ -3440,9 +3434,9 @@
       <c r="O15" s="40"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="130"/>
+      <c r="N16" s="122"/>
       <c r="O16" s="40"/>
-      <c r="P16" s="130"/>
+      <c r="P16" s="122"/>
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="14:16" x14ac:dyDescent="0.3">
@@ -3476,17 +3470,17 @@
     <row r="24" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N24" s="50"/>
       <c r="O24" s="40"/>
-      <c r="P24" s="130"/>
+      <c r="P24" s="122"/>
     </row>
     <row r="25" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N25" s="50"/>
       <c r="O25" s="40"/>
-      <c r="P25" s="130"/>
+      <c r="P25" s="122"/>
     </row>
     <row r="26" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N26" s="50"/>
       <c r="O26" s="40"/>
-      <c r="P26" s="130"/>
+      <c r="P26" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3520,38 +3514,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="150" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="166"/>
       <c r="N2" s="32"/>
-      <c r="O2" s="106" t="s">
+      <c r="O2" s="104" t="s">
         <v>173</v>
       </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
       <c r="N3" s="53" t="s">
         <v>111</v>
       </c>
@@ -3566,10 +3560,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="163" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="94">
@@ -3580,9 +3574,9 @@
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
       <c r="I4" s="94"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
       <c r="N4" s="51">
         <v>1</v>
       </c>
@@ -3595,8 +3589,8 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="95" t="s">
         <v>162</v>
       </c>
@@ -3605,9 +3599,9 @@
       <c r="G5" s="95"/>
       <c r="H5" s="95"/>
       <c r="I5" s="95"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
       <c r="N5" s="51">
         <v>2</v>
       </c>
@@ -3767,10 +3761,10 @@
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -3779,7 +3773,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="105"/>
+      <c r="L12" s="103"/>
       <c r="N12" s="51"/>
       <c r="O12" s="34" t="s">
         <v>116</v>
@@ -3878,40 +3872,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="107" t="s">
+      <c r="L2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="105" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3943,7 +3937,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="108">
+      <c r="L3" s="106">
         <v>45302</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -3992,7 +3986,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="108">
+      <c r="L5" s="106">
         <v>45302</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -4041,7 +4035,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="108">
+      <c r="L7" s="106">
         <v>45302</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -4093,7 +4087,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="108">
+      <c r="L9" s="106">
         <v>45299</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -4145,7 +4139,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="108">
+      <c r="L11" s="106">
         <v>45299</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -4167,18 +4161,18 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="131" t="s">
+      <c r="F13" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="124">
         <f>SUM(G3:G12)</f>
         <v>12000</v>
       </c>
-      <c r="H13" s="132">
+      <c r="H13" s="124">
         <f>SUM(H3:H12)</f>
         <v>12000</v>
       </c>
-      <c r="I13" s="132">
+      <c r="I13" s="124">
         <f>SUM(I3:I12)</f>
         <v>0</v>
       </c>
@@ -4222,52 +4216,52 @@
   <sheetData>
     <row r="1" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="L2" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="M2" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="N2" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="110" t="s">
+      <c r="O2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="110" t="s">
+      <c r="P2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="111" t="s">
+      <c r="Q2" s="109" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4296,7 +4290,7 @@
       <c r="K3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="112" t="s">
+      <c r="L3" s="110" t="s">
         <v>183</v>
       </c>
       <c r="M3" s="38" t="s">
@@ -4330,7 +4324,7 @@
       <c r="K4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="110" t="s">
         <v>183</v>
       </c>
       <c r="M4" s="38" t="s">
@@ -4364,7 +4358,7 @@
       <c r="K5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="110" t="s">
         <v>183</v>
       </c>
       <c r="M5" s="38" t="s">
@@ -4392,7 +4386,7 @@
         <f>H6</f>
         <v>9000</v>
       </c>
-      <c r="J6" s="113">
+      <c r="J6" s="111">
         <v>45299</v>
       </c>
       <c r="K6" s="38"/>
@@ -4538,18 +4532,18 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="147"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="140"/>
       <c r="M2" s="74" t="s">
         <v>111</v>
       </c>
@@ -4564,28 +4558,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="142" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="144"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
       <c r="M3" s="51"/>
       <c r="N3" s="32"/>
       <c r="O3" s="51"/>
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="133" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="8"/>
@@ -4608,12 +4602,12 @@
       <c r="P4" s="32"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="139"/>
-      <c r="C5" s="141"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="120"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -4639,7 +4633,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="121"/>
+      <c r="G6" s="113"/>
       <c r="H6" s="22"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -4776,16 +4770,16 @@
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="90"/>
-      <c r="H12" s="125"/>
-      <c r="K12" s="126"/>
+      <c r="H12" s="117"/>
+      <c r="K12" s="118"/>
       <c r="M12" s="72">
         <v>9</v>
       </c>
@@ -4804,8 +4798,8 @@
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="90"/>
-      <c r="H13" s="125"/>
-      <c r="K13" s="126"/>
+      <c r="H13" s="117"/>
+      <c r="K13" s="118"/>
       <c r="M13" s="51">
         <v>10</v>
       </c>
@@ -4824,10 +4818,10 @@
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="90"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
       <c r="M14" s="51">
         <v>11</v>
       </c>
@@ -5076,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5097,20 +5091,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="124"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
       <c r="O2" s="74" t="s">
         <v>111</v>
       </c>
@@ -5125,30 +5119,30 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="142" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="144"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
       <c r="O3" s="51"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="32"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="133" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="77">
@@ -5166,7 +5160,9 @@
       <c r="H4" s="77">
         <v>45314</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="77">
+        <v>45318</v>
+      </c>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
@@ -5183,8 +5179,8 @@
       <c r="R4" s="32"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="139"/>
-      <c r="C5" s="141"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="31" t="s">
         <v>184</v>
       </c>
@@ -5200,7 +5196,9 @@
       <c r="H5" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="115"/>
+      <c r="I5" s="31" t="s">
+        <v>184</v>
+      </c>
       <c r="J5" s="28"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -5238,7 +5236,9 @@
       <c r="H6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="116"/>
+      <c r="I6" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="J6" s="22"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
@@ -5385,28 +5385,30 @@
       <c r="R11" s="32"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="176" t="s">
+      <c r="F12" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="176" t="s">
+      <c r="G12" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="176" t="s">
+      <c r="H12" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="125"/>
-      <c r="M12" s="126"/>
+      <c r="I12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="117"/>
+      <c r="M12" s="118"/>
       <c r="O12" s="51"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="51"/>
@@ -5426,9 +5428,11 @@
       <c r="H13" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="125"/>
-      <c r="M13" s="126"/>
+      <c r="I13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="117"/>
+      <c r="M13" s="118"/>
       <c r="O13" s="51"/>
       <c r="P13" s="34" t="s">
         <v>122</v>
@@ -5447,11 +5451,13 @@
       <c r="F14" s="87"/>
       <c r="G14" s="87"/>
       <c r="H14" s="87"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="129"/>
+      <c r="I14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="121"/>
       <c r="O14" s="51"/>
       <c r="P14" s="34" t="s">
         <v>116</v>
@@ -5491,123 +5497,131 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B1:T24"/>
+  <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="153" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
-      <c r="Q2" s="53" t="s">
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="P2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="Q2" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="R2" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="S2" s="52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="144"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="32"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="150" t="s">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="135" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="99">
         <v>45297</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="99">
         <v>45300</v>
       </c>
-      <c r="F4" s="101">
+      <c r="F4" s="99">
         <v>45307</v>
       </c>
-      <c r="G4" s="101">
+      <c r="G4" s="99">
         <v>45309</v>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="99">
         <v>45311</v>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="99">
         <v>45314</v>
       </c>
-      <c r="J4" s="99"/>
+      <c r="J4" s="99">
+        <v>45318</v>
+      </c>
       <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="71"/>
-      <c r="Q4" s="72">
+      <c r="L4" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="72">
         <v>1</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="Q4" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="S4" s="72">
+      <c r="R4" s="72">
         <v>1</v>
       </c>
-      <c r="T4" s="73"/>
-    </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="151"/>
-      <c r="C5" s="141"/>
+      <c r="S4" s="73"/>
+    </row>
+    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="144"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="31" t="s">
         <v>165</v>
       </c>
@@ -5626,25 +5640,26 @@
       <c r="I5" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="31" t="s">
+        <v>186</v>
+      </c>
       <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
-      <c r="Q5" s="72">
+      <c r="L5" s="92"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="P5" s="72">
         <v>2</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="Q5" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="72">
+      <c r="R5" s="72">
         <v>1</v>
       </c>
-      <c r="T5" s="73"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="102">
+      <c r="S5" s="73"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="100">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5668,24 +5683,32 @@
       <c r="I6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="Q6" s="72">
+      <c r="L6" s="93">
+        <v>100</v>
+      </c>
+      <c r="M6" s="23">
+        <v>49</v>
+      </c>
+      <c r="N6" s="24">
+        <f>ROUND((M6/L6)*100,2)</f>
+        <v>49</v>
+      </c>
+      <c r="P6" s="72">
         <v>3</v>
       </c>
-      <c r="R6" s="73" t="s">
+      <c r="Q6" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="S6" s="72">
+      <c r="R6" s="72">
         <v>1</v>
       </c>
-      <c r="T6" s="73"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="S6" s="73"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="51">
         <v>2</v>
       </c>
@@ -5698,22 +5721,21 @@
       <c r="I7" s="13"/>
       <c r="J7" s="19"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="Q7" s="72">
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="P7" s="72">
         <v>4</v>
       </c>
-      <c r="R7" s="73" t="s">
+      <c r="Q7" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="S7" s="72">
+      <c r="R7" s="72">
         <v>1</v>
       </c>
-      <c r="T7" s="73"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="S7" s="73"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="51">
         <v>3</v>
       </c>
@@ -5726,22 +5748,21 @@
       <c r="I8" s="13"/>
       <c r="J8" s="19"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="Q8" s="51">
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="P8" s="51">
         <v>5</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="Q8" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="S8" s="51">
-        <v>0</v>
-      </c>
-      <c r="T8" s="32"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R8" s="51">
+        <v>0</v>
+      </c>
+      <c r="S8" s="32"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="51">
         <v>4</v>
       </c>
@@ -5754,22 +5775,21 @@
       <c r="I9" s="13"/>
       <c r="J9" s="19"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-      <c r="Q9" s="72">
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="P9" s="72">
         <v>6</v>
       </c>
-      <c r="R9" s="73" t="s">
+      <c r="Q9" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="S9" s="72">
+      <c r="R9" s="72">
         <v>1</v>
       </c>
-      <c r="T9" s="73"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="S9" s="73"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="51">
         <v>5</v>
       </c>
@@ -5782,22 +5802,21 @@
       <c r="I10" s="13"/>
       <c r="J10" s="19"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="Q10" s="72">
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="P10" s="72">
         <v>7</v>
       </c>
-      <c r="R10" s="73" t="s">
+      <c r="Q10" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="S10" s="72">
+      <c r="R10" s="72">
         <v>1</v>
       </c>
-      <c r="T10" s="73"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="S10" s="73"/>
+    </row>
+    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="51">
         <v>6</v>
       </c>
@@ -5810,26 +5829,25 @@
       <c r="I11" s="13"/>
       <c r="J11" s="19"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="83"/>
-      <c r="Q11" s="72">
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="83"/>
+      <c r="P11" s="72">
         <v>8</v>
       </c>
-      <c r="R11" s="73" t="s">
+      <c r="Q11" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="72">
+      <c r="R11" s="72">
         <v>1</v>
       </c>
-      <c r="T11" s="73"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="137" t="s">
+      <c r="S11" s="73"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="32" t="s">
         <v>166</v>
       </c>
@@ -5848,24 +5866,31 @@
       <c r="I12" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="90"/>
+      <c r="J12" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="85"/>
-      <c r="Q12" s="72">
+      <c r="L12" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="N12" s="85">
+        <v>45318</v>
+      </c>
+      <c r="P12" s="72">
         <v>9</v>
       </c>
-      <c r="R12" s="73" t="s">
+      <c r="Q12" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="S12" s="72">
+      <c r="R12" s="72">
         <v>1</v>
       </c>
-      <c r="T12" s="73"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="S12" s="73"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -5878,24 +5903,27 @@
       <c r="I13" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="J13" s="90"/>
+      <c r="J13" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="6"/>
-      <c r="Q13" s="51">
+      <c r="L13" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="6"/>
+      <c r="P13" s="51">
         <v>10</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="Q13" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="S13" s="51">
-        <v>0</v>
-      </c>
-      <c r="T13" s="32"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R13" s="51">
+        <v>0</v>
+      </c>
+      <c r="S13" s="32"/>
+    </row>
+    <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -5904,24 +5932,27 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="J14" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="6"/>
-      <c r="Q14" s="72">
+      <c r="L14" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="6"/>
+      <c r="P14" s="72">
         <v>11</v>
       </c>
-      <c r="R14" s="73" t="s">
+      <c r="Q14" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="S14" s="72">
+      <c r="R14" s="72">
         <v>1</v>
       </c>
-      <c r="T14" s="73"/>
-    </row>
-    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="73"/>
+    </row>
+    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -5932,113 +5963,112 @@
       <c r="I15" s="90"/>
       <c r="J15" s="90"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="7"/>
-      <c r="Q15" s="51">
+      <c r="L15" s="88"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="7"/>
+      <c r="P15" s="51">
         <v>12</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="Q15" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="S15" s="51">
-        <v>0</v>
-      </c>
-      <c r="T15" s="32"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="Q16" s="51">
+      <c r="R15" s="51">
+        <v>0</v>
+      </c>
+      <c r="S15" s="32"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P16" s="51">
         <v>13</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="Q16" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="S16" s="51">
-        <v>0</v>
-      </c>
-      <c r="T16" s="32"/>
-    </row>
-    <row r="17" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q17" s="51">
+      <c r="R16" s="51">
+        <v>0</v>
+      </c>
+      <c r="S16" s="32"/>
+    </row>
+    <row r="17" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P17" s="51">
         <v>14</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="Q17" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="S17" s="51">
-        <v>0</v>
-      </c>
-      <c r="T17" s="32"/>
-    </row>
-    <row r="18" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q18" s="51">
+      <c r="R17" s="51">
+        <v>0</v>
+      </c>
+      <c r="S17" s="32"/>
+    </row>
+    <row r="18" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P18" s="51">
         <v>15</v>
       </c>
-      <c r="R18" s="32" t="s">
+      <c r="Q18" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="S18" s="51">
-        <v>0</v>
-      </c>
-      <c r="T18" s="32"/>
-    </row>
-    <row r="19" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q19" s="72">
+      <c r="R18" s="51">
+        <v>0</v>
+      </c>
+      <c r="S18" s="32"/>
+    </row>
+    <row r="19" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P19" s="72">
         <v>16</v>
       </c>
-      <c r="R19" s="73" t="s">
+      <c r="Q19" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="S19" s="72">
+      <c r="R19" s="72">
         <v>1</v>
       </c>
-      <c r="T19" s="73"/>
-    </row>
-    <row r="21" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q21" s="51"/>
-      <c r="R21" s="34" t="s">
+      <c r="S19" s="73"/>
+    </row>
+    <row r="21" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P21" s="51"/>
+      <c r="Q21" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="S21" s="74">
-        <f>SUM(S4:S19)</f>
+      <c r="R21" s="74">
+        <f>SUM(R4:R19)</f>
         <v>10</v>
       </c>
-      <c r="T21" s="32"/>
-    </row>
-    <row r="22" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q22" s="51"/>
-      <c r="R22" s="34" t="s">
+      <c r="S21" s="32"/>
+    </row>
+    <row r="22" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P22" s="51"/>
+      <c r="Q22" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S22" s="74">
+      <c r="R22" s="74">
         <v>16</v>
       </c>
-      <c r="T22" s="32"/>
-    </row>
-    <row r="23" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="Q23" s="51"/>
-      <c r="R23" s="34" t="s">
+      <c r="S22" s="32"/>
+    </row>
+    <row r="23" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P23" s="51"/>
+      <c r="Q23" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="S23" s="74">
-        <f>ROUND((S21/S22)*100,2)</f>
+      <c r="R23" s="74">
+        <f>ROUND((R21/R22)*100,2)</f>
         <v>62.5</v>
       </c>
-      <c r="T23" s="32"/>
-    </row>
-    <row r="24" spans="15:20" x14ac:dyDescent="0.3">
-      <c r="O24" t="s">
+      <c r="S23" s="32"/>
+    </row>
+    <row r="24" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6046,10 +6076,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:T18"/>
+  <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6062,71 +6092,66 @@
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="169"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="160"/>
+      <c r="O2" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>114</v>
+      </c>
       <c r="Q2" s="53" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" s="52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="163"/>
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="154"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="32"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="32"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="32"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="164" t="s">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="156" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="77">
@@ -6144,27 +6169,27 @@
       <c r="H4" s="77">
         <v>45314</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="77">
+        <v>45318</v>
+      </c>
       <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="71"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
+      <c r="O4" s="72">
+        <v>1</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>133</v>
+      </c>
       <c r="Q4" s="72">
         <v>1</v>
       </c>
-      <c r="R4" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="S4" s="72">
-        <v>1</v>
-      </c>
-      <c r="T4" s="73"/>
-    </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="139"/>
-      <c r="C5" s="141"/>
+      <c r="R4" s="73"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="132"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="31" t="s">
         <v>188</v>
       </c>
@@ -6180,25 +6205,25 @@
       <c r="H5" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="31" t="s">
+        <v>188</v>
+      </c>
       <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="O5" s="72">
+        <v>2</v>
+      </c>
+      <c r="P5" s="73" t="s">
+        <v>134</v>
+      </c>
       <c r="Q5" s="72">
-        <v>2</v>
-      </c>
-      <c r="R5" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="S5" s="72">
         <v>1</v>
       </c>
-      <c r="T5" s="73"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R5" s="73"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -6220,25 +6245,25 @@
       <c r="H6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="O6" s="72">
+        <v>3</v>
+      </c>
+      <c r="P6" s="73" t="s">
+        <v>135</v>
+      </c>
       <c r="Q6" s="72">
-        <v>3</v>
-      </c>
-      <c r="R6" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="S6" s="72">
         <v>1</v>
       </c>
-      <c r="T6" s="73"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R6" s="73"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -6250,23 +6275,21 @@
       <c r="H7" s="32"/>
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="Q7" s="73">
+      <c r="K7" s="20"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="O7" s="73">
         <v>4</v>
       </c>
-      <c r="R7" s="73" t="s">
+      <c r="P7" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="72">
+      <c r="Q7" s="72">
         <v>1</v>
       </c>
-      <c r="T7" s="73"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R7" s="73"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -6278,23 +6301,21 @@
       <c r="H8" s="32"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="O8" s="72">
+        <v>5</v>
+      </c>
+      <c r="P8" s="73" t="s">
+        <v>137</v>
+      </c>
       <c r="Q8" s="72">
-        <v>5</v>
-      </c>
-      <c r="R8" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="S8" s="72">
         <v>1</v>
       </c>
-      <c r="T8" s="73"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R8" s="73"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -6306,23 +6327,21 @@
       <c r="H9" s="32"/>
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="O9" s="51">
+        <v>6</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>138</v>
+      </c>
       <c r="Q9" s="51">
-        <v>6</v>
-      </c>
-      <c r="R9" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="S9" s="51">
-        <v>0</v>
-      </c>
-      <c r="T9" s="32"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="32"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -6334,23 +6353,21 @@
       <c r="H10" s="32"/>
       <c r="I10" s="76"/>
       <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="O10" s="51">
+        <v>7</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>139</v>
+      </c>
       <c r="Q10" s="51">
-        <v>7</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="S10" s="51">
-        <v>0</v>
-      </c>
-      <c r="T10" s="32"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="32"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="78">
         <v>6</v>
       </c>
@@ -6362,27 +6379,25 @@
       <c r="H11" s="82"/>
       <c r="I11" s="89"/>
       <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="83"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="83"/>
+      <c r="O11" s="51">
+        <v>8</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>140</v>
+      </c>
       <c r="Q11" s="51">
-        <v>8</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="S11" s="51">
-        <v>0</v>
-      </c>
-      <c r="T11" s="32"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="32"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="32" t="s">
         <v>189</v>
       </c>
@@ -6398,25 +6413,25 @@
       <c r="H12" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="I12" s="76"/>
+      <c r="I12" s="76" t="s">
+        <v>216</v>
+      </c>
       <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="85"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="85"/>
+      <c r="O12" s="51">
+        <v>9</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>155</v>
+      </c>
       <c r="Q12" s="51">
-        <v>9</v>
-      </c>
-      <c r="R12" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="S12" s="51">
-        <v>0</v>
-      </c>
-      <c r="T12" s="32"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="84"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
@@ -6430,23 +6445,21 @@
       <c r="H13" s="32"/>
       <c r="I13" s="76"/>
       <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="6"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="51">
+        <v>10</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>156</v>
+      </c>
       <c r="Q13" s="51">
-        <v>10</v>
-      </c>
-      <c r="R13" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="S13" s="51">
-        <v>0</v>
-      </c>
-      <c r="T13" s="32"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="32"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="84"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -6458,23 +6471,21 @@
       <c r="H14" s="32"/>
       <c r="I14" s="76"/>
       <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="6"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="6"/>
+      <c r="O14" s="72">
+        <v>11</v>
+      </c>
+      <c r="P14" s="73" t="s">
+        <v>157</v>
+      </c>
       <c r="Q14" s="72">
-        <v>11</v>
-      </c>
-      <c r="R14" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="S14" s="72">
         <v>1</v>
       </c>
-      <c r="T14" s="73"/>
-    </row>
-    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="73"/>
+    </row>
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
       <c r="D15" s="87"/>
@@ -6484,53 +6495,51 @@
       <c r="H15" s="87"/>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="Q16" s="51"/>
-      <c r="R16" s="34" t="s">
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O16" s="51"/>
+      <c r="P16" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="S16" s="74">
-        <f>SUM(S4:S14)</f>
+      <c r="Q16" s="74">
+        <f>SUM(Q4:Q14)</f>
         <v>6</v>
       </c>
-      <c r="T16" s="32"/>
-    </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.3">
-      <c r="Q17" s="51"/>
-      <c r="R17" s="34" t="s">
+      <c r="R16" s="32"/>
+    </row>
+    <row r="17" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O17" s="51"/>
+      <c r="P17" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S17" s="74">
-        <f>COUNT(S4:S14)</f>
+      <c r="Q17" s="74">
+        <f>COUNT(Q4:Q14)</f>
         <v>11</v>
       </c>
-      <c r="T17" s="32"/>
-    </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.3">
-      <c r="Q18" s="51"/>
-      <c r="R18" s="34" t="s">
+      <c r="R17" s="32"/>
+    </row>
+    <row r="18" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O18" s="51"/>
+      <c r="P18" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="S18" s="74">
-        <f>ROUND((S16/S17)*100,2)</f>
+      <c r="Q18" s="74">
+        <f>ROUND((Q16/Q17)*100,2)</f>
         <v>54.55</v>
       </c>
-      <c r="T18" s="32"/>
+      <c r="R18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD979A-E5C7-4182-B597-55972622397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20805877-F627-4C34-88A5-30ABEF7B7D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="229">
   <si>
     <t>Course</t>
   </si>
@@ -760,6 +760,21 @@
   </si>
   <si>
     <t>2) Complex Number</t>
+  </si>
+  <si>
+    <t>1) Monthly Class Test</t>
+  </si>
+  <si>
+    <t>Maths class did not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happen because she </t>
+  </si>
+  <si>
+    <t>and Chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gave test on Physics  </t>
   </si>
 </sst>
 </file>
@@ -937,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1399,17 +1414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1464,17 +1468,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1580,11 +1573,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1760,7 +1762,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1801,15 +1802,6 @@
     <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1839,7 +1831,7 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1847,12 +1839,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1895,15 +1886,15 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1913,7 +1904,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1937,33 +1928,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1976,12 +1958,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2399,14 +2401,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="161"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="153"/>
       <c r="M2" s="52" t="s">
         <v>113</v>
       </c>
@@ -2424,18 +2426,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="135" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
       <c r="M3" s="32"/>
       <c r="N3" s="51"/>
       <c r="O3" s="32"/>
@@ -2443,10 +2445,10 @@
       <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="128" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="8"/>
@@ -2472,8 +2474,8 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="132"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -2647,10 +2649,10 @@
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="49"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -3109,38 +3111,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="145" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="166"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="158"/>
       <c r="N2" s="32"/>
-      <c r="O2" s="104" t="s">
+      <c r="O2" s="100" t="s">
         <v>164</v>
       </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
       <c r="N3" s="53" t="s">
         <v>111</v>
       </c>
@@ -3155,23 +3157,23 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="93">
         <v>45293</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
       <c r="N4" s="51">
         <v>1</v>
       </c>
@@ -3184,19 +3186,19 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="95" t="s">
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
       <c r="N5" s="51">
         <v>2</v>
       </c>
@@ -3356,10 +3358,10 @@
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="32" t="s">
         <v>163</v>
       </c>
@@ -3370,7 +3372,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="103"/>
+      <c r="L12" s="99"/>
       <c r="N12" s="51"/>
       <c r="O12" s="34" t="s">
         <v>116</v>
@@ -3434,9 +3436,9 @@
       <c r="O15" s="40"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="122"/>
+      <c r="N16" s="117"/>
       <c r="O16" s="40"/>
-      <c r="P16" s="122"/>
+      <c r="P16" s="117"/>
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="14:16" x14ac:dyDescent="0.3">
@@ -3470,17 +3472,17 @@
     <row r="24" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N24" s="50"/>
       <c r="O24" s="40"/>
-      <c r="P24" s="122"/>
+      <c r="P24" s="117"/>
     </row>
     <row r="25" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N25" s="50"/>
       <c r="O25" s="40"/>
-      <c r="P25" s="122"/>
+      <c r="P25" s="117"/>
     </row>
     <row r="26" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N26" s="50"/>
       <c r="O26" s="40"/>
-      <c r="P26" s="122"/>
+      <c r="P26" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3514,38 +3516,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="166"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="158"/>
       <c r="N2" s="32"/>
-      <c r="O2" s="104" t="s">
+      <c r="O2" s="100" t="s">
         <v>173</v>
       </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
       <c r="N3" s="53" t="s">
         <v>111</v>
       </c>
@@ -3560,23 +3562,23 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="93">
         <v>45299</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
       <c r="N4" s="51">
         <v>1</v>
       </c>
@@ -3589,19 +3591,19 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="95" t="s">
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
       <c r="N5" s="51">
         <v>2</v>
       </c>
@@ -3761,10 +3763,10 @@
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -3773,7 +3775,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="103"/>
+      <c r="L12" s="99"/>
       <c r="N12" s="51"/>
       <c r="O12" s="34" t="s">
         <v>116</v>
@@ -3872,40 +3874,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="105" t="s">
+      <c r="C2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="105" t="s">
+      <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="105" t="s">
+      <c r="K2" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="105" t="s">
+      <c r="L2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="105" t="s">
+      <c r="M2" s="101" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3937,7 +3939,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="106">
+      <c r="L3" s="102">
         <v>45302</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -3986,7 +3988,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="106">
+      <c r="L5" s="102">
         <v>45302</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -4035,7 +4037,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="106">
+      <c r="L7" s="102">
         <v>45302</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -4087,7 +4089,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="106">
+      <c r="L9" s="102">
         <v>45299</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -4139,7 +4141,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="106">
+      <c r="L11" s="102">
         <v>45299</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -4161,18 +4163,18 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="124">
+      <c r="G13" s="119">
         <f>SUM(G3:G12)</f>
         <v>12000</v>
       </c>
-      <c r="H13" s="124">
+      <c r="H13" s="119">
         <f>SUM(H3:H12)</f>
         <v>12000</v>
       </c>
-      <c r="I13" s="124">
+      <c r="I13" s="119">
         <f>SUM(I3:I12)</f>
         <v>0</v>
       </c>
@@ -4216,52 +4218,52 @@
   <sheetData>
     <row r="1" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="108" t="s">
+      <c r="C2" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="108" t="s">
+      <c r="M2" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="108" t="s">
+      <c r="N2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="108" t="s">
+      <c r="O2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="108" t="s">
+      <c r="P2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="109" t="s">
+      <c r="Q2" s="105" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4290,7 +4292,7 @@
       <c r="K3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="110" t="s">
+      <c r="L3" s="106" t="s">
         <v>183</v>
       </c>
       <c r="M3" s="38" t="s">
@@ -4324,7 +4326,7 @@
       <c r="K4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="106" t="s">
         <v>183</v>
       </c>
       <c r="M4" s="38" t="s">
@@ -4358,7 +4360,7 @@
       <c r="K5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="110" t="s">
+      <c r="L5" s="106" t="s">
         <v>183</v>
       </c>
       <c r="M5" s="38" t="s">
@@ -4386,7 +4388,7 @@
         <f>H6</f>
         <v>9000</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="107">
         <v>45299</v>
       </c>
       <c r="K6" s="38"/>
@@ -4532,18 +4534,18 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="140"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
       <c r="M2" s="74" t="s">
         <v>111</v>
       </c>
@@ -4558,28 +4560,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="135" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
       <c r="M3" s="51"/>
       <c r="N3" s="32"/>
       <c r="O3" s="51"/>
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="128" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="8"/>
@@ -4602,12 +4604,12 @@
       <c r="P4" s="32"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="132"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="112"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -4633,7 +4635,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="113"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="22"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -4770,16 +4772,16 @@
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="117"/>
-      <c r="K12" s="118"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="112"/>
+      <c r="K12" s="113"/>
       <c r="M12" s="72">
         <v>9</v>
       </c>
@@ -4797,9 +4799,9 @@
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="117"/>
-      <c r="K13" s="118"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="112"/>
+      <c r="K13" s="113"/>
       <c r="M13" s="51">
         <v>10</v>
       </c>
@@ -4817,11 +4819,11 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
       <c r="M14" s="51">
         <v>11</v>
       </c>
@@ -5071,7 +5073,7 @@
   <dimension ref="B1:R16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5082,7 +5084,9 @@
     <col min="5" max="6" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="34.109375" customWidth="1"/>
@@ -5090,21 +5094,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="126" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
       <c r="O2" s="74" t="s">
         <v>111</v>
       </c>
@@ -5119,54 +5123,62 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="135" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
       <c r="O3" s="51"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="32"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="76">
         <v>45300</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="76">
         <v>45307</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="76">
         <v>45309</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="76">
         <v>45311</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="76">
         <v>45314</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="162">
         <v>45318</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+      <c r="J4" s="93">
+        <v>45318</v>
+      </c>
+      <c r="K4" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="97" t="s">
+        <v>219</v>
+      </c>
       <c r="O4" s="51">
         <v>1</v>
       </c>
@@ -5179,8 +5191,8 @@
       <c r="R4" s="32"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="132"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="31" t="s">
         <v>184</v>
       </c>
@@ -5196,13 +5208,15 @@
       <c r="H5" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="163" t="s">
         <v>184</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
+      <c r="J5" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
       <c r="O5" s="72">
         <v>2</v>
       </c>
@@ -5236,13 +5250,22 @@
       <c r="H6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
+      <c r="J6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="13">
+        <v>72</v>
+      </c>
+      <c r="L6" s="13">
+        <v>48</v>
+      </c>
+      <c r="M6" s="13">
+        <f>ROUND((L6/K6)*100,2)</f>
+        <v>66.67</v>
+      </c>
       <c r="O6" s="51">
         <v>3</v>
       </c>
@@ -5265,10 +5288,10 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
+      <c r="M7" s="13"/>
       <c r="O7" s="72">
         <v>4</v>
       </c>
@@ -5291,10 +5314,10 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="13"/>
       <c r="O8" s="72">
         <v>5</v>
       </c>
@@ -5317,10 +5340,10 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
+      <c r="M9" s="13"/>
       <c r="O9" s="72">
         <v>6</v>
       </c>
@@ -5343,10 +5366,10 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="13"/>
       <c r="O10" s="51">
         <v>7</v>
       </c>
@@ -5359,20 +5382,20 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="78">
+      <c r="B11" s="77">
         <v>6</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="68"/>
       <c r="H11" s="68"/>
       <c r="I11" s="69"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
       <c r="O11" s="51">
         <v>8</v>
       </c>
@@ -5385,40 +5408,50 @@
       <c r="R11" s="32"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="75" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="125" t="s">
+      <c r="F12" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="159" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="117"/>
-      <c r="M12" s="118"/>
+      <c r="J12" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" s="168">
+        <v>45321</v>
+      </c>
       <c r="O12" s="51"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="51"/>
       <c r="R12" s="32"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="84"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="32" t="s">
         <v>201</v>
       </c>
@@ -5428,11 +5461,13 @@
       <c r="H13" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="J13" s="117"/>
-      <c r="M13" s="118"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="6"/>
       <c r="O13" s="51"/>
       <c r="P13" s="34" t="s">
         <v>122</v>
@@ -5444,20 +5479,20 @@
       <c r="R13" s="32"/>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="7" t="s">
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="160" t="s">
         <v>214</v>
       </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="121"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="7"/>
       <c r="O14" s="51"/>
       <c r="P14" s="34" t="s">
         <v>116</v>
@@ -5469,6 +5504,9 @@
       <c r="R14" s="32"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
       <c r="O15" s="51"/>
       <c r="P15" s="34" t="s">
         <v>131</v>
@@ -5484,9 +5522,8 @@
       <c r="Q16" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:I3"/>
-    <mergeCell ref="J3:M3"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:J3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
@@ -5499,8 +5536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5524,18 +5561,18 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
       <c r="P2" s="53" t="s">
         <v>111</v>
       </c>
@@ -5550,56 +5587,58 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="135" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="32"/>
       <c r="R3" s="51"/>
       <c r="S3" s="32"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="95">
         <v>45297</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="95">
         <v>45300</v>
       </c>
-      <c r="F4" s="99">
+      <c r="F4" s="95">
         <v>45307</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="95">
         <v>45309</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="95">
         <v>45311</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="95">
         <v>45314</v>
       </c>
-      <c r="J4" s="99">
+      <c r="J4" s="95">
         <v>45318</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="91" t="s">
+      <c r="K4" s="95">
+        <v>45321</v>
+      </c>
+      <c r="L4" s="90" t="s">
         <v>217</v>
       </c>
       <c r="M4" s="70" t="s">
@@ -5620,8 +5659,8 @@
       <c r="S4" s="73"/>
     </row>
     <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="144"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="31" t="s">
         <v>165</v>
       </c>
@@ -5643,8 +5682,10 @@
       <c r="J5" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="92"/>
+      <c r="K5" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="91"/>
       <c r="M5" s="29"/>
       <c r="N5" s="30"/>
       <c r="P5" s="72">
@@ -5659,7 +5700,7 @@
       <c r="S5" s="73"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="100">
+      <c r="B6" s="96">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5686,16 +5727,18 @@
       <c r="J6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="93">
-        <v>100</v>
+      <c r="K6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="92">
+        <v>98</v>
       </c>
       <c r="M6" s="23">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="24">
         <f>ROUND((M6/L6)*100,2)</f>
-        <v>49</v>
+        <v>48.98</v>
       </c>
       <c r="P6" s="72">
         <v>3</v>
@@ -5816,22 +5859,22 @@
       </c>
       <c r="S10" s="73"/>
     </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="51">
         <v>6</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="83"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="82"/>
       <c r="P11" s="72">
         <v>8</v>
       </c>
@@ -5844,10 +5887,10 @@
       <c r="S11" s="73"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="32" t="s">
         <v>166</v>
       </c>
@@ -5866,18 +5909,20 @@
       <c r="I12" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="76" t="s">
+      <c r="K12" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="32" t="s">
         <v>220</v>
       </c>
       <c r="M12" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="N12" s="85">
-        <v>45318</v>
+      <c r="N12" s="99">
+        <v>45321</v>
       </c>
       <c r="P12" s="72">
         <v>9</v>
@@ -5903,15 +5948,13 @@
       <c r="I13" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="32" t="s">
         <v>213</v>
       </c>
       <c r="K13" s="32"/>
-      <c r="L13" s="76" t="s">
-        <v>222</v>
-      </c>
+      <c r="L13" s="32"/>
       <c r="M13" s="32"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="32"/>
       <c r="P13" s="51">
         <v>10</v>
       </c>
@@ -5923,7 +5966,7 @@
       </c>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -5931,16 +5974,14 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="32"/>
+      <c r="J14" s="32" t="s">
         <v>214</v>
       </c>
       <c r="K14" s="32"/>
-      <c r="L14" s="76" t="s">
-        <v>223</v>
-      </c>
+      <c r="L14" s="32"/>
       <c r="M14" s="32"/>
-      <c r="N14" s="6"/>
+      <c r="N14" s="32"/>
       <c r="P14" s="72">
         <v>11</v>
       </c>
@@ -5952,7 +5993,7 @@
       </c>
       <c r="S14" s="73"/>
     </row>
-    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -5960,12 +6001,12 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="7"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
       <c r="P15" s="51">
         <v>12</v>
       </c>
@@ -6078,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6101,21 +6142,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="126" t="s">
+    <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="160"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="152"/>
       <c r="O2" s="53" t="s">
         <v>111</v>
       </c>
@@ -6130,52 +6171,62 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="154"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="131"/>
+      <c r="M3" s="132"/>
       <c r="O3" s="51"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="32"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="76">
         <v>45300</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="76">
         <v>45307</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="76">
         <v>45309</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="76">
         <v>45311</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="76">
         <v>45314</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="76">
         <v>45318</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="J4" s="76">
+        <v>45321</v>
+      </c>
+      <c r="K4" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>219</v>
+      </c>
       <c r="O4" s="72">
         <v>1</v>
       </c>
@@ -6188,8 +6239,8 @@
       <c r="R4" s="73"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="132"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="31" t="s">
         <v>188</v>
       </c>
@@ -6208,8 +6259,10 @@
       <c r="I5" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="97"/>
+      <c r="J5" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="91"/>
       <c r="L5" s="29"/>
       <c r="M5" s="30"/>
       <c r="O5" s="72">
@@ -6248,10 +6301,19 @@
       <c r="I6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
+      <c r="J6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="92">
+        <v>100</v>
+      </c>
+      <c r="L6" s="23">
+        <v>49</v>
+      </c>
+      <c r="M6" s="24">
+        <f>ROUND((L6/K6)*100,2)</f>
+        <v>49</v>
+      </c>
       <c r="O6" s="72">
         <v>3</v>
       </c>
@@ -6273,9 +6335,9 @@
       <c r="F7" s="32"/>
       <c r="G7" s="19"/>
       <c r="H7" s="32"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
       <c r="O7" s="73">
@@ -6299,9 +6361,9 @@
       <c r="F8" s="32"/>
       <c r="G8" s="19"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
       <c r="O8" s="72">
@@ -6325,9 +6387,9 @@
       <c r="F9" s="32"/>
       <c r="G9" s="19"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
       <c r="O9" s="51">
@@ -6351,9 +6413,9 @@
       <c r="F10" s="32"/>
       <c r="G10" s="19"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
       <c r="O10" s="51">
@@ -6368,20 +6430,20 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="78">
+      <c r="B11" s="77">
         <v>6</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="33"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="83"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="82"/>
       <c r="O11" s="51">
         <v>8</v>
       </c>
@@ -6394,10 +6456,10 @@
       <c r="R11" s="32"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="32" t="s">
         <v>189</v>
       </c>
@@ -6413,13 +6475,21 @@
       <c r="H12" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="85"/>
+      <c r="J12" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" s="84">
+        <v>45318</v>
+      </c>
       <c r="O12" s="51">
         <v>9</v>
       </c>
@@ -6432,7 +6502,7 @@
       <c r="R12" s="32"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="84"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
         <v>190</v>
@@ -6443,9 +6513,13 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="84"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="75" t="s">
+        <v>222</v>
+      </c>
       <c r="L13" s="32"/>
       <c r="M13" s="6"/>
       <c r="O13" s="51">
@@ -6460,7 +6534,7 @@
       <c r="R13" s="32"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="84"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
@@ -6469,9 +6543,13 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="84"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="75" t="s">
+        <v>223</v>
+      </c>
       <c r="L14" s="32"/>
       <c r="M14" s="6"/>
       <c r="O14" s="72">
@@ -6486,17 +6564,19 @@
       <c r="R14" s="73"/>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" s="87"/>
+      <c r="L15" s="86"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">

--- a/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2024/Ops-2024-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20805877-F627-4C34-88A5-30ABEF7B7D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D499E6D-BE97-444D-97C6-6387B8883E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="233">
   <si>
     <t>Course</t>
   </si>
@@ -775,6 +775,18 @@
   </si>
   <si>
     <t xml:space="preserve">gave test on Physics  </t>
+  </si>
+  <si>
+    <t>1) Thermal Properties</t>
+  </si>
+  <si>
+    <t>2) Elasticity</t>
+  </si>
+  <si>
+    <t>1) Chemical Equilibrium</t>
+  </si>
+  <si>
+    <t>2) Metallurgy</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1850,6 +1862,22 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1895,6 +1923,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1964,26 +1995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2401,14 +2412,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="153"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="162"/>
       <c r="M2" s="52" t="s">
         <v>113</v>
       </c>
@@ -2426,18 +2437,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="130" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
       <c r="M3" s="32"/>
       <c r="N3" s="51"/>
       <c r="O3" s="32"/>
@@ -2445,10 +2456,10 @@
       <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="136" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="8"/>
@@ -2474,8 +2485,8 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="127"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -2649,10 +2660,10 @@
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="125"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="49"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -3111,19 +3122,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="158"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="167"/>
       <c r="N2" s="32"/>
       <c r="O2" s="100" t="s">
         <v>164</v>
@@ -3132,17 +3143,17 @@
       <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
       <c r="N3" s="53" t="s">
         <v>111</v>
       </c>
@@ -3157,10 +3168,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="164" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="93">
@@ -3186,8 +3197,8 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="94" t="s">
         <v>162</v>
       </c>
@@ -3358,10 +3369,10 @@
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="125"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="32" t="s">
         <v>163</v>
       </c>
@@ -3516,19 +3527,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="158"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="167"/>
       <c r="N2" s="32"/>
       <c r="O2" s="100" t="s">
         <v>173</v>
@@ -3537,17 +3548,17 @@
       <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
       <c r="N3" s="53" t="s">
         <v>111</v>
       </c>
@@ -3562,10 +3573,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="164" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="93">
@@ -3591,8 +3602,8 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="94" t="s">
         <v>162</v>
       </c>
@@ -3763,10 +3774,10 @@
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="125"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -4534,18 +4545,18 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="143"/>
       <c r="M2" s="74" t="s">
         <v>111</v>
       </c>
@@ -4560,28 +4571,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="130" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
       <c r="M3" s="51"/>
       <c r="N3" s="32"/>
       <c r="O3" s="51"/>
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="136" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="8"/>
@@ -4604,8 +4615,8 @@
       <c r="P4" s="32"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="127"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -4772,10 +4783,10 @@
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="125"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -5072,40 +5083,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.109375" customWidth="1"/>
+    <col min="16" max="16" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
       <c r="K2" s="110"/>
       <c r="L2" s="111"/>
       <c r="M2" s="111"/>
@@ -5123,30 +5136,30 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="165" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
       <c r="O3" s="51"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="32"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="136" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="76">
@@ -5164,11 +5177,11 @@
       <c r="H4" s="76">
         <v>45314</v>
       </c>
-      <c r="I4" s="162">
+      <c r="I4" s="123">
         <v>45318</v>
       </c>
       <c r="J4" s="93">
-        <v>45318</v>
+        <v>45321</v>
       </c>
       <c r="K4" s="97" t="s">
         <v>217</v>
@@ -5191,8 +5204,8 @@
       <c r="R4" s="32"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="127"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="31" t="s">
         <v>184</v>
       </c>
@@ -5208,7 +5221,7 @@
       <c r="H5" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="163" t="s">
+      <c r="I5" s="124" t="s">
         <v>184</v>
       </c>
       <c r="J5" s="94" t="s">
@@ -5250,7 +5263,7 @@
       <c r="H6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="164" t="s">
+      <c r="I6" s="125" t="s">
         <v>161</v>
       </c>
       <c r="J6" s="13" t="s">
@@ -5408,14 +5421,14 @@
       <c r="R11" s="32"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="167" t="s">
+      <c r="E12" s="127" t="s">
         <v>196</v>
       </c>
       <c r="F12" s="120" t="s">
@@ -5427,7 +5440,7 @@
       <c r="H12" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="I12" s="159" t="s">
+      <c r="I12" s="121" t="s">
         <v>212</v>
       </c>
       <c r="J12" s="120" t="s">
@@ -5439,7 +5452,7 @@
       <c r="L12" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="M12" s="168">
+      <c r="M12" s="128">
         <v>45321</v>
       </c>
       <c r="O12" s="51"/>
@@ -5465,7 +5478,9 @@
         <v>213</v>
       </c>
       <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="32" t="s">
+        <v>231</v>
+      </c>
       <c r="L13" s="32"/>
       <c r="M13" s="6"/>
       <c r="O13" s="51"/>
@@ -5481,16 +5496,18 @@
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="85"/>
       <c r="C14" s="86"/>
-      <c r="D14" s="160"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="85"/>
       <c r="F14" s="86"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
-      <c r="I14" s="160" t="s">
+      <c r="I14" s="122" t="s">
         <v>214</v>
       </c>
       <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
+      <c r="K14" s="86" t="s">
+        <v>232</v>
+      </c>
       <c r="L14" s="86"/>
       <c r="M14" s="7"/>
       <c r="O14" s="51"/>
@@ -5504,9 +5521,6 @@
       <c r="R14" s="32"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
       <c r="O15" s="51"/>
       <c r="P15" s="34" t="s">
         <v>131</v>
@@ -5536,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:N15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5561,18 +5575,18 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
       <c r="P2" s="53" t="s">
         <v>111</v>
       </c>
@@ -5587,31 +5601,31 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="130" t="s">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="32"/>
       <c r="R3" s="51"/>
       <c r="S3" s="32"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="149" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="95">
@@ -5659,8 +5673,8 @@
       <c r="S4" s="73"/>
     </row>
     <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="139"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="31" t="s">
         <v>165</v>
       </c>
@@ -5887,10 +5901,10 @@
       <c r="S11" s="73"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="125"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="32" t="s">
         <v>166</v>
       </c>
@@ -5952,7 +5966,9 @@
         <v>213</v>
       </c>
       <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="L13" s="32" t="s">
+        <v>229</v>
+      </c>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="P13" s="51">
@@ -5979,7 +5995,9 @@
         <v>214</v>
       </c>
       <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="L14" s="32" t="s">
+        <v>230</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="P14" s="72">
@@ -6119,7 +6137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -6143,20 +6161,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="152"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="O2" s="53" t="s">
         <v>111</v>
       </c>
@@ -6171,30 +6189,30 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="130" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="131"/>
-      <c r="M3" s="132"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
       <c r="O3" s="51"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="32"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="157" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="76">
@@ -6239,8 +6257,8 @@
       <c r="R4" s="73"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="127"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="31" t="s">
         <v>188</v>
       </c>
@@ -6456,10 +6474,10 @@
       <c r="R11" s="32"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="125"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="32" t="s">
         <v>189</v>
       </c>
